--- a/Docs/cran_packages.xlsx
+++ b/Docs/cran_packages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="1253">
   <si>
     <t xml:space="preserve">Package</t>
   </si>
@@ -83,10 +83,10 @@
     <t xml:space="preserve">http://gking.harvard.edu/amelia</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-12-05</t>
+    <t xml:space="preserve">1.7.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-07</t>
   </si>
   <si>
     <t xml:space="preserve">anim.plots</t>
@@ -136,14 +136,67 @@
     <t xml:space="preserve">2017-03-30</t>
   </si>
   <si>
+    <t xml:space="preserve">anomalize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidy Anomaly Detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The 'anomalize' package enables a "tidy" workflow for detecting anomalies in data.
+    The main functions are time_decompose(), anomalize(), and time_recompose().
+    When combined, it's quite simple to decompose time series, detect anomalies,
+    and create bands separating the "normal" data from the anomalous data at scale (i.e. for multiple time series). 
+    Time series decomposition is used to remove trend and seasonal components via the time_decompose() function
+    and methods include seasonal decomposition of time series by Loess ("stl") and 
+    seasonal decomposition by piecewise medians ("twitter"). The anomalize() function implements
+    two methods for anomaly detection of residuals including using an inner quartile range ("iqr")
+    and generalized extreme studentized deviation ("gesd"). These methods are based on
+    those used in the 'forecast' package and the Twitter 'AnomalyDetection' package. 
+    Refer to the associated functions for specific references for these methods. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/business-science/anomalize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archivist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools for Storing, Restoring and Searching for R Objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data exploration and modelling is a process in which a lot of data
+    artifacts are produced. Artifacts like: subsets, data aggregates, plots,
+    statistical models, different versions of data sets and different versions
+    of results. The more projects we work with the more artifacts are produced
+    and the harder it is to manage these artifacts. Archivist helps to store
+    and manage artifacts created in R. Archivist allows you to store selected
+    artifacts as a binary files together with their metadata and relations.
+    Archivist allows to share artifacts with others, either through shared
+    folder or github. Archivist allows to look for already created artifacts by
+    using it's class, name, date of the creation or other properties. Makes it
+    easy to restore such artifacts. Archivist allows to check if new artifact
+    is the exact copy that was produced some time ago. That might be useful
+    either for testing or caching.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pbiecek.github.io/archivist/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">autoplotly</t>
   </si>
   <si>
-    <t xml:space="preserve">Automatic Generation of Interactive Visualizations for Popular
+    <t xml:space="preserve">Automatic Generation of Interactive Visualizations for
 Statistical Results</t>
   </si>
   <si>
-    <t xml:space="preserve">Functionalities to automatically generate interactive visualizations for popular
+    <t xml:space="preserve">Functionalities to automatically generate interactive visualizations for
              statistical results supported by 'ggfortify', such as time series, PCA,
              clustering and survival analysis, with 'plotly.js' &lt;https://plot.ly/&gt;  and
              'ggplot2' style. The generated visualizations can also be easily extended
@@ -153,7 +206,7 @@
     <t xml:space="preserve">https://github.com/terrytangyuan/autoplotly</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1.1</t>
+    <t xml:space="preserve">0.1.2</t>
   </si>
   <si>
     <t xml:space="preserve">basictabler</t>
@@ -183,15 +236,13 @@
   </si>
   <si>
     <t xml:space="preserve">An all relevant feature selection wrapper algorithm.
-    It finds relevant features by comparing original attributes'
-    importance with importance achievable at random, estimated
-    using their permuted copies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m2.icm.edu.pl/boruta/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.0</t>
+ It finds relevant features by comparing original attributes' importance with importance achievable at random, estimated using their permuted copies (shadows).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mbq.github.io/Boruta/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.0</t>
   </si>
   <si>
     <t xml:space="preserve">bigrquery</t>
@@ -206,7 +257,7 @@
     <t xml:space="preserve">https://github.com/rstats-db/bigrquery</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4.1</t>
+    <t xml:space="preserve">1.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">bookdown</t>
@@ -240,20 +291,20 @@
     <t xml:space="preserve">https://pbiecek.github.io/breakDown/</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-15</t>
+    <t xml:space="preserve">0.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-01</t>
   </si>
   <si>
     <t xml:space="preserve">brms</t>
   </si>
   <si>
-    <t xml:space="preserve">Bayesian Regression Models using Stan</t>
+    <t xml:space="preserve">Bayesian Regression Models using 'Stan'</t>
   </si>
   <si>
     <t xml:space="preserve">Fit Bayesian generalized (non-)linear multivariate multilevel models
-    using Stan for full Bayesian inference. A wide range of distributions 
+    using 'Stan' for full Bayesian inference. A wide range of distributions 
     and link functions are supported, allowing users to fit -- among others -- 
     linear, robust linear, count data, survival, response times, ordinal, 
     zero-inflated, hurdle, and even self-defined mixture models all in a 
@@ -264,17 +315,18 @@
     regression. Prior specifications are flexible and explicitly encourage 
     users to apply prior distributions that actually reflect their beliefs.
     Model fit can easily be assessed and compared with posterior predictive 
-    checks and leave-one-out cross-validation.</t>
+    checks and leave-one-out cross-validation. References: Bürkner (2017)
+    &lt;doi:10.18637/jss.v080.i01&gt;; Carpenter et al. (2017) &lt;doi:10.18637/jss.v076.i01&gt;.</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/paul-buerkner/brms,
 https://groups.google.com/forum/#!forum/brms-users</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-22</t>
+    <t xml:space="preserve">2.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-04</t>
   </si>
   <si>
     <t xml:space="preserve">C50</t>
@@ -299,8 +351,8 @@
   </si>
   <si>
     <t xml:space="preserve">
-  Functions and Datasets to Accompany J. Fox and S. Weisberg, 
-  An R Companion to Applied Regression, Second Edition, Sage, 2011.</t>
+  Functions to Accompany J. Fox and S. Weisberg, 
+  An R Companion to Applied Regression, Third Edition, Sage, in press.</t>
   </si>
   <si>
     <t xml:space="preserve">https://r-forge.r-project.org/projects/car/,
@@ -308,10 +360,10 @@
 http://socserv.socsci.mcmaster.ca/jfox/Books/Companion/index.html</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-14</t>
+    <t xml:space="preserve">3.0-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-23</t>
   </si>
   <si>
     <t xml:space="preserve">caret</t>
@@ -327,7 +379,7 @@
     <t xml:space="preserve">https://github.com/topepo/caret/</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0-78</t>
+    <t xml:space="preserve">6.0-79</t>
   </si>
   <si>
     <t xml:space="preserve">cartography</t>
@@ -336,16 +388,13 @@
     <t xml:space="preserve">Thematic Cartography</t>
   </si>
   <si>
-    <t xml:space="preserve">Create and integrate maps in your R workflow. This package allows various cartographic representations such as proportional symbols, chroropleth, typology, flows or discontinuities maps. It also offers several features enhancing the graphic presentation of maps like cartographic palettes, layout elements (scale, north arrow, title...), labels, legends or access to some cartographic APIs. See Giraud and Lambert (2017) &lt;doi:10.1007/978-3-319-57336-6_13&gt;.</t>
+    <t xml:space="preserve">Create and integrate maps in your R workflow. This package allows various cartographic representations such as proportional symbols, choropleth, typology, flows or discontinuities maps. It also offers several features enhancing the graphic presentation of maps like cartographic palettes, layout elements (scale, north arrow, title...), labels, legends or access to some cartographic APIs. See Giraud and Lambert (2017) &lt;doi:10.1007/978-3-319-57336-6_13&gt;.</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/riatelab/cartography/</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-13</t>
+    <t xml:space="preserve">2.1.0</t>
   </si>
   <si>
     <t xml:space="preserve">changepoint</t>
@@ -455,6 +504,25 @@
     <t xml:space="preserve">2.0.3</t>
   </si>
   <si>
+    <t xml:space="preserve">clustree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualise Clusterings at Different Resolutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deciding what resolution to use can be a difficult question when
+    approaching a clustering analysis. One way to approach this problem is to
+    look at how samples move as the number of clusters increases. This package
+    allows you to produce clustering trees, a visualisation for interrogating
+    clusterings as resolution increases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/lazappi/clustree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-11</t>
+  </si>
+  <si>
     <t xml:space="preserve">colourpicker</t>
   </si>
   <si>
@@ -474,6 +542,21 @@
   </si>
   <si>
     <t xml:space="preserve">1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparing Objects for Differences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functions to compare a model object to a comparison object.
+  If the objects are not identical, the functions can be instructed to
+  explore various modifications of the objects (e.g., sorting rows,
+  dropping names) to see if the modified versions are identical.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2-6</t>
   </si>
   <si>
     <t xml:space="preserve">condformat</t>
@@ -516,9 +599,6 @@
     <t xml:space="preserve">https://github.com/jimvine/confinterpret</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">corrr</t>
   </si>
   <si>
@@ -671,13 +751,13 @@
     <t xml:space="preserve">Extension of `data.frame`</t>
   </si>
   <si>
-    <t xml:space="preserve">Fast aggregation of large data (e.g. 100GB in RAM), fast ordered joins, fast add/modify/delete of columns by group using no copies at all, list columns, a fast friendly file reader and parallel file writer. Offers a natural and flexible syntax, for faster development.</t>
+    <t xml:space="preserve">Fast aggregation of large data (e.g. 100GB in RAM), fast ordered joins, fast add/modify/delete of columns by group using no copies at all, list columns, friendly and fast character-separated-value read/write. Offers a natural and flexible syntax, for faster development.</t>
   </si>
   <si>
     <t xml:space="preserve">http://r-datatable.com</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10.4-3</t>
+    <t xml:space="preserve">1.11.2</t>
   </si>
   <si>
     <t xml:space="preserve">DataCombine</t>
@@ -752,10 +832,31 @@
     <t xml:space="preserve">https://github.com/ekstroem/dataMaid</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-06</t>
+    <t xml:space="preserve">1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datamap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A system for mapping foreign objects to R variables and
+environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datamap utilizes variable bindings and objects of class
+        "UserDefinedDatabase" to provide a simple mapping system to
+        foreign objects. Maps can be used as environments or attached
+        to the search path, and changes to either are persistent.
+        Mapped foreign objects are fetched in real-time and are never
+        cached by the mapping system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-12-03</t>
   </si>
   <si>
     <t xml:space="preserve">datapasta</t>
@@ -783,6 +884,39 @@
   </si>
   <si>
     <t xml:space="preserve">0.3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the Default Arguments in R Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A simple syntax to change the default values for function
+  arguments, whether they are in packages or defined locally.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">densityClust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clustering by Fast Search and Find of Density Peaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An improved implementation (based on k-nearest neighbors) of the 
+    density peak clustering algorithm, originally described by Alex Rodriguez 
+    and Alessandro Laio (Science, 2014 vol. 344). It can handle large datasets
+    (&gt; 100, 000 samples) very efficiently. It was initially implemented by 
+    Thomas Lin Pedersen, with inputs from Sean Hughes and later improved by 
+    Xiaojie Qiu to handle large datasets with kNNs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-24</t>
   </si>
   <si>
     <t xml:space="preserve">descriptr</t>
@@ -798,11 +932,11 @@
     normal, t, f, chi square and binomial distributions.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rsquaredacademy.github.io/descriptr/,
+    <t xml:space="preserve">https://descriptr.rsquaredacademy.com/,
 https://github.com/rsquaredacademy/descriptr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4.0</t>
+    <t xml:space="preserve">0.4.1</t>
   </si>
   <si>
     <t xml:space="preserve">desctable</t>
@@ -829,10 +963,30 @@
     <t xml:space="preserve">A collection of miscellaneous basic statistic functions and convenience wrappers for efficiently describing data. The author's intention was to create a toolbox, which facilitates the (notoriously time consuming) first descriptive tasks in data analysis, consisting of calculating descriptive statistics, drawing graphical summaries and reporting the results. The package contains furthermore functions to produce documents using MS Word (or PowerPoint) and functions to import data from Excel. Many of the included functions can be found scattered in other packages and other sources written partly by Titans of R. The reason for collecting them here, was primarily to have them consolidated in ONE instead of dozens of packages (which themselves might depend on other packages which are not needed at all), and to provide a common and consistent interface as far as function and arguments naming, NA handling, recycling rules etc. are concerned. Google style guides were used as naming rules (in absence of convincing alternatives). The 'camel style' was consequently applied to functions borrowed from contributed R packages as well.</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-09</t>
+    <t xml:space="preserve">0.99.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functions for Visualising Simple Graphs (Networks), Plotting
+Flow Diagrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualises simple graphs (networks) based on a transition matrix, utilities to plot flow diagrams, 
+     visualising webs, electrical networks, etc.
+     Support for the book "A practical guide to ecological modelling -
+     using R as a simulation platform"
+     by Karline Soetaert and Peter M.J. Herman (2009), Springer.
+     and the book "Solving Differential Equations in R"
+     by Karline Soetaert, Jeff Cash and Francesca Mazzia (2012), Springer.
+     Includes demo(flowchart), demo(plotmat), demo(plotweb).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.4</t>
   </si>
   <si>
     <t xml:space="preserve">DiagrammeR</t>
@@ -841,7 +995,14 @@
     <t xml:space="preserve">Graph/Network Visualization</t>
   </si>
   <si>
-    <t xml:space="preserve">Graph and network visualization using tabular data.</t>
+    <t xml:space="preserve">
+    Build graph/network structures using functions for stepwise addition and
+    deletion of nodes and edges. Work with data available in tables for bulk
+    addition of nodes, edges, and associated metadata. Use graph selections
+    and traversals to apply changes to specific nodes or edges. A wide
+    selection of graph algorithms allow for the analysis of graphs. Visualize
+    the graphs and take advantage of any aesthetic properties assigned to
+    nodes and edges.</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/rich-iannone/DiagrammeR</t>
@@ -863,9 +1024,6 @@
   <si>
     <t xml:space="preserve">https://github.com/AlineTalhouk/diceR,
 https://alinetalhouk.github.io/diceR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-22</t>
   </si>
   <si>
     <t xml:space="preserve">diffobj</t>
@@ -921,7 +1079,7 @@
     <t xml:space="preserve">https://github.com/ropensci/drake</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0.0</t>
+    <t xml:space="preserve">5.1.2</t>
   </si>
   <si>
     <t xml:space="preserve">dygraphs</t>
@@ -1047,9 +1205,6 @@
     <t xml:space="preserve">https://www.github.com/rorynolan/filesstrings</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">forecTheta</t>
   </si>
   <si>
@@ -1078,7 +1233,10 @@
   top of the 'libuv' C library.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://fs.r-lib.org</t>
+    <t xml:space="preserve">http://fs.r-lib.org, https://github.com/r-lib/fs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.2</t>
   </si>
   <si>
     <t xml:space="preserve">funModeling</t>
@@ -1152,10 +1310,10 @@
     Utilities.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0.1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-10-08</t>
+    <t xml:space="preserve">2.0.1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-22</t>
   </si>
   <si>
     <t xml:space="preserve">geofacet</t>
@@ -1165,9 +1323,6 @@
   </si>
   <si>
     <t xml:space="preserve">Provides geofaceting functionality for 'ggplot2'. Geofaceting arranges a sequence of plots of data for different geographical entities into a grid that preserves some of the geographical orientation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1.5</t>
   </si>
   <si>
     <t xml:space="preserve">geonames</t>
@@ -1259,6 +1414,9 @@
     <t xml:space="preserve">https://github.com/hrbrmstr/ggalt</t>
   </si>
   <si>
+    <t xml:space="preserve">0.4.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">ggbeeswarm</t>
   </si>
   <si>
@@ -1323,6 +1481,27 @@
   </si>
   <si>
     <t xml:space="preserve">2016-11-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggfortify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Visualization Tools for Statistical Analysis Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unified plotting tools for statistics commonly used, such as GLM,
+    time series, PCA families, clustering and survival analysis. The package offers
+    a single plotting interface for these analysis results and plots in a unified
+    style using 'ggplot2'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sinhrks/ggfortify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-18</t>
   </si>
   <si>
     <t xml:space="preserve">gghighlight</t>
@@ -1429,6 +1608,9 @@
     <t xml:space="preserve">0.1.6</t>
   </si>
   <si>
+    <t xml:space="preserve">2017-11-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">ggraph</t>
   </si>
   <si>
@@ -1447,7 +1629,8 @@
     <t xml:space="preserve">ggrepel</t>
   </si>
   <si>
-    <t xml:space="preserve">Repulsive Text and Label Geoms for 'ggplot2'</t>
+    <t xml:space="preserve">Automatically Position Non-Overlapping Text Labels with
+'ggplot2'</t>
   </si>
   <si>
     <t xml:space="preserve">Provides text and label geoms for 'ggplot2' that help to avoid
@@ -1458,6 +1641,9 @@
     <t xml:space="preserve">http://github.com/slowkow/ggrepel</t>
   </si>
   <si>
+    <t xml:space="preserve">0.8.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">ggridges</t>
   </si>
   <si>
@@ -1529,7 +1715,22 @@
     of 'Positions'.</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3</t>
+    <t xml:space="preserve">ggstatsplot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'ggplot2' Based Plots with Statistical Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension of 'ggplot2', 'ggstatsplot' creates graphics with details from statistical tests 
+  (parametric, non-parametric, or robust) included in the plots themselves. It is targeted primarily at 
+  behavioral sciences community to provide a one-line code to generate information-rich plots for 
+  statistical analysis of continuous (violin plots, scatterplots, histograms) or categorical (pie charts) data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://indrajeetpatil.github.io/ggstatsplot/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0.2</t>
   </si>
   <si>
     <t xml:space="preserve">ggtern</t>
@@ -1582,7 +1783,7 @@
     <t xml:space="preserve">http://github.com/jrnold/ggthemes</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4.0</t>
+    <t xml:space="preserve">3.5.0</t>
   </si>
   <si>
     <t xml:space="preserve">ggvis</t>
@@ -1614,10 +1815,10 @@
     <t xml:space="preserve">http://www.jstatsoft.org/v33/i01/.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-21</t>
+    <t xml:space="preserve">2.0-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-12</t>
   </si>
   <si>
     <t xml:space="preserve">gmodels</t>
@@ -1851,15 +2052,17 @@
   </si>
   <si>
     <t xml:space="preserve">A compilation of extra 'ggplot2' themes, scales and utilities, including a 
-    spell check function plot label fields and an overall emphasis on typography. 
+    spell check function for plot label fields and an overall emphasis on typography. 
     A copy of the 'Google' font 'Roboto Condensed' &lt;https://github.com/google/roboto/&gt; 
-    is also included to support one of the typography-oriented themes.</t>
+    is also included along with a copy of the 'IBM' 'Plex Sans' &lt;https://github.com/IBM/type&gt;
+    and 'Titillium Web' &lt;https://fonts.google.com/specimen/Titillium+Web&gt; fonts
+    are also included to support their respective typography-oriented themes.</t>
   </si>
   <si>
     <t xml:space="preserve">http://github.com/hrbrmstr/hrbrthemes</t>
   </si>
   <si>
-    <t xml:space="preserve">2017-02-25</t>
+    <t xml:space="preserve">2018-04-24</t>
   </si>
   <si>
     <t xml:space="preserve">htmlwidgets</t>
@@ -1876,6 +2079,9 @@
     <t xml:space="preserve">https://github.com/ramnathv/htmlwidgets</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">igraph</t>
   </si>
   <si>
@@ -1890,7 +2096,42 @@
     <t xml:space="preserve">http://igraph.org</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.2</t>
+    <t xml:space="preserve">1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interpretable Machine Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interpretability methods to analyze the behavior and predictions of
+ any machine learning model.
+ Implemented methods are:
+ Feature importance described by Fisher et al. (2018) &lt;arXiv:1801.01489&gt;,
+ partial dependence plots described by Friedman (2001) &lt;http://www.jstor.org/stable/2699986&gt;,
+ individual conditional expectation ('ice') plots described by Goldstein et al. (2013) &lt;doi:10.1080/10618600.2014.907095&gt;,
+ local models (variant of 'lime') described by Ribeiro et. al (2016) &lt;arXiv:1602.04938&gt;,
+ the Shapley Value described by Strumbelj et. al (2014) &lt;doi:10.1007/s10115-013-0679-x&gt; and
+ tree surrogate models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/christophM/iml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidy Statistical Inference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The objective of this package is to perform inference using an expressive statistical grammar that coheres with the tidy design framework. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/andrewpbray/infer</t>
   </si>
   <si>
     <t xml:space="preserve">janitor</t>
@@ -1900,7 +2141,7 @@
   </si>
   <si>
     <t xml:space="preserve">The main janitor functions can: perfectly format data.frame column
-    names; provide quick one- and two-variable tabulations (i.e., frequency
+    names; provide quick counts of variable combinations (i.e., frequency
     tables and crosstabs); and isolate duplicate records. Other janitor functions
     nicely format the tabulation results. These tabulate-and-report functions
     approximate popular features of SPSS and Microsoft Excel. This package
@@ -1912,9 +2153,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/sfirke/janitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3.1</t>
   </si>
   <si>
     <t xml:space="preserve">knitr</t>
@@ -1989,14 +2227,14 @@
   <si>
     <t xml:space="preserve">Create and customize interactive maps using the 'Leaflet'
     JavaScript library and the 'htmlwidgets' package. These maps can be used
-    directly from the R console, from 'RStudio', in Shiny apps and R Markdown
+    directly from the R console, from 'RStudio', in Shiny applications and R Markdown
     documents.</t>
   </si>
   <si>
     <t xml:space="preserve">http://rstudio.github.io/leaflet/</t>
   </si>
   <si>
-    <t xml:space="preserve">2017-02-17</t>
+    <t xml:space="preserve">2.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">leaflet.minicharts</t>
@@ -2010,7 +2248,7 @@
     variables on a single map.</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5.2</t>
+    <t xml:space="preserve">0.5.3</t>
   </si>
   <si>
     <t xml:space="preserve">leaps</t>
@@ -2053,10 +2291,10 @@
     <t xml:space="preserve">Each function accomplishes the work of several or more standard R functions. For example, two function calls, Read() and CountAll(), read the data and generate summary statistics for all variables in the data frame, plus histograms and bar charts as appropriate.  Other functions provide for descriptive statistics, a comprehensive regression analysis, analysis of variance and t-test, plotting including the introduced here Violin/Box/Scatter plot for a numerical variable, bar chart, histogram, box plot, density curves, calibrated power curve, reading multiple data formats with the same function call, variable labels, color themes, Trellis graphics and a built-in help system. A confirmatory factor analysis of multiple indicator measurement models is available, as are pedagogical routines for data simulation such as for the Central Limit Theorem. Compatible with 'RStudio' and 'knitr' including generation of R markdown instructions for interpretative output. </t>
   </si>
   <si>
-    <t xml:space="preserve">3.7.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-05</t>
+    <t xml:space="preserve">3.7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-30</t>
   </si>
   <si>
     <t xml:space="preserve">liftr</t>
@@ -2112,7 +2350,7 @@
     <t xml:space="preserve">https://github.com/thomasp85/lime</t>
   </si>
   <si>
-    <t xml:space="preserve">2017-11-24</t>
+    <t xml:space="preserve">2018-03-08</t>
   </si>
   <si>
     <t xml:space="preserve">linemap</t>
@@ -2145,9 +2383,6 @@
     <t xml:space="preserve">http://www.isa.uni-stuttgart.de/software/</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017-07-19</t>
   </si>
   <si>
@@ -2187,7 +2422,7 @@
     <t xml:space="preserve">https://github.com/ropensci/magick#readme</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7</t>
+    <t xml:space="preserve">1.8</t>
   </si>
   <si>
     <t xml:space="preserve">manipulate</t>
@@ -2217,7 +2452,10 @@
 	higher-resolution databases.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2-6</t>
+    <t xml:space="preserve">2.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-29</t>
   </si>
   <si>
     <t xml:space="preserve">mapedit</t>
@@ -2233,10 +2471,7 @@
     <t xml:space="preserve">https://github.com/r-spatial/mapedit</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-14</t>
+    <t xml:space="preserve">2018-03-01</t>
   </si>
   <si>
     <t xml:space="preserve">mapmisc</t>
@@ -2248,10 +2483,10 @@
     <t xml:space="preserve">A minimal, light-weight set of tools for producing nice looking maps in R, with support for map projections.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-04</t>
+    <t xml:space="preserve">1.7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-06</t>
   </si>
   <si>
     <t xml:space="preserve">maps</t>
@@ -2264,10 +2499,10 @@
              separate packages ('mapproj' and 'mapdata').</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-07</t>
+    <t xml:space="preserve">3.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-03</t>
   </si>
   <si>
     <t xml:space="preserve">mapsapi</t>
@@ -2279,9 +2514,6 @@
     <t xml:space="preserve">Interface to the 'Google Maps' APIs: (1) routing directions based on the 'Directions' API, returned as 'sf' objects, either as single feature per alternative route, or a single feature per segment per alternative route; (2) travel distance or time matrices based on the 'Distance Matrix' API; (3) geocoded locations based on the 'Geocode' API, returned as 'sf' objects, either points or bounds.</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">maptools</t>
   </si>
   <si>
@@ -2312,10 +2544,10 @@
     <t xml:space="preserve">https://github.com/r-spatial/mapview</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-30</t>
+    <t xml:space="preserve">2.4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-28</t>
   </si>
   <si>
     <t xml:space="preserve">metricsgraphics</t>
@@ -2383,6 +2615,29 @@
     <t xml:space="preserve">2013-12-31</t>
   </si>
   <si>
+    <t xml:space="preserve">mlr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine Learning in R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface to a large number of classification and regression
+    techniques, including machine-readable parameter descriptions. There is
+    also an experimental extension for survival analysis, clustering and
+    general, example-specific cost-sensitive learning. Generic resampling,
+    including cross-validation, bootstrapping and subsampling. Hyperparameter
+    tuning with modern optimization techniques, for single- and multi-objective
+    problems. Filter and wrapper methods for feature selection. Extension of
+    basic learners with additional operations common in machine learning, also
+    allowing for easy nested resampling. Most operations can be parallelized.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/mlr-org/mlr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">mschart</t>
   </si>
   <si>
@@ -2400,7 +2655,7 @@
     <t xml:space="preserve">https://ardata-fr.github.io/mschart/</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2.2</t>
+    <t xml:space="preserve">0.2.3</t>
   </si>
   <si>
     <t xml:space="preserve">multiROC</t>
@@ -2497,6 +2752,21 @@
   </si>
   <si>
     <t xml:space="preserve">2011-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OutliersO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draws Overview of Outliers (O3) Plots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potential outliers are identified for all combinations of a dataset's variables. The available methods are HDoutliers() from the package 'HDoutliers', FastPCS() from the package 'FastPCS', mvBACON() from 'robustX', adjOutlyingness() from 'robustbase', DectectDeviatingCells() from 'cellWise', covMcd() from 'robustbase'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-08</t>
   </si>
   <si>
     <t xml:space="preserve">party</t>
@@ -2528,10 +2798,10 @@
     <t xml:space="preserve">http://party.R-forge.R-project.org</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-13</t>
+    <t xml:space="preserve">1.3-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-20</t>
   </si>
   <si>
     <t xml:space="preserve">pathological</t>
@@ -2553,6 +2823,20 @@
   </si>
   <si>
     <t xml:space="preserve">pcaMethods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pkgdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Static HTML Documentation for a Package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate an attractive and useful website from a source package.
+    'pkgdown' convert your documentation, vignettes, 'README' and more to 
+    'HTML' making it easy to share information about your package online.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://pkgdown.r-lib.org, https://github.com/r-lib/pkgdown</t>
   </si>
   <si>
     <t xml:space="preserve">PMCMRplus</t>
@@ -2594,7 +2878,7 @@
              are provided.</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-01-15</t>
+    <t xml:space="preserve">2018-04-26</t>
   </si>
   <si>
     <t xml:space="preserve">pipefittr</t>
@@ -2604,9 +2888,6 @@
   </si>
   <si>
     <t xml:space="preserve">To take nested function calls and convert them to a more readable form using pipes from package 'magrittr'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1.2</t>
   </si>
   <si>
     <t xml:space="preserve">pkggraph</t>
@@ -2621,6 +2902,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/talegari/pkggraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2.2</t>
   </si>
   <si>
     <t xml:space="preserve">placement</t>
@@ -2690,18 +2974,6 @@
     <t xml:space="preserve">pmap</t>
   </si>
   <si>
-    <t xml:space="preserve">Process Map Visualization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  A set of functions to produce the process map visualization for process analysis. It
-  can generate the process map from a process event logs recorded in the process, with
-  the ability of pruning the nodes and/or edges to reduce the complexity of the result.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/twang2218/pmap</t>
-  </si>
-  <si>
     <t xml:space="preserve">pool</t>
   </si>
   <si>
@@ -2716,6 +2988,9 @@
     <t xml:space="preserve">https://github.com/rstudio/pool</t>
   </si>
   <si>
+    <t xml:space="preserve">0.1.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">postGIStools</t>
   </si>
   <si>
@@ -2724,7 +2999,9 @@
   <si>
     <t xml:space="preserve">Functions to convert geometry and 'hstore' data types from
     'PostgreSQL' into standard R objects, as well as to simplify
-    the import of R data frames (including spatial data frames) into 'PostgreSQL'.</t>
+    the import of R data frames (including spatial data frames) into 'PostgreSQL'.
+    Note: This package is deprecated. For new projects, we recommend 
+    using the 'sf' package to interface with geodatabases.</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/SESYNC-ci/postGIStools</t>
@@ -2749,6 +3026,27 @@
     <t xml:space="preserve">2017-05-19</t>
   </si>
   <si>
+    <t xml:space="preserve">processx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execute and Control System Processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools to run system processes in the background.
+    It can check if a background process is running; wait on a background
+    process to finish; get the exit status of finished processes; kill
+    background processes and their children; restart processes. It can read
+    the standard output and error of the processes, using non-blocking
+    connections. 'processx' can poll a process for standard output or
+    error, with a timeout. It can also poll several processes at once.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/r-lib/processx#readme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">profvis</t>
   </si>
   <si>
@@ -2768,17 +3066,17 @@
 Research</t>
   </si>
   <si>
-    <t xml:space="preserve">A general purpose toolbox for personality, psychometric theory and experimental psychology.   Functions are primarily for multivariate analysis and scale construction using factor analysis, principal component analysis, cluster analysis and reliability analysis, although others provide basic descriptive statistics. Item Response Theory is done using  factor analysis of tetrachoric and polychoric correlations. Functions for analyzing data at multiple levels include within and between group statistics, including correlations and factor analysis.   Functions for simulating and testing particular item and test structures are included. Several functions  serve as a useful front end for structural equation modeling.  Graphical displays of path diagrams, factor analysis and structural equation models are created using basic graphics. Some of the functions are written to support a book on psychometric theory as well as publications in personality research. For more information, see the &lt;http://personality-project.org/r&gt; web page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://personality-project.org/r/psych
-http://personality-project.org/r/psych-manual.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-17</t>
+    <t xml:space="preserve">A general purpose toolbox for personality, psychometric theory and experimental psychology.   Functions are primarily for multivariate analysis and scale construction using factor analysis, principal component analysis, cluster analysis and reliability analysis, although others provide basic descriptive statistics. Item Response Theory is done using  factor analysis of tetrachoric and polychoric correlations. Functions for analyzing data at multiple levels include within and between group statistics, including correlations and factor analysis.   Functions for simulating and testing particular item and test structures are included. Several functions  serve as a useful front end for structural equation modeling.  Graphical displays of path diagrams, factor analysis and structural equation models are created using basic graphics. Some of the functions are written to support a book on psychometric theory as well as publications in personality research. For more information, see the &lt;https://personality-project.org/r&gt; web page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://personality-project.org/r/psych
+https://personality-project.org/r/psych-manual.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-4-30</t>
   </si>
   <si>
     <t xml:space="preserve">qdapRegex</t>
@@ -2816,10 +3114,10 @@
     <t xml:space="preserve">http://www.quantmod.com https://github.com/joshuaulrich/quantmod</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-02</t>
+    <t xml:space="preserve">0.4-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-10</t>
   </si>
   <si>
     <t xml:space="preserve">questionr</t>
@@ -2865,17 +3163,16 @@
 Regression</t>
   </si>
   <si>
-    <t xml:space="preserve">Classification and regression based on a forest of trees
-        using random inputs.</t>
+    <t xml:space="preserve">Classification and regression based on a forest of trees using random inputs, based on Breiman (2001) &lt;DOI:10.1023/A:1010933404324&gt;.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.stat.berkeley.edu/~breiman/RandomForests/</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-10-06</t>
+    <t xml:space="preserve">4.6-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-22</t>
   </si>
   <si>
     <t xml:space="preserve">randomForestExplainer</t>
@@ -2924,10 +3221,10 @@
     <t xml:space="preserve">http://oscarperpinan.github.io/rastervis</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-10</t>
+    <t xml:space="preserve">0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-05</t>
   </si>
   <si>
     <t xml:space="preserve">reprex</t>
@@ -2975,10 +3272,7 @@
     <t xml:space="preserve">http://www.gdal.org, https://r-forge.r-project.org/projects/rgdal/</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-21</t>
+    <t xml:space="preserve">1.2-20</t>
   </si>
   <si>
     <t xml:space="preserve">rgeos</t>
@@ -3016,7 +3310,7 @@
     <t xml:space="preserve">https://r-forge.r-project.org/projects/rgl/</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99.9</t>
+    <t xml:space="preserve">0.99.16</t>
   </si>
   <si>
     <t xml:space="preserve">RgoogleMaps</t>
@@ -3053,7 +3347,7 @@
     <t xml:space="preserve">https://github.com/leeper/rio</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5.9</t>
+    <t xml:space="preserve">0.5.10</t>
   </si>
   <si>
     <t xml:space="preserve">riverplot</t>
@@ -3097,10 +3391,10 @@
     <t xml:space="preserve">Convert R Markdown documents into a variety of formats.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://rmarkdown.rstudio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8</t>
+    <t xml:space="preserve">http://rmarkdown.rstudio.com, https://github.com/rstudio/rmarkdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9</t>
   </si>
   <si>
     <t xml:space="preserve">rms</t>
@@ -3146,10 +3440,7 @@
     <t xml:space="preserve">http://github.com/RubenCrevits/robets</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-30</t>
+    <t xml:space="preserve">2018-03-06</t>
   </si>
   <si>
     <t xml:space="preserve">rpart.plot</t>
@@ -3201,9 +3492,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://topepo.github.io/rsample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0.2</t>
   </si>
   <si>
     <t xml:space="preserve">RTextTools</t>
@@ -3244,10 +3532,10 @@
     <t xml:space="preserve">http://r-gis.net</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-14</t>
+    <t xml:space="preserve">1.0-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-17</t>
   </si>
   <si>
     <t xml:space="preserve">rtweet</t>
@@ -3324,6 +3612,9 @@
     <t xml:space="preserve">https://github.com/adwolfer</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-01-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">scanstatistics</t>
   </si>
   <si>
@@ -3351,10 +3642,10 @@
     <t xml:space="preserve">Plots a three dimensional (3D) point cloud.</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-22</t>
+    <t xml:space="preserve">0.3-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-13</t>
   </si>
   <si>
     <t xml:space="preserve">sessioninfo</t>
@@ -3430,10 +3721,7 @@
 https://winvector.github.io/sigr/</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-28</t>
+    <t xml:space="preserve">0.2.5</t>
   </si>
   <si>
     <t xml:space="preserve">Simpsons</t>
@@ -3452,6 +3740,24 @@
     <t xml:space="preserve">2012-08-17</t>
   </si>
   <si>
+    <t xml:space="preserve">simstudy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation of Study Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulates data sets in order to explore modeling techniques or
+    better understand data generating processes. The user specifies a set of
+    relationships between covariates, and generates data based on these
+    specifications. The final data sets can represent data from randomized
+    control trials, repeated measure (longitudinal) designs, and cluster
+    randomized trials. Missingness can be generated using various
+    mechanisms (MCAR, MAR, NMAR).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-08</t>
+  </si>
+  <si>
     <t xml:space="preserve">sinew</t>
   </si>
   <si>
@@ -3471,28 +3777,6 @@
   </si>
   <si>
     <t xml:space="preserve">2017-10-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sjmisc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data and Variable Transformation Functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collection of miscellaneous utility functions, supporting data 
-    transformation tasks like recoding, dichotomizing or grouping variables, 
-    setting and replacing missing values. The data transformation functions 
-    also support labelled data, and all integrate seamlessly into a 
-    'tidyverse'-workflow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/strengejacke/sjmisc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-03</t>
   </si>
   <si>
     <t xml:space="preserve">skimr</t>
@@ -3514,6 +3798,9 @@
     <t xml:space="preserve">https://github.com/ropenscilabs/skimr</t>
   </si>
   <si>
+    <t xml:space="preserve">1.0.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">smpic</t>
   </si>
   <si>
@@ -3543,7 +3830,10 @@
     <t xml:space="preserve">https://github.com/Tazinho/snakecase</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-02-24</t>
+    <t xml:space="preserve">0.9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-24</t>
   </si>
   <si>
     <t xml:space="preserve">sp</t>
@@ -3581,6 +3871,9 @@
     <t xml:space="preserve">https://github.com/verajosemanuel</t>
   </si>
   <si>
+    <t xml:space="preserve">0.3.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017-12-14</t>
   </si>
   <si>
@@ -3597,6 +3890,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://spark.rstudio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8.2</t>
   </si>
   <si>
     <t xml:space="preserve">spatstat</t>
@@ -3617,7 +3913,39 @@
     <t xml:space="preserve">http://www.spatstat.org</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55-0</t>
+    <t xml:space="preserve">1.55-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staplr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Toolkit for PDF Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides function to manipulate PDF files: 
+    fill out PDF forms;
+    merge multiple PDF files into one; 
+    remove selected pages from a file;
+    rename multiple files in a directory;
+    rotate entire pdf document; 
+    rotate selected pages of a pdf file;
+    splits single input PDF document into individual pages;
+    splits single input PDF document into parts from given points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly R Startup Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adds support for R startup configuration via '.Renviron.d' and '.Rprofile.d' directories in addition to '.Renviron' and '.Rprofile' files.  This makes it possible to keep private / secret environment variables separate from other environment variables.  It also makes it easier to share specific startup settings by simply copying a file to a directory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/HenrikBengtsson/startup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10.0</t>
   </si>
   <si>
     <t xml:space="preserve">stm</t>
@@ -3669,7 +3997,7 @@
     <t xml:space="preserve">https://github.com/r-lib/styler, https://r-lib.github.io/styler/</t>
   </si>
   <si>
-    <t xml:space="preserve">2017-12-05</t>
+    <t xml:space="preserve">2018-03-07</t>
   </si>
   <si>
     <t xml:space="preserve">sugrrants</t>
@@ -3703,10 +4031,7 @@
     <t xml:space="preserve">https://github.com/dcomtois/summarytools</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-10</t>
+    <t xml:space="preserve">0.8.3</t>
   </si>
   <si>
     <t xml:space="preserve">swatches</t>
@@ -3753,7 +4078,29 @@
     <t xml:space="preserve">https://github.com/business-science/sweep</t>
   </si>
   <si>
-    <t xml:space="preserve">2017-07-25</t>
+    <t xml:space="preserve">2018-03-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tableone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create 'Table 1' to Describe Baseline Characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creates 'Table 1', i.e., description of baseline patient
+    characteristics, which is essential in every medical research.
+    Supports both continuous and categorical variables, as well as
+    p-values and standardized mean differences. Weighted data are
+    supported via the 'survey' package. See 'github' for a screen cast.
+    'tableone' was inspired by descriptive statistics functions in
+    'Deducer' , a Java-based GUI package by Ian Fellows. This package
+    does not require GUI or Java, and intended for command-line users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/kaz-yos/tableone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9.3</t>
   </si>
   <si>
     <t xml:space="preserve">tabplot</t>
@@ -3792,6 +4139,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.16.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-10</t>
   </si>
   <si>
     <t xml:space="preserve">tatoo</t>
@@ -3812,27 +4162,43 @@
     <t xml:space="preserve">https://github.com/statistikat/tatoo</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">textclean</t>
   </si>
   <si>
     <t xml:space="preserve">Text Cleaning Tools</t>
   </si>
   <si>
-    <t xml:space="preserve">Tools to clean and process text.  Tools are geared at checking for substrings
-          that are not optimal for analysis and replacing or removing them (normalizing) with
-          more analysis friendly substrings (see Sproat, Black, Chen, Kumar, Ostendorf, &amp;
-          Richards (2001) &lt;doi:10.1006/csla.2001.0169&gt;). For example, emoticons are often
-          used in text but not always easily handled by analysis algorithms.  The
-          'replace_emoticon()' function replaces emoticons with word equivalents.</t>
+    <t xml:space="preserve">Tools to clean and process text.  Tools are geared at checking for
+         substrings that are not optimal for analysis and replacing or removing
+         them (normalizing) with more analysis friendly substrings (see Sproat,
+         Black, Chen, Kumar, Ostendorf, &amp; Richards (2001)
+         &lt;doi:10.1006/csla.2001.0169&gt;) or extracting them into new variables.
+         For example, emoticons are often used in text but not always easily
+         handled by analysis algorithms.  The 'replace_emoticon()' function
+         replaces emoticons with word equivalents.</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/trinker/textclean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-14</t>
+    <t xml:space="preserve">0.7.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textfeatures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracts Features from Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tool for extracting some generic features (e.g., number of 
+    words, line breaks, characters per word, URLs, lower case, upper case, 
+    commas, periods, exclamation points, etc.) from strings of text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/mkearney/textfeatures</t>
   </si>
   <si>
     <t xml:space="preserve">thinkr</t>
@@ -3845,9 +4211,6 @@
   </si>
   <si>
     <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-13</t>
   </si>
   <si>
     <t xml:space="preserve">threejs</t>
@@ -3861,6 +4224,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://bwlewis.github.io/rthreejs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3.1</t>
   </si>
   <si>
     <t xml:space="preserve">2017-08-11</t>
@@ -3917,6 +4283,9 @@
     <t xml:space="preserve">https://github.com/thomasp85/tidygraph</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-02-10</t>
+  </si>
+  <si>
     <t xml:space="preserve">tidyquant</t>
   </si>
   <si>
@@ -3935,10 +4304,10 @@
     <t xml:space="preserve">https://github.com/business-science/tidyquant</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-18</t>
+    <t xml:space="preserve">0.5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-06</t>
   </si>
   <si>
     <t xml:space="preserve">timetk</t>
@@ -3957,6 +4326,9 @@
     <t xml:space="preserve">https://github.com/business-science/timetk</t>
   </si>
   <si>
+    <t xml:space="preserve">2017-07-25</t>
+  </si>
+  <si>
     <t xml:space="preserve">tmap</t>
   </si>
   <si>
@@ -3969,7 +4341,7 @@
     <t xml:space="preserve">https://github.com/mtennekes/tmap</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11-1</t>
+    <t xml:space="preserve">1.11-2</t>
   </si>
   <si>
     <t xml:space="preserve">tmaptools</t>
@@ -3984,7 +4356,7 @@
     <t xml:space="preserve">https://github.com/mtennekes/tmaptools</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2-3</t>
+    <t xml:space="preserve">1.2-4</t>
   </si>
   <si>
     <t xml:space="preserve">tmuxr</t>
@@ -4057,6 +4429,9 @@
   <si>
     <t xml:space="preserve">https://bnosac.github.io/udpipe/en/index.html,
 https://github.com/bnosac/udpipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
   </si>
   <si>
     <t xml:space="preserve">usethis</t>
@@ -4103,6 +4478,29 @@
     <t xml:space="preserve">2017-04-11</t>
   </si>
   <si>
+    <t xml:space="preserve">viridis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default Color Maps from 'matplotlib'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementation of the 'viridis' - the default -, 'magma', 'plasma', 
+    'inferno', and 'cividis' color maps for 'R'. 'viridis', 'magma', 'plasma', 
+    and 'inferno' are ported from 'matplotlib' &lt;http://matplotlib.org/&gt;, a 
+    popular plotting library for 'python'. 'cividis', was developed by Jamie R. 
+    Nuñez and Sean M. Colby. These color maps are designed in such a way that 
+    they will analytically be perfectly perceptually-uniform, both in regular 
+    form and also when converted to black-and-white. They are also designed to 
+    be perceived by readers with the most common form of color blindness (all 
+    color maps in this package) and color vision deficiency ('cividis' only). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sjmgarnier/viridis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viridislite</t>
+  </si>
+  <si>
     <t xml:space="preserve">visdat</t>
   </si>
   <si>
@@ -4139,6 +4537,9 @@
   </si>
   <si>
     <t xml:space="preserve">A not uncommon task for quants is to create 'waterfall charts'. There seems to be no simple way to do this in 'ggplot2' currently. This package contains a single function (waterfall) that simply draws a waterfall chart in a 'ggplot2' object. Some flexibility is provided, though often the object created will need to be modified through a theme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-15</t>
   </si>
   <si>
     <t xml:space="preserve">withr</t>
@@ -4153,10 +4554,21 @@
     to provide access to these functions.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://github.com/r-lib/withr#readme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1</t>
+    <t xml:space="preserve">http://withr.r-lib.org, http://github.com/r-lib/withr#readme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workflowr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Framework for Reproducible and Collaborative Data Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combines literate programming ('knitr' and 'rmarkdown') and version
+  control ('Git', via 'git2r') to generate a website containing time-stamped,
+  versioned, and documented results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/jdblischak/workflowr</t>
   </si>
   <si>
     <t xml:space="preserve">xgboost</t>
@@ -4742,163 +5154,161 @@
       <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
+      <c r="F11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
+      <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>72</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>73</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>74</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
         <v>77</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>78</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>79</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
         <v>80</v>
       </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
         <v>82</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>84</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>85</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
         <v>88</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>89</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>90</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>91</v>
       </c>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
+      <c r="F17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
         <v>94</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
         <v>98</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>99</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>100</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>101</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>102</v>
       </c>
-      <c r="F19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4911,10 +5321,10 @@
         <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="F20"/>
     </row>
@@ -4947,416 +5357,418 @@
         <v>114</v>
       </c>
       <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
         <v>115</v>
-      </c>
-      <c r="E22" t="s">
-        <v>116</v>
       </c>
       <c r="F22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>118</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>119</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>120</v>
-      </c>
-      <c r="E23" t="s">
-        <v>121</v>
       </c>
       <c r="F23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
         <v>122</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>123</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>124</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>125</v>
       </c>
-      <c r="E24" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" t="s">
-        <v>127</v>
-      </c>
+      <c r="F24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
         <v>128</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>129</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
         <v>130</v>
       </c>
-      <c r="D25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
         <v>133</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>134</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>135</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>137</v>
       </c>
       <c r="F26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
         <v>138</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27"/>
+      <c r="E27" t="s">
         <v>139</v>
-      </c>
-      <c r="C27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" t="s">
-        <v>142</v>
       </c>
       <c r="F27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
         <v>143</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E28" t="s">
         <v>144</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
         <v>145</v>
       </c>
-      <c r="D28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
         <v>147</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>148</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>149</v>
       </c>
-      <c r="D29" t="s">
-        <v>150</v>
-      </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="F29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" t="s">
         <v>151</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>152</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>153</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>154</v>
       </c>
-      <c r="E30" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" t="s">
-        <v>156</v>
-      </c>
+      <c r="F30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
         <v>157</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>158</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>159</v>
       </c>
-      <c r="D31"/>
-      <c r="E31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" t="s">
-        <v>161</v>
-      </c>
+      <c r="F31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>163</v>
       </c>
-      <c r="C32" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" t="s">
-        <v>165</v>
-      </c>
       <c r="E32" t="s">
-        <v>166</v>
-      </c>
-      <c r="F32" t="s">
-        <v>167</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
-        <v>172</v>
-      </c>
-      <c r="F33" t="s">
-        <v>173</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34"/>
+        <v>172</v>
+      </c>
+      <c r="F34" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" t="s">
-        <v>182</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D35"/>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F35" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D36" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36"/>
+        <v>183</v>
+      </c>
+      <c r="F36" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" t="s">
         <v>189</v>
       </c>
-      <c r="B37" t="s">
+      <c r="F37" t="s">
         <v>190</v>
       </c>
-      <c r="C37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" t="s">
-        <v>193</v>
-      </c>
-      <c r="F37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" t="s">
         <v>194</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E38" t="s">
         <v>195</v>
       </c>
-      <c r="C38" t="s">
-        <v>196</v>
-      </c>
-      <c r="D38" t="s">
-        <v>197</v>
-      </c>
-      <c r="E38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38" t="s">
-        <v>199</v>
-      </c>
+      <c r="F38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" t="s">
         <v>200</v>
       </c>
-      <c r="B39" t="s">
+      <c r="F39" t="s">
         <v>201</v>
       </c>
-      <c r="C39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E39" t="s">
-        <v>204</v>
-      </c>
-      <c r="F39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" t="s">
         <v>205</v>
       </c>
-      <c r="B40" t="s">
-        <v>206</v>
-      </c>
-      <c r="C40" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40"/>
       <c r="E40" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="F40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" t="s">
         <v>209</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E41" t="s">
         <v>210</v>
-      </c>
-      <c r="C41" t="s">
-        <v>211</v>
-      </c>
-      <c r="D41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E41" t="s">
-        <v>213</v>
       </c>
       <c r="F41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" t="s">
         <v>214</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E42" t="s">
         <v>215</v>
       </c>
-      <c r="C42" t="s">
+      <c r="F42" t="s">
         <v>216</v>
       </c>
-      <c r="D42" t="s">
-        <v>217</v>
-      </c>
-      <c r="E42" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" t="s">
         <v>218</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>219</v>
-      </c>
-      <c r="C43" t="s">
-        <v>220</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43" t="s">
         <v>221</v>
-      </c>
-      <c r="F43" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s">
         <v>223</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>224</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>225</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>226</v>
-      </c>
-      <c r="E44" t="s">
-        <v>142</v>
       </c>
       <c r="F44"/>
     </row>
@@ -5370,605 +5782,601 @@
       <c r="C45" t="s">
         <v>229</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45"/>
+      <c r="E45" t="s">
         <v>230</v>
       </c>
-      <c r="E45" t="s">
-        <v>213</v>
-      </c>
-      <c r="F45" t="s">
-        <v>231</v>
-      </c>
+      <c r="F45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" t="s">
         <v>232</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>233</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46"/>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" t="s">
         <v>234</v>
-      </c>
-      <c r="D46" t="s">
-        <v>235</v>
-      </c>
-      <c r="E46" t="s">
-        <v>236</v>
-      </c>
-      <c r="F46" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" t="s">
         <v>238</v>
       </c>
-      <c r="B47" t="s">
+      <c r="F47" t="s">
         <v>239</v>
       </c>
-      <c r="C47" t="s">
-        <v>240</v>
-      </c>
-      <c r="D47" t="s">
-        <v>241</v>
-      </c>
-      <c r="E47" t="s">
-        <v>242</v>
-      </c>
-      <c r="F47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" t="s">
         <v>243</v>
       </c>
-      <c r="B48" t="s">
+      <c r="E48" t="s">
         <v>244</v>
-      </c>
-      <c r="C48" t="s">
-        <v>245</v>
-      </c>
-      <c r="D48" t="s">
-        <v>246</v>
-      </c>
-      <c r="E48" t="s">
-        <v>247</v>
       </c>
       <c r="F48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" t="s">
+        <v>247</v>
+      </c>
+      <c r="D49" t="s">
         <v>248</v>
       </c>
-      <c r="B49" t="s">
-        <v>249</v>
-      </c>
-      <c r="C49" t="s">
-        <v>250</v>
-      </c>
-      <c r="D49" t="s">
-        <v>251</v>
-      </c>
       <c r="E49" t="s">
-        <v>252</v>
-      </c>
-      <c r="F49" t="s">
-        <v>253</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B50" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C50" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
-        <v>172</v>
-      </c>
-      <c r="F50"/>
+        <v>252</v>
+      </c>
+      <c r="F50" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" t="s">
+        <v>256</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51" t="s">
         <v>257</v>
-      </c>
-      <c r="B51" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" t="s">
-        <v>259</v>
-      </c>
-      <c r="D51" t="s">
-        <v>260</v>
-      </c>
-      <c r="E51" t="s">
-        <v>261</v>
       </c>
       <c r="F51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B52" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C52" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D52" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E52" t="s">
-        <v>266</v>
+        <v>58</v>
       </c>
       <c r="F52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C53" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D53" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E53" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="F53" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B54" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C54" t="s">
-        <v>275</v>
-      </c>
-      <c r="D54"/>
+        <v>268</v>
+      </c>
+      <c r="D54" t="s">
+        <v>269</v>
+      </c>
       <c r="E54" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F54" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B55" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C55" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D55" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E55" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B56" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C56" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D56" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E56" t="s">
-        <v>287</v>
-      </c>
-      <c r="F56" t="s">
-        <v>288</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="F56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C57" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D57" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E57" t="s">
-        <v>198</v>
-      </c>
-      <c r="F57"/>
+        <v>286</v>
+      </c>
+      <c r="F57" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B58" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
-      </c>
-      <c r="D58" t="s">
-        <v>296</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D58"/>
       <c r="E58" t="s">
-        <v>297</v>
-      </c>
-      <c r="F58" t="s">
-        <v>298</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B59" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C59" t="s">
-        <v>301</v>
-      </c>
-      <c r="D59"/>
+        <v>293</v>
+      </c>
+      <c r="D59" t="s">
+        <v>294</v>
+      </c>
       <c r="E59" t="s">
-        <v>302</v>
-      </c>
-      <c r="F59" t="s">
-        <v>303</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="F59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B60" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C60" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D60" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E60" t="s">
-        <v>308</v>
-      </c>
-      <c r="F60" t="s">
-        <v>309</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="F60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B61" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>312</v>
-      </c>
-      <c r="D61"/>
+        <v>303</v>
+      </c>
+      <c r="D61" t="s">
+        <v>304</v>
+      </c>
       <c r="E61" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F61" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B62" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C62" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>318</v>
-      </c>
-      <c r="F62"/>
+        <v>310</v>
+      </c>
+      <c r="F62" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B63" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C63" t="s">
-        <v>321</v>
-      </c>
-      <c r="D63"/>
+        <v>314</v>
+      </c>
+      <c r="D63" t="s">
+        <v>315</v>
+      </c>
       <c r="E63" t="s">
-        <v>322</v>
-      </c>
-      <c r="F63" t="s">
-        <v>323</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B64" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C64" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D64" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E64" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F64" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B65" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C65" t="s">
-        <v>332</v>
-      </c>
-      <c r="D65"/>
+        <v>324</v>
+      </c>
+      <c r="D65" t="s">
+        <v>325</v>
+      </c>
       <c r="E65" t="s">
-        <v>333</v>
-      </c>
-      <c r="F65" t="s">
-        <v>334</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="F65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B66" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C66" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D66" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E66" t="s">
-        <v>339</v>
-      </c>
-      <c r="F66"/>
+        <v>331</v>
+      </c>
+      <c r="F66" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C67" t="s">
-        <v>342</v>
-      </c>
-      <c r="D67" t="s">
-        <v>343</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="D67"/>
       <c r="E67" t="s">
-        <v>213</v>
-      </c>
-      <c r="F67"/>
+        <v>336</v>
+      </c>
+      <c r="F67" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C68" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D68" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E68" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F68" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B69" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C69" t="s">
-        <v>352</v>
-      </c>
-      <c r="D69" t="s">
-        <v>353</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="D69"/>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>347</v>
       </c>
       <c r="F69" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B70" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C70" t="s">
-        <v>357</v>
-      </c>
-      <c r="D70" t="s">
-        <v>358</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="D70"/>
       <c r="E70" t="s">
-        <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>173</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="F70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B71" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C71" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>355</v>
       </c>
       <c r="F71" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B72" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C72" t="s">
-        <v>365</v>
-      </c>
-      <c r="D72"/>
+        <v>359</v>
+      </c>
+      <c r="D72" t="s">
+        <v>360</v>
+      </c>
       <c r="E72" t="s">
-        <v>261</v>
-      </c>
-      <c r="F72"/>
+        <v>361</v>
+      </c>
+      <c r="F72" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>363</v>
+      </c>
+      <c r="B73" t="s">
+        <v>364</v>
+      </c>
+      <c r="C73" t="s">
+        <v>365</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73" t="s">
         <v>366</v>
       </c>
-      <c r="B73" t="s">
+      <c r="F73" t="s">
         <v>367</v>
       </c>
-      <c r="C73" t="s">
-        <v>368</v>
-      </c>
-      <c r="D73" t="s">
-        <v>369</v>
-      </c>
-      <c r="E73" t="s">
-        <v>38</v>
-      </c>
-      <c r="F73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>368</v>
+      </c>
+      <c r="B74" t="s">
+        <v>369</v>
+      </c>
+      <c r="C74" t="s">
         <v>370</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
         <v>371</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E74" t="s">
         <v>372</v>
-      </c>
-      <c r="D74" t="s">
-        <v>373</v>
-      </c>
-      <c r="E74" t="s">
-        <v>374</v>
       </c>
       <c r="F74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>373</v>
+      </c>
+      <c r="B75" t="s">
+        <v>374</v>
+      </c>
+      <c r="C75" t="s">
         <v>375</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
         <v>376</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>377</v>
-      </c>
-      <c r="D75" t="s">
-        <v>378</v>
-      </c>
-      <c r="E75" t="s">
-        <v>379</v>
       </c>
       <c r="F75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>378</v>
+      </c>
+      <c r="B76" t="s">
+        <v>379</v>
+      </c>
+      <c r="C76" t="s">
         <v>380</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D76" t="s">
         <v>381</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
         <v>382</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
         <v>383</v>
       </c>
-      <c r="E76" t="s">
-        <v>384</v>
-      </c>
-      <c r="F76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>384</v>
+      </c>
+      <c r="B77" t="s">
         <v>385</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>386</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>387</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" t="s">
         <v>388</v>
       </c>
-      <c r="E77" t="s">
-        <v>132</v>
-      </c>
-      <c r="F77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -5984,63 +6392,63 @@
         <v>392</v>
       </c>
       <c r="E78" t="s">
-        <v>393</v>
+        <v>154</v>
       </c>
       <c r="F78" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>393</v>
+      </c>
+      <c r="B79" t="s">
         <v>394</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>395</v>
-      </c>
-      <c r="C79" t="s">
-        <v>396</v>
       </c>
       <c r="D79"/>
       <c r="E79" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>397</v>
+      </c>
+      <c r="B80" t="s">
         <v>398</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>399</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>400</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>401</v>
       </c>
-      <c r="E80" t="s">
-        <v>126</v>
-      </c>
-      <c r="F80"/>
+      <c r="F80" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B81" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C81" t="s">
-        <v>404</v>
-      </c>
-      <c r="D81" t="s">
         <v>405</v>
       </c>
+      <c r="D81"/>
       <c r="E81" t="s">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c r="F81"/>
     </row>
@@ -6058,21 +6466,23 @@
         <v>409</v>
       </c>
       <c r="E82" t="s">
-        <v>410</v>
+        <v>68</v>
       </c>
       <c r="F82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>410</v>
+      </c>
+      <c r="B83" t="s">
         <v>411</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>412</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>413</v>
       </c>
-      <c r="D83"/>
       <c r="E83" t="s">
         <v>414</v>
       </c>
@@ -6092,11 +6502,9 @@
         <v>418</v>
       </c>
       <c r="E84" t="s">
-        <v>213</v>
-      </c>
-      <c r="F84" t="s">
         <v>419</v>
       </c>
+      <c r="F84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -6108,67 +6516,69 @@
       <c r="C85" t="s">
         <v>422</v>
       </c>
-      <c r="D85"/>
+      <c r="D85" t="s">
+        <v>423</v>
+      </c>
       <c r="E85" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B86" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C86" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D86" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E86" t="s">
-        <v>428</v>
-      </c>
-      <c r="F86" t="s">
-        <v>429</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>429</v>
+      </c>
+      <c r="B87" t="s">
         <v>430</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>431</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>432</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>433</v>
       </c>
-      <c r="E87" t="s">
-        <v>318</v>
-      </c>
-      <c r="F87"/>
+      <c r="F87" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B88" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C88" t="s">
-        <v>436</v>
-      </c>
-      <c r="D88" t="s">
         <v>437</v>
       </c>
+      <c r="D88"/>
       <c r="E88" t="s">
+        <v>115</v>
+      </c>
+      <c r="F88" t="s">
         <v>438</v>
       </c>
-      <c r="F88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -6202,1063 +6612,1063 @@
         <v>447</v>
       </c>
       <c r="E90" t="s">
-        <v>448</v>
-      </c>
-      <c r="F90" t="s">
-        <v>449</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="F90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>448</v>
+      </c>
+      <c r="B91" t="s">
+        <v>449</v>
+      </c>
+      <c r="C91" t="s">
         <v>450</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>451</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>452</v>
       </c>
-      <c r="D91" t="s">
-        <v>453</v>
-      </c>
-      <c r="E91" t="s">
-        <v>454</v>
-      </c>
-      <c r="F91" t="s">
-        <v>455</v>
-      </c>
+      <c r="F91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>453</v>
+      </c>
+      <c r="B92" t="s">
+        <v>454</v>
+      </c>
+      <c r="C92" t="s">
+        <v>455</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92" t="s">
         <v>456</v>
-      </c>
-      <c r="B92" t="s">
-        <v>457</v>
-      </c>
-      <c r="C92" t="s">
-        <v>458</v>
-      </c>
-      <c r="D92" t="s">
-        <v>459</v>
-      </c>
-      <c r="E92" t="s">
-        <v>33</v>
       </c>
       <c r="F92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>457</v>
+      </c>
+      <c r="B93" t="s">
+        <v>458</v>
+      </c>
+      <c r="C93" t="s">
+        <v>459</v>
+      </c>
+      <c r="D93" t="s">
         <v>460</v>
       </c>
-      <c r="B93" t="s">
+      <c r="E93" t="s">
+        <v>377</v>
+      </c>
+      <c r="F93" t="s">
         <v>461</v>
-      </c>
-      <c r="C93" t="s">
-        <v>462</v>
-      </c>
-      <c r="D93" t="s">
-        <v>463</v>
-      </c>
-      <c r="E93" t="s">
-        <v>464</v>
-      </c>
-      <c r="F93" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B94" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C94" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D94"/>
       <c r="E94" t="s">
-        <v>469</v>
+        <v>238</v>
       </c>
       <c r="F94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B95" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C95" t="s">
-        <v>472</v>
-      </c>
-      <c r="D95"/>
+        <v>467</v>
+      </c>
+      <c r="D95" t="s">
+        <v>468</v>
+      </c>
       <c r="E95" t="s">
-        <v>172</v>
+        <v>469</v>
       </c>
       <c r="F95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>470</v>
+      </c>
+      <c r="B96" t="s">
+        <v>471</v>
+      </c>
+      <c r="C96" t="s">
+        <v>472</v>
+      </c>
+      <c r="D96" t="s">
         <v>473</v>
       </c>
-      <c r="B96" t="s">
+      <c r="E96" t="s">
         <v>474</v>
       </c>
-      <c r="C96" t="s">
+      <c r="F96" t="s">
         <v>475</v>
-      </c>
-      <c r="D96" t="s">
-        <v>476</v>
-      </c>
-      <c r="E96" t="s">
-        <v>477</v>
-      </c>
-      <c r="F96" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>476</v>
+      </c>
+      <c r="B97" t="s">
+        <v>477</v>
+      </c>
+      <c r="C97" t="s">
+        <v>478</v>
+      </c>
+      <c r="D97" t="s">
         <v>479</v>
       </c>
-      <c r="B97" t="s">
-        <v>480</v>
-      </c>
-      <c r="C97" t="s">
-        <v>481</v>
-      </c>
-      <c r="D97" t="s">
-        <v>482</v>
-      </c>
       <c r="E97" t="s">
-        <v>483</v>
-      </c>
-      <c r="F97" t="s">
-        <v>484</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B98" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C98" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D98" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E98" t="s">
-        <v>489</v>
-      </c>
-      <c r="F98" t="s">
-        <v>490</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="F98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B99" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C99" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D99" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E99" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B100" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C100" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D100" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E100" t="s">
-        <v>374</v>
-      </c>
-      <c r="F100"/>
+        <v>494</v>
+      </c>
+      <c r="F100" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>496</v>
+      </c>
+      <c r="B101" t="s">
+        <v>497</v>
+      </c>
+      <c r="C101" t="s">
+        <v>498</v>
+      </c>
+      <c r="D101" t="s">
+        <v>499</v>
+      </c>
+      <c r="E101" t="s">
         <v>500</v>
       </c>
-      <c r="B101" t="s">
+      <c r="F101" t="s">
         <v>501</v>
-      </c>
-      <c r="C101" t="s">
-        <v>502</v>
-      </c>
-      <c r="D101" t="s">
-        <v>503</v>
-      </c>
-      <c r="E101" t="s">
-        <v>193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>502</v>
+      </c>
+      <c r="B102" t="s">
+        <v>503</v>
+      </c>
+      <c r="C102" t="s">
+        <v>504</v>
+      </c>
+      <c r="D102" t="s">
         <v>505</v>
       </c>
-      <c r="B102" t="s">
-        <v>506</v>
-      </c>
-      <c r="C102" t="s">
-        <v>507</v>
-      </c>
-      <c r="D102" t="s">
-        <v>508</v>
-      </c>
       <c r="E102" t="s">
-        <v>509</v>
-      </c>
-      <c r="F102" t="s">
-        <v>510</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>506</v>
+      </c>
+      <c r="B103" t="s">
+        <v>507</v>
+      </c>
+      <c r="C103" t="s">
+        <v>508</v>
+      </c>
+      <c r="D103" t="s">
+        <v>509</v>
+      </c>
+      <c r="E103" t="s">
+        <v>510</v>
+      </c>
+      <c r="F103" t="s">
         <v>511</v>
-      </c>
-      <c r="B103" t="s">
-        <v>512</v>
-      </c>
-      <c r="C103" t="s">
-        <v>513</v>
-      </c>
-      <c r="D103" t="s">
-        <v>514</v>
-      </c>
-      <c r="E103" t="s">
-        <v>38</v>
-      </c>
-      <c r="F103" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B104" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C104" t="s">
-        <v>518</v>
-      </c>
-      <c r="D104" t="s">
-        <v>519</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="D104"/>
       <c r="E104" t="s">
-        <v>121</v>
+        <v>515</v>
       </c>
       <c r="F104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B105" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C105" t="s">
-        <v>522</v>
-      </c>
-      <c r="D105" t="s">
-        <v>523</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="D105"/>
       <c r="E105" t="s">
-        <v>524</v>
+        <v>189</v>
       </c>
       <c r="F105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B106" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C106" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D106" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E106" t="s">
-        <v>529</v>
-      </c>
-      <c r="F106"/>
+        <v>523</v>
+      </c>
+      <c r="F106" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>525</v>
+      </c>
+      <c r="B107" t="s">
+        <v>526</v>
+      </c>
+      <c r="C107" t="s">
+        <v>527</v>
+      </c>
+      <c r="D107" t="s">
+        <v>528</v>
+      </c>
+      <c r="E107" t="s">
+        <v>529</v>
+      </c>
+      <c r="F107" t="s">
         <v>530</v>
       </c>
-      <c r="B107" t="s">
-        <v>531</v>
-      </c>
-      <c r="C107" t="s">
-        <v>532</v>
-      </c>
-      <c r="D107" t="s">
-        <v>533</v>
-      </c>
-      <c r="E107" t="s">
-        <v>534</v>
-      </c>
-      <c r="F107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>531</v>
+      </c>
+      <c r="B108" t="s">
+        <v>532</v>
+      </c>
+      <c r="C108" t="s">
+        <v>533</v>
+      </c>
+      <c r="D108" t="s">
+        <v>534</v>
+      </c>
+      <c r="E108" t="s">
         <v>535</v>
       </c>
-      <c r="B108" t="s">
+      <c r="F108" t="s">
         <v>536</v>
-      </c>
-      <c r="C108" t="s">
-        <v>537</v>
-      </c>
-      <c r="D108" t="s">
-        <v>538</v>
-      </c>
-      <c r="E108" t="s">
-        <v>539</v>
-      </c>
-      <c r="F108" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>537</v>
+      </c>
+      <c r="B109" t="s">
+        <v>538</v>
+      </c>
+      <c r="C109" t="s">
+        <v>539</v>
+      </c>
+      <c r="D109" t="s">
+        <v>540</v>
+      </c>
+      <c r="E109" t="s">
         <v>541</v>
       </c>
-      <c r="B109" t="s">
-        <v>542</v>
-      </c>
-      <c r="C109" t="s">
-        <v>543</v>
-      </c>
-      <c r="D109"/>
-      <c r="E109" t="s">
-        <v>544</v>
-      </c>
-      <c r="F109" t="s">
-        <v>545</v>
-      </c>
+      <c r="F109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B110" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C110" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D110" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F110" t="s">
-        <v>550</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="F110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B111" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C111" t="s">
-        <v>553</v>
-      </c>
-      <c r="D111"/>
+        <v>548</v>
+      </c>
+      <c r="D111" t="s">
+        <v>549</v>
+      </c>
       <c r="E111" t="s">
-        <v>554</v>
-      </c>
-      <c r="F111"/>
+        <v>210</v>
+      </c>
+      <c r="F111" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>551</v>
+      </c>
+      <c r="B112" t="s">
+        <v>552</v>
+      </c>
+      <c r="C112" t="s">
+        <v>553</v>
+      </c>
+      <c r="D112" t="s">
+        <v>554</v>
+      </c>
+      <c r="E112" t="s">
         <v>555</v>
       </c>
-      <c r="B112" t="s">
+      <c r="F112" t="s">
         <v>556</v>
       </c>
-      <c r="C112" t="s">
-        <v>557</v>
-      </c>
-      <c r="D112"/>
-      <c r="E112" t="s">
-        <v>558</v>
-      </c>
-      <c r="F112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>557</v>
+      </c>
+      <c r="B113" t="s">
+        <v>558</v>
+      </c>
+      <c r="C113" t="s">
         <v>559</v>
       </c>
-      <c r="B113" t="s">
+      <c r="D113" t="s">
         <v>560</v>
       </c>
-      <c r="C113" t="s">
+      <c r="E113" t="s">
+        <v>210</v>
+      </c>
+      <c r="F113" t="s">
         <v>561</v>
-      </c>
-      <c r="D113" t="s">
-        <v>562</v>
-      </c>
-      <c r="E113" t="s">
-        <v>563</v>
-      </c>
-      <c r="F113" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>562</v>
+      </c>
+      <c r="B114" t="s">
+        <v>563</v>
+      </c>
+      <c r="C114" t="s">
+        <v>564</v>
+      </c>
+      <c r="D114" t="s">
         <v>565</v>
       </c>
-      <c r="B114" t="s">
+      <c r="E114" t="s">
         <v>566</v>
       </c>
-      <c r="C114" t="s">
-        <v>567</v>
-      </c>
-      <c r="D114"/>
-      <c r="E114" t="s">
-        <v>568</v>
-      </c>
-      <c r="F114" t="s">
-        <v>569</v>
-      </c>
+      <c r="F114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>567</v>
+      </c>
+      <c r="B115" t="s">
+        <v>568</v>
+      </c>
+      <c r="C115" t="s">
+        <v>569</v>
+      </c>
+      <c r="D115" t="s">
         <v>570</v>
       </c>
-      <c r="B115" t="s">
+      <c r="E115" t="s">
         <v>571</v>
-      </c>
-      <c r="C115" t="s">
-        <v>572</v>
-      </c>
-      <c r="D115" t="s">
-        <v>573</v>
-      </c>
-      <c r="E115" t="s">
-        <v>574</v>
       </c>
       <c r="F115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>572</v>
+      </c>
+      <c r="B116" t="s">
+        <v>573</v>
+      </c>
+      <c r="C116" t="s">
+        <v>574</v>
+      </c>
+      <c r="D116" t="s">
         <v>575</v>
       </c>
-      <c r="B116" t="s">
+      <c r="E116" t="s">
+        <v>377</v>
+      </c>
+      <c r="F116" t="s">
         <v>576</v>
-      </c>
-      <c r="C116" t="s">
-        <v>577</v>
-      </c>
-      <c r="D116" t="s">
-        <v>578</v>
-      </c>
-      <c r="E116" t="s">
-        <v>276</v>
-      </c>
-      <c r="F116" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>577</v>
+      </c>
+      <c r="B117" t="s">
+        <v>578</v>
+      </c>
+      <c r="C117" t="s">
+        <v>579</v>
+      </c>
+      <c r="D117" t="s">
         <v>580</v>
       </c>
-      <c r="B117" t="s">
-        <v>581</v>
-      </c>
-      <c r="C117" t="s">
-        <v>582</v>
-      </c>
-      <c r="D117" t="s">
-        <v>583</v>
-      </c>
       <c r="E117" t="s">
-        <v>529</v>
-      </c>
-      <c r="F117" t="s">
-        <v>584</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B118" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C118" t="s">
-        <v>587</v>
-      </c>
-      <c r="D118"/>
+        <v>583</v>
+      </c>
+      <c r="D118" t="s">
+        <v>584</v>
+      </c>
       <c r="E118" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>585</v>
+      </c>
+      <c r="B119" t="s">
+        <v>586</v>
+      </c>
+      <c r="C119" t="s">
+        <v>587</v>
+      </c>
+      <c r="D119" t="s">
         <v>588</v>
       </c>
-      <c r="B119" t="s">
+      <c r="E119" t="s">
         <v>589</v>
       </c>
-      <c r="C119" t="s">
-        <v>590</v>
-      </c>
-      <c r="D119" t="s">
-        <v>591</v>
-      </c>
-      <c r="E119" t="s">
-        <v>592</v>
-      </c>
-      <c r="F119" t="s">
-        <v>593</v>
-      </c>
+      <c r="F119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>590</v>
+      </c>
+      <c r="B120" t="s">
+        <v>591</v>
+      </c>
+      <c r="C120" t="s">
+        <v>592</v>
+      </c>
+      <c r="D120" t="s">
+        <v>593</v>
+      </c>
+      <c r="E120" t="s">
         <v>594</v>
       </c>
-      <c r="B120" t="s">
+      <c r="F120" t="s">
         <v>595</v>
-      </c>
-      <c r="C120" t="s">
-        <v>596</v>
-      </c>
-      <c r="D120"/>
-      <c r="E120" t="s">
-        <v>597</v>
-      </c>
-      <c r="F120" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>596</v>
+      </c>
+      <c r="B121" t="s">
+        <v>597</v>
+      </c>
+      <c r="C121" t="s">
+        <v>598</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121" t="s">
         <v>599</v>
       </c>
-      <c r="B121" t="s">
+      <c r="F121" t="s">
         <v>600</v>
       </c>
-      <c r="C121" t="s">
-        <v>601</v>
-      </c>
-      <c r="D121" t="s">
-        <v>602</v>
-      </c>
-      <c r="E121" t="s">
-        <v>603</v>
-      </c>
-      <c r="F121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>601</v>
+      </c>
+      <c r="B122" t="s">
+        <v>602</v>
+      </c>
+      <c r="C122" t="s">
+        <v>603</v>
+      </c>
+      <c r="D122" t="s">
         <v>604</v>
       </c>
-      <c r="B122" t="s">
+      <c r="E122" t="s">
         <v>605</v>
       </c>
-      <c r="C122" t="s">
-        <v>606</v>
-      </c>
-      <c r="D122"/>
-      <c r="E122" t="s">
-        <v>106</v>
-      </c>
-      <c r="F122" t="s">
-        <v>607</v>
-      </c>
+      <c r="F122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>606</v>
+      </c>
+      <c r="B123" t="s">
+        <v>607</v>
+      </c>
+      <c r="C123" t="s">
         <v>608</v>
-      </c>
-      <c r="B123" t="s">
-        <v>609</v>
-      </c>
-      <c r="C123" t="s">
-        <v>610</v>
       </c>
       <c r="D123"/>
       <c r="E123" t="s">
-        <v>611</v>
-      </c>
-      <c r="F123" t="s">
-        <v>354</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="F123"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>610</v>
+      </c>
+      <c r="B124" t="s">
+        <v>611</v>
+      </c>
+      <c r="C124" t="s">
         <v>612</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D124"/>
+      <c r="E124" t="s">
         <v>613</v>
       </c>
-      <c r="C124" t="s">
-        <v>614</v>
-      </c>
-      <c r="D124" t="s">
-        <v>615</v>
-      </c>
-      <c r="E124" t="s">
-        <v>616</v>
-      </c>
-      <c r="F124" t="s">
-        <v>617</v>
-      </c>
+      <c r="F124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>614</v>
+      </c>
+      <c r="B125" t="s">
+        <v>615</v>
+      </c>
+      <c r="C125" t="s">
+        <v>616</v>
+      </c>
+      <c r="D125" t="s">
+        <v>617</v>
+      </c>
+      <c r="E125" t="s">
         <v>618</v>
       </c>
-      <c r="B125" t="s">
+      <c r="F125" t="s">
         <v>619</v>
-      </c>
-      <c r="C125" t="s">
-        <v>620</v>
-      </c>
-      <c r="D125"/>
-      <c r="E125" t="s">
-        <v>621</v>
-      </c>
-      <c r="F125" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B126" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C126" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D126"/>
       <c r="E126" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F126" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>625</v>
+      </c>
+      <c r="B127" t="s">
+        <v>626</v>
+      </c>
+      <c r="C127" t="s">
+        <v>627</v>
+      </c>
+      <c r="D127" t="s">
         <v>628</v>
       </c>
-      <c r="B127" t="s">
+      <c r="E127" t="s">
         <v>629</v>
-      </c>
-      <c r="C127" t="s">
-        <v>630</v>
-      </c>
-      <c r="D127"/>
-      <c r="E127" t="s">
-        <v>631</v>
       </c>
       <c r="F127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>630</v>
+      </c>
+      <c r="B128" t="s">
+        <v>631</v>
+      </c>
+      <c r="C128" t="s">
         <v>632</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
         <v>633</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E128" t="s">
+        <v>310</v>
+      </c>
+      <c r="F128" t="s">
         <v>634</v>
-      </c>
-      <c r="D128" t="s">
-        <v>635</v>
-      </c>
-      <c r="E128" t="s">
-        <v>636</v>
-      </c>
-      <c r="F128" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>635</v>
+      </c>
+      <c r="B129" t="s">
+        <v>636</v>
+      </c>
+      <c r="C129" t="s">
+        <v>637</v>
+      </c>
+      <c r="D129" t="s">
         <v>638</v>
       </c>
-      <c r="B129" t="s">
+      <c r="E129" t="s">
+        <v>377</v>
+      </c>
+      <c r="F129" t="s">
         <v>639</v>
-      </c>
-      <c r="C129" t="s">
-        <v>640</v>
-      </c>
-      <c r="D129" t="s">
-        <v>641</v>
-      </c>
-      <c r="E129" t="s">
-        <v>642</v>
-      </c>
-      <c r="F129" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B130" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C130" t="s">
-        <v>646</v>
-      </c>
-      <c r="D130" t="s">
-        <v>647</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="D130"/>
       <c r="E130" t="s">
-        <v>648</v>
-      </c>
-      <c r="F130" t="s">
-        <v>649</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B131" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C131" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="D131" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="E131" t="s">
-        <v>121</v>
+        <v>571</v>
       </c>
       <c r="F131" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B132" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C132" t="s">
-        <v>657</v>
-      </c>
-      <c r="D132" t="s">
-        <v>658</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D132"/>
       <c r="E132" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F132" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B133" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C133" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D133" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="E133" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B134" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C134" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="D134"/>
       <c r="E134" t="s">
-        <v>132</v>
-      </c>
-      <c r="F134"/>
+        <v>115</v>
+      </c>
+      <c r="F134" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B135" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C135" t="s">
-        <v>671</v>
-      </c>
-      <c r="D135" t="s">
-        <v>672</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="D135"/>
       <c r="E135" t="s">
-        <v>172</v>
-      </c>
-      <c r="F135"/>
+        <v>665</v>
+      </c>
+      <c r="F135" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B136" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C136" t="s">
-        <v>675</v>
-      </c>
-      <c r="D136"/>
+        <v>669</v>
+      </c>
+      <c r="D136" t="s">
+        <v>670</v>
+      </c>
       <c r="E136" t="s">
-        <v>384</v>
+        <v>244</v>
       </c>
       <c r="F136" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B137" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C137" t="s">
-        <v>679</v>
-      </c>
-      <c r="D137" t="s">
-        <v>680</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="D137"/>
       <c r="E137" t="s">
-        <v>111</v>
+        <v>675</v>
       </c>
       <c r="F137" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B138" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C138" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D138"/>
       <c r="E138" t="s">
-        <v>213</v>
+        <v>680</v>
       </c>
       <c r="F138" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B139" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C139" t="s">
-        <v>688</v>
-      </c>
-      <c r="D139" t="s">
-        <v>689</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="D139"/>
       <c r="E139" t="s">
-        <v>690</v>
-      </c>
-      <c r="F139" t="s">
-        <v>691</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="F139"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B140" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="C140" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D140" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="E140" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="F140" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B141" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C141" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D141" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E141" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="F141" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>704</v>
-      </c>
-      <c r="B142"/>
-      <c r="C142"/>
-      <c r="D142"/>
-      <c r="E142"/>
-      <c r="F142"/>
+        <v>697</v>
+      </c>
+      <c r="B142" t="s">
+        <v>698</v>
+      </c>
+      <c r="C142" t="s">
+        <v>699</v>
+      </c>
+      <c r="D142" t="s">
+        <v>700</v>
+      </c>
+      <c r="E142" t="s">
+        <v>701</v>
+      </c>
+      <c r="F142" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>703</v>
+      </c>
+      <c r="B143" t="s">
+        <v>704</v>
+      </c>
+      <c r="C143" t="s">
         <v>705</v>
       </c>
-      <c r="B143" t="s">
+      <c r="D143" t="s">
         <v>706</v>
       </c>
-      <c r="C143" t="s">
+      <c r="E143" t="s">
+        <v>135</v>
+      </c>
+      <c r="F143" t="s">
         <v>707</v>
-      </c>
-      <c r="D143"/>
-      <c r="E143" t="s">
-        <v>132</v>
-      </c>
-      <c r="F143" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>708</v>
+      </c>
+      <c r="B144" t="s">
         <v>709</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>710</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>711</v>
       </c>
-      <c r="D144"/>
       <c r="E144" t="s">
         <v>712</v>
       </c>
-      <c r="F144"/>
+      <c r="F144" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B145" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C145" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D145" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E145" t="s">
-        <v>665</v>
+        <v>718</v>
       </c>
       <c r="F145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B146" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C146" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D146" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E146" t="s">
-        <v>33</v>
+        <v>723</v>
       </c>
       <c r="F146"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B147" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C147" t="s">
-        <v>723</v>
-      </c>
-      <c r="D147" t="s">
-        <v>724</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="D147"/>
       <c r="E147" t="s">
-        <v>725</v>
-      </c>
-      <c r="F147" t="s">
-        <v>726</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F147"/>
     </row>
     <row r="148">
       <c r="A148" t="s">
@@ -7274,25 +7684,27 @@
         <v>730</v>
       </c>
       <c r="E148" t="s">
-        <v>731</v>
+        <v>189</v>
       </c>
       <c r="F148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>731</v>
+      </c>
+      <c r="B149" t="s">
         <v>732</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>733</v>
-      </c>
-      <c r="C149" t="s">
-        <v>734</v>
       </c>
       <c r="D149"/>
       <c r="E149" t="s">
-        <v>132</v>
-      </c>
-      <c r="F149"/>
+        <v>424</v>
+      </c>
+      <c r="F149" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
@@ -7308,123 +7720,117 @@
         <v>738</v>
       </c>
       <c r="E150" t="s">
-        <v>616</v>
-      </c>
-      <c r="F150"/>
+        <v>120</v>
+      </c>
+      <c r="F150" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B151" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C151" t="s">
-        <v>741</v>
-      </c>
-      <c r="D151" t="s">
         <v>742</v>
       </c>
+      <c r="D151"/>
       <c r="E151" t="s">
-        <v>384</v>
-      </c>
-      <c r="F151"/>
+        <v>377</v>
+      </c>
+      <c r="F151" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B152" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C152" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D152" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E152" t="s">
-        <v>137</v>
-      </c>
-      <c r="F152"/>
+        <v>748</v>
+      </c>
+      <c r="F152" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B153" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C153" t="s">
-        <v>749</v>
-      </c>
-      <c r="D153" t="s">
-        <v>750</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="D153"/>
       <c r="E153" t="s">
-        <v>489</v>
+        <v>753</v>
       </c>
       <c r="F153" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B154" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C154" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D154" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="E154" t="s">
-        <v>208</v>
-      </c>
-      <c r="F154"/>
+        <v>759</v>
+      </c>
+      <c r="F154" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="B155" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="C155" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="D155" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="E155" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="F155" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>762</v>
-      </c>
-      <c r="B156" t="s">
-        <v>763</v>
-      </c>
-      <c r="C156" t="s">
-        <v>764</v>
-      </c>
-      <c r="D156" t="s">
-        <v>765</v>
-      </c>
-      <c r="E156" t="s">
-        <v>766</v>
-      </c>
-      <c r="F156" t="s">
         <v>767</v>
       </c>
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -7440,1500 +7846,1900 @@
         <v>771</v>
       </c>
       <c r="E157" t="s">
-        <v>772</v>
-      </c>
-      <c r="F157" t="s">
-        <v>773</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F157"/>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>772</v>
+      </c>
+      <c r="B158" t="s">
+        <v>773</v>
+      </c>
+      <c r="C158" t="s">
         <v>774</v>
       </c>
-      <c r="B158" t="s">
+      <c r="D158"/>
+      <c r="E158" t="s">
+        <v>115</v>
+      </c>
+      <c r="F158" t="s">
         <v>775</v>
-      </c>
-      <c r="C158" t="s">
-        <v>776</v>
-      </c>
-      <c r="D158" t="s">
-        <v>777</v>
-      </c>
-      <c r="E158" t="s">
-        <v>778</v>
-      </c>
-      <c r="F158" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B159" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C159" t="s">
-        <v>781</v>
-      </c>
-      <c r="D159" t="s">
-        <v>782</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="D159"/>
       <c r="E159" t="s">
-        <v>783</v>
-      </c>
-      <c r="F159" t="s">
-        <v>784</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F159"/>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B160" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C160" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D160" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E160" t="s">
-        <v>789</v>
-      </c>
-      <c r="F160" t="s">
-        <v>790</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="F160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B161" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="C161" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="D161" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="E161" t="s">
-        <v>795</v>
+        <v>33</v>
       </c>
       <c r="F161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="B162" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="C162" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D162" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="E162" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="F162" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="B163" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="C163" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="D163" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E163" t="s">
-        <v>806</v>
-      </c>
-      <c r="F163" t="s">
-        <v>807</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="F163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="B164" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="C164" t="s">
-        <v>810</v>
-      </c>
-      <c r="D164" t="s">
-        <v>811</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="D164"/>
       <c r="E164" t="s">
-        <v>712</v>
+        <v>58</v>
       </c>
       <c r="F164"/>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>812</v>
-      </c>
-      <c r="B165" t="s">
-        <v>813</v>
-      </c>
-      <c r="C165" t="s">
-        <v>814</v>
-      </c>
-      <c r="D165" t="s">
-        <v>815</v>
-      </c>
-      <c r="E165" t="s">
-        <v>795</v>
-      </c>
-      <c r="F165" t="s">
-        <v>816</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="B166" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="C166" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="D166" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="E166" t="s">
-        <v>821</v>
-      </c>
-      <c r="F166" t="s">
-        <v>822</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="F166"/>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="B167" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="C167" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="D167" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="E167" t="s">
-        <v>827</v>
-      </c>
-      <c r="F167" t="s">
-        <v>828</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="F167"/>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="B168" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="C168" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="D168" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="E168" t="s">
-        <v>833</v>
-      </c>
-      <c r="F168"/>
+        <v>535</v>
+      </c>
+      <c r="F168" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="B169" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="C169" t="s">
-        <v>836</v>
-      </c>
-      <c r="D169"/>
+        <v>819</v>
+      </c>
+      <c r="D169" t="s">
+        <v>820</v>
+      </c>
       <c r="E169" t="s">
-        <v>477</v>
-      </c>
-      <c r="F169" t="s">
-        <v>837</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="F169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="B170" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="C170" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="D170" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="E170" t="s">
-        <v>842</v>
-      </c>
-      <c r="F170" t="s">
-        <v>484</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="F170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="B171" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
       <c r="C171" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="D171" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="E171" t="s">
-        <v>155</v>
+        <v>830</v>
       </c>
       <c r="F171" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="B172" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="C172" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D172" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="E172" t="s">
-        <v>172</v>
-      </c>
-      <c r="F172"/>
+        <v>836</v>
+      </c>
+      <c r="F172" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="B173" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="C173" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="D173" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="E173" t="s">
-        <v>856</v>
-      </c>
-      <c r="F173"/>
+        <v>842</v>
+      </c>
+      <c r="F173" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="B174" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="C174" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="D174" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="E174" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="F174" t="s">
-        <v>862</v>
+        <v>311</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="B175" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="C175" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="D175" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="E175" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="F175" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="B176" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C176" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="D176" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="E176" t="s">
-        <v>873</v>
-      </c>
-      <c r="F176"/>
+        <v>859</v>
+      </c>
+      <c r="F176" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="B177" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="C177" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="D177" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="E177" t="s">
-        <v>878</v>
-      </c>
-      <c r="F177" t="s">
-        <v>879</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="F177"/>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="B178" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="C178" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="D178" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="E178" t="s">
-        <v>884</v>
-      </c>
-      <c r="F178"/>
+        <v>870</v>
+      </c>
+      <c r="F178" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="B179" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="C179" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="D179" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="E179" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="F179" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="B180" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="C180" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="D180" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="E180" t="s">
-        <v>895</v>
-      </c>
-      <c r="F180" t="s">
-        <v>896</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F180"/>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="B181" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="C181" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="D181" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="E181" t="s">
-        <v>348</v>
+        <v>865</v>
       </c>
       <c r="F181" t="s">
-        <v>76</v>
+        <v>886</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="B182" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="C182" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="D182" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="E182" t="s">
-        <v>905</v>
-      </c>
-      <c r="F182"/>
+        <v>891</v>
+      </c>
+      <c r="F182" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="B183" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="C183" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="D183" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="E183" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="F183" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="B184" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="C184" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="D184" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="E184" t="s">
-        <v>121</v>
-      </c>
-      <c r="F184" t="s">
-        <v>65</v>
-      </c>
+        <v>902</v>
+      </c>
+      <c r="F184"/>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="B185" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="C185" t="s">
-        <v>918</v>
-      </c>
-      <c r="D185" t="s">
-        <v>919</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="D185"/>
       <c r="E185" t="s">
-        <v>106</v>
+        <v>523</v>
       </c>
       <c r="F185" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="B186" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="C186" t="s">
-        <v>923</v>
-      </c>
-      <c r="D186"/>
+        <v>909</v>
+      </c>
+      <c r="D186" t="s">
+        <v>910</v>
+      </c>
       <c r="E186" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="F186" t="s">
-        <v>925</v>
+        <v>666</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="B187" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="C187" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="D187" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="E187" t="s">
-        <v>132</v>
-      </c>
-      <c r="F187"/>
+        <v>172</v>
+      </c>
+      <c r="F187" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="B188" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="C188" t="s">
-        <v>932</v>
-      </c>
-      <c r="D188"/>
+        <v>919</v>
+      </c>
+      <c r="D188" t="s">
+        <v>920</v>
+      </c>
       <c r="E188" t="s">
-        <v>53</v>
-      </c>
-      <c r="F188" t="s">
-        <v>933</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F188"/>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="B189" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="C189" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="D189" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="E189" t="s">
-        <v>271</v>
+        <v>925</v>
       </c>
       <c r="F189"/>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="B190" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="C190" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="D190" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="E190" t="s">
-        <v>121</v>
-      </c>
-      <c r="F190"/>
+        <v>930</v>
+      </c>
+      <c r="F190" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="B191" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="C191" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="D191" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="E191" t="s">
-        <v>946</v>
+        <v>712</v>
       </c>
       <c r="F191" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="B192" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="C192" t="s">
-        <v>950</v>
-      </c>
-      <c r="D192"/>
+        <v>939</v>
+      </c>
+      <c r="D192" t="s">
+        <v>940</v>
+      </c>
       <c r="E192" t="s">
-        <v>38</v>
-      </c>
-      <c r="F192" t="s">
-        <v>951</v>
-      </c>
+        <v>941</v>
+      </c>
+      <c r="F192"/>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="B193" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="C193" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="D193" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="E193" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="F193" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="B194" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="C194" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="D194" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="E194" t="s">
-        <v>962</v>
-      </c>
-      <c r="F194" t="s">
-        <v>963</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="F194"/>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="B195" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="C195" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="D195" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="E195" t="s">
-        <v>106</v>
-      </c>
-      <c r="F195"/>
+        <v>956</v>
+      </c>
+      <c r="F195" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="B196" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="C196" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="D196" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="E196" t="s">
-        <v>38</v>
-      </c>
-      <c r="F196"/>
+        <v>962</v>
+      </c>
+      <c r="F196" t="s">
+        <v>963</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="B197" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="C197" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="D197" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="E197" t="s">
-        <v>648</v>
+        <v>382</v>
       </c>
       <c r="F197" t="s">
-        <v>976</v>
+        <v>434</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="B198" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="C198" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="D198" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="E198" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="F198"/>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="B199" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="C199" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="D199" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="E199" t="s">
-        <v>616</v>
+        <v>977</v>
       </c>
       <c r="F199" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="B200" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="C200" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="D200" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="E200" t="s">
-        <v>126</v>
-      </c>
-      <c r="F200"/>
+        <v>135</v>
+      </c>
+      <c r="F200" t="s">
+        <v>983</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="B201" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="C201" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="D201" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="E201" t="s">
-        <v>995</v>
+        <v>115</v>
       </c>
       <c r="F201" t="s">
-        <v>397</v>
+        <v>988</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="B202" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="C202" t="s">
-        <v>998</v>
-      </c>
-      <c r="D202" t="s">
-        <v>999</v>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="D202"/>
       <c r="E202" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="F202" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="B203" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="C203" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="D203" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="E203" t="s">
-        <v>616</v>
+        <v>58</v>
       </c>
       <c r="F203"/>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="B204" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="C204" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D204" t="s">
-        <v>1009</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="D204"/>
       <c r="E204" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="F204" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="B205" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="C205" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="D205" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="E205" t="s">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c r="F205"/>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="B206" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="C206" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="D206" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="E206" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F206" t="s">
-        <v>1020</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F206"/>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="B207" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="C207" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="D207" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="E207" t="s">
-        <v>193</v>
+        <v>1014</v>
       </c>
       <c r="F207" t="s">
-        <v>1025</v>
+        <v>561</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="B208" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="C208" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1029</v>
-      </c>
+        <v>1017</v>
+      </c>
+      <c r="D208"/>
       <c r="E208" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="F208" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="B209" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="C209" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D209" t="s">
-        <v>1034</v>
-      </c>
+        <v>1021</v>
+      </c>
+      <c r="D209"/>
       <c r="E209" t="s">
-        <v>1035</v>
+        <v>972</v>
       </c>
       <c r="F209" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
       <c r="B210" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="C210" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="D210" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="E210" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="F210" t="s">
-        <v>807</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="B211" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="C211" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="D211" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="E211" t="s">
-        <v>198</v>
+        <v>1033</v>
       </c>
       <c r="F211"/>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="B212" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="C212" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="D212" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="E212" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F212" t="s">
-        <v>1051</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F212"/>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="B213" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="C213" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D213"/>
+        <v>1040</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1041</v>
+      </c>
       <c r="E213" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="F213" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="B214" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="C214" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="D214" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="E214" t="s">
-        <v>529</v>
-      </c>
-      <c r="F214" t="s">
-        <v>1061</v>
-      </c>
+        <v>1048</v>
+      </c>
+      <c r="F214"/>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="B215" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="C215" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="D215" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="E215" t="s">
-        <v>33</v>
+        <v>1053</v>
       </c>
       <c r="F215" t="s">
-        <v>397</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="B216" t="s">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="C216" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="D216" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="E216" t="s">
-        <v>121</v>
+        <v>1059</v>
       </c>
       <c r="F216"/>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="B217" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="C217" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="D217" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="E217" t="s">
-        <v>198</v>
+        <v>1064</v>
       </c>
       <c r="F217" t="s">
-        <v>1020</v>
+        <v>877</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="B218" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="C218" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1077</v>
-      </c>
+        <v>1067</v>
+      </c>
+      <c r="D218"/>
       <c r="E218" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F218" t="s">
-        <v>1079</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F218"/>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="B219" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="C219" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="D219" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="E219" t="s">
-        <v>38</v>
-      </c>
-      <c r="F219" t="s">
-        <v>1030</v>
-      </c>
+        <v>1072</v>
+      </c>
+      <c r="F219"/>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="B220" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="C220" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="D220" t="s">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="E220" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="F220" t="s">
-        <v>1056</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="B221" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="C221" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="D221" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="E221" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F221" t="s">
-        <v>1056</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="F221"/>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="B222" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="C222" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="D222" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="E222" t="s">
-        <v>38</v>
-      </c>
-      <c r="F222"/>
+        <v>115</v>
+      </c>
+      <c r="F222" t="s">
+        <v>1087</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="B223" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="C223" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D223"/>
+        <v>1090</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1091</v>
+      </c>
       <c r="E223" t="s">
-        <v>1101</v>
+        <v>33</v>
       </c>
       <c r="F223"/>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="B224" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="C224" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="D224" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="E224" t="s">
-        <v>132</v>
-      </c>
-      <c r="F224" t="s">
-        <v>237</v>
-      </c>
+        <v>1096</v>
+      </c>
+      <c r="F224"/>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="B225" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="C225" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D225"/>
+        <v>1099</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1100</v>
+      </c>
       <c r="E225" t="s">
-        <v>33</v>
-      </c>
-      <c r="F225"/>
+        <v>210</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="B226" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="C226" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="D226" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="E226" t="s">
-        <v>111</v>
-      </c>
-      <c r="F226"/>
+        <v>154</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="B227" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="C227" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="D227" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="E227" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F227"/>
+        <v>1111</v>
+      </c>
+      <c r="F227" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="B228" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="C228" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="D228" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="E228" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="F228" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="B229" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="C229" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="D229" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="E229" t="s">
-        <v>38</v>
-      </c>
-      <c r="F229"/>
+        <v>1122</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1123</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E230" t="s">
         <v>1128</v>
       </c>
-      <c r="B230" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C230" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D230" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E230" t="s">
-        <v>116</v>
-      </c>
-      <c r="F230" t="s">
-        <v>1132</v>
-      </c>
+      <c r="F230"/>
     </row>
     <row r="231">
       <c r="A231" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E231" t="s">
         <v>1133</v>
       </c>
-      <c r="B231" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C231" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D231"/>
-      <c r="E231" t="s">
-        <v>712</v>
-      </c>
       <c r="F231" t="s">
-        <v>708</v>
+        <v>348</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C232" t="s">
         <v>1136</v>
       </c>
-      <c r="B232" t="s">
+      <c r="D232" t="s">
         <v>1137</v>
       </c>
-      <c r="C232" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D232" t="s">
-        <v>1139</v>
-      </c>
       <c r="E232" t="s">
-        <v>1140</v>
+        <v>33</v>
       </c>
       <c r="F232"/>
     </row>
     <row r="233">
       <c r="A233" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D233"/>
+      <c r="E233" t="s">
         <v>1141</v>
       </c>
-      <c r="B233" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D233" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E233" t="s">
-        <v>1145</v>
-      </c>
       <c r="F233" t="s">
-        <v>65</v>
+        <v>993</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E234" t="s">
         <v>1146</v>
       </c>
-      <c r="B234" t="s">
+      <c r="F234" t="s">
         <v>1147</v>
       </c>
-      <c r="C234" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D234" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E234" t="s">
-        <v>261</v>
-      </c>
-      <c r="F234"/>
     </row>
     <row r="235">
       <c r="A235" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C235" t="s">
         <v>1150</v>
       </c>
-      <c r="B235" t="s">
+      <c r="D235" t="s">
         <v>1151</v>
       </c>
-      <c r="C235" t="s">
+      <c r="E235" t="s">
+        <v>33</v>
+      </c>
+      <c r="F235" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
         <v>1152</v>
       </c>
-      <c r="D235" t="s">
+      <c r="B236" t="s">
         <v>1153</v>
       </c>
-      <c r="E235" t="s">
-        <v>318</v>
-      </c>
-      <c r="F235" t="s">
+      <c r="C236" t="s">
         <v>1154</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E236" t="s">
+        <v>135</v>
+      </c>
+      <c r="F236"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E239" t="s">
+        <v>48</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F240" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F241" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E242" t="s">
+        <v>48</v>
+      </c>
+      <c r="F242"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D243"/>
+      <c r="E243" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F243"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E244" t="s">
+        <v>58</v>
+      </c>
+      <c r="F244" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D245"/>
+      <c r="E245" t="s">
+        <v>33</v>
+      </c>
+      <c r="F245"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F246"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F247"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E249" t="s">
+        <v>456</v>
+      </c>
+      <c r="F249"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B250"/>
+      <c r="C250"/>
+      <c r="D250"/>
+      <c r="E250"/>
+      <c r="F250"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E251" t="s">
+        <v>48</v>
+      </c>
+      <c r="F251"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E252" t="s">
+        <v>125</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D253"/>
+      <c r="E253" t="s">
+        <v>43</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E254" t="s">
+        <v>941</v>
+      </c>
+      <c r="F254"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E255" t="s">
+        <v>115</v>
+      </c>
+      <c r="F255" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F256" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E257" t="s">
+        <v>295</v>
+      </c>
+      <c r="F257"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E258" t="s">
+        <v>68</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1252</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/cran_packages.xlsx
+++ b/Docs/cran_packages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1274">
   <si>
     <t xml:space="preserve">Package</t>
   </si>
@@ -323,10 +323,10 @@
 https://groups.google.com/forum/#!forum/brms-users</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-04</t>
+    <t xml:space="preserve">2.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-14</t>
   </si>
   <si>
     <t xml:space="preserve">C50</t>
@@ -339,9 +339,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://topepo.github.io/C5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-20</t>
   </si>
   <si>
     <t xml:space="preserve">car</t>
@@ -379,7 +376,7 @@
     <t xml:space="preserve">https://github.com/topepo/caret/</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0-79</t>
+    <t xml:space="preserve">6.0-80</t>
   </si>
   <si>
     <t xml:space="preserve">cartography</t>
@@ -695,10 +692,10 @@
 	     (server-side tools).</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-18</t>
+    <t xml:space="preserve">0.8-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-17</t>
   </si>
   <si>
     <t xml:space="preserve">d3heatmap</t>
@@ -757,7 +754,7 @@
     <t xml:space="preserve">http://r-datatable.com</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11.2</t>
+    <t xml:space="preserve">1.11.4</t>
   </si>
   <si>
     <t xml:space="preserve">DataCombine</t>
@@ -812,7 +809,7 @@
     <t xml:space="preserve">https://github.com/boxuancui/DataExplorer</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5.0</t>
+    <t xml:space="preserve">0.6.0</t>
   </si>
   <si>
     <t xml:space="preserve">dataMaid</t>
@@ -883,7 +880,7 @@
     <t xml:space="preserve">Do most of the painful data preparation for a data science project with a minimum amount of code; Take advantages of data.table efficiency and use some algorithmic trick in order to perform data preparation in a time and RAM efficient way.</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3.5</t>
+    <t xml:space="preserve">0.3.6</t>
   </si>
   <si>
     <t xml:space="preserve">default</t>
@@ -1026,6 +1023,9 @@
 https://alinetalhouk.github.io/diceR</t>
   </si>
   <si>
+    <t xml:space="preserve">0.5.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">diffobj</t>
   </si>
   <si>
@@ -1063,7 +1063,7 @@
     <t xml:space="preserve">http://directlabels.r-forge.r-project.org/</t>
   </si>
   <si>
-    <t xml:space="preserve">2017.03.31</t>
+    <t xml:space="preserve">2018.05.22</t>
   </si>
   <si>
     <t xml:space="preserve">drake</t>
@@ -1127,6 +1127,15 @@
   </si>
   <si>
     <t xml:space="preserve">0.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploratory Regression 'Shiny' App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constructs a 'shiny' app function with interactive displays for summary and analysis of variance regression tables, and parallel coordinate plots of data and residuals.</t>
   </si>
   <si>
     <t xml:space="preserve">extrafont</t>
@@ -1203,6 +1212,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.github.com/rorynolan/filesstrings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4.0</t>
   </si>
   <si>
     <t xml:space="preserve">forecTheta</t>
@@ -1391,7 +1403,7 @@
     <t xml:space="preserve">https://ggobi.github.io/ggally, https://github.com/ggobi/ggally</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.2</t>
+    <t xml:space="preserve">1.4.0</t>
   </si>
   <si>
     <t xml:space="preserve">ggalt</t>
@@ -1431,9 +1443,6 @@
     <t xml:space="preserve">https://github.com/eclarke/ggbeeswarm</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017-08-03</t>
   </si>
   <si>
@@ -1480,7 +1489,7 @@
     extension system so using 'ggforce' should be a stable experience.</t>
   </si>
   <si>
-    <t xml:space="preserve">2016-11-27</t>
+    <t xml:space="preserve">2018-05-27</t>
   </si>
   <si>
     <t xml:space="preserve">ggfortify</t>
@@ -1498,10 +1507,10 @@
     <t xml:space="preserve">https://github.com/sinhrks/ggfortify</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-18</t>
+    <t xml:space="preserve">0.4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-26</t>
   </si>
   <si>
     <t xml:space="preserve">gghighlight</t>
@@ -1524,6 +1533,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/GuangchuangYu/ggimage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1.6</t>
   </si>
   <si>
     <t xml:space="preserve">ggiraph</t>
@@ -1605,9 +1617,6 @@
     <t xml:space="preserve">http://www.sthda.com/english/rpkgs/ggpubr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017-11-14</t>
   </si>
   <si>
@@ -1668,10 +1677,10 @@
     science fiction movies, and TV shows.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ggsci.net, https://github.com/road2stat/ggsci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8</t>
+    <t xml:space="preserve">https://nanx.me/ggsci/, https://github.com/road2stat/ggsci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9</t>
   </si>
   <si>
     <t xml:space="preserve">ggseas</t>
@@ -1730,7 +1739,7 @@
     <t xml:space="preserve">https://indrajeetpatil.github.io/ggstatsplot/</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0.2</t>
+    <t xml:space="preserve">0.0.3</t>
   </si>
   <si>
     <t xml:space="preserve">ggtern</t>
@@ -2112,7 +2121,8 @@
  partial dependence plots described by Friedman (2001) &lt;http://www.jstor.org/stable/2699986&gt;,
  individual conditional expectation ('ice') plots described by Goldstein et al. (2013) &lt;doi:10.1080/10618600.2014.907095&gt;,
  local models (variant of 'lime') described by Ribeiro et. al (2016) &lt;arXiv:1602.04938&gt;,
- the Shapley Value described by Strumbelj et. al (2014) &lt;doi:10.1007/s10115-013-0679-x&gt; and
+ the Shapley Value described by Strumbelj et. al (2014) &lt;doi:10.1007/s10115-013-0679-x&gt;, 
+ feature interactions described by Friedman et. al &lt;doi:10.1214/07-AOAS148&gt; and
  tree surrogate models.</t>
   </si>
   <si>
@@ -2169,6 +2179,21 @@
   </si>
   <si>
     <t xml:space="preserve">1.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">komaletter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple yet Flexible Letters via the 'KOMA-Script LaTeX Bundle'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An R Markdown template for writing beautiful yet versatile letters,
+  using the 'KOMA-Script' letter class 'scrlttr2' and an adaptation of the
+  'pandoc-letter' template. 'scrlttr2' provides layouts for many different
+  window envelope types and the possibility to define your own.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rnuske/komaletter</t>
   </si>
   <si>
     <t xml:space="preserve">koRpus</t>
@@ -2291,25 +2316,25 @@
     <t xml:space="preserve">Each function accomplishes the work of several or more standard R functions. For example, two function calls, Read() and CountAll(), read the data and generate summary statistics for all variables in the data frame, plus histograms and bar charts as appropriate.  Other functions provide for descriptive statistics, a comprehensive regression analysis, analysis of variance and t-test, plotting including the introduced here Violin/Box/Scatter plot for a numerical variable, bar chart, histogram, box plot, density curves, calibrated power curve, reading multiple data formats with the same function call, variable labels, color themes, Trellis graphics and a built-in help system. A confirmatory factor analysis of multiple indicator measurement models is available, as are pedagogical routines for data simulation such as for the Central Limit Theorem. Compatible with 'RStudio' and 'knitr' including generation of R markdown instructions for interpretative output. </t>
   </si>
   <si>
-    <t xml:space="preserve">3.7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-30</t>
+    <t xml:space="preserve">3.7.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-25</t>
   </si>
   <si>
     <t xml:space="preserve">liftr</t>
   </si>
   <si>
-    <t xml:space="preserve">Containerize R Markdown Documents</t>
+    <t xml:space="preserve">Containerize R Markdown Documents for Continuous Reproducibility</t>
   </si>
   <si>
     <t xml:space="preserve">Persistent reproducible reporting by containerization of R Markdown documents.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://liftr.me, https://github.com/road2stat/liftr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8</t>
+    <t xml:space="preserve">https://nanx.me/liftr/, https://github.com/road2stat/liftr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9</t>
   </si>
   <si>
     <t xml:space="preserve">likert</t>
@@ -2386,6 +2411,27 @@
     <t xml:space="preserve">2017-07-19</t>
   </si>
   <si>
+    <t xml:space="preserve">live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local Interpretable (Model-Agnostic) Visual Explanations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interpretability of complex machine learning models is a growing concern.
+    This package helps to understand key factors that drive the 
+    decision made by complicated predictive model (so called black box model). 
+    This is achieved through local approximations that are either based on 
+    additive regression like model or CART like model that allows for 
+    higher interactions. The methodology is based on Tulio Ribeiro, Singh, Guestrin (2016) &lt;doi:10.1145/2939672.2939778&gt;.
+    More details can be found in Staniak, Biecek (2018) &lt;arXiv:1804.01955&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/MI2DataLab/live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">logging</t>
   </si>
   <si>
@@ -2422,7 +2468,7 @@
     <t xml:space="preserve">https://github.com/ropensci/magick#readme</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8</t>
+    <t xml:space="preserve">1.9</t>
   </si>
   <si>
     <t xml:space="preserve">manipulate</t>
@@ -2452,9 +2498,6 @@
 	higher-resolution databases.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018-03-29</t>
   </si>
   <si>
@@ -2514,6 +2557,9 @@
     <t xml:space="preserve">Interface to the 'Google Maps' APIs: (1) routing directions based on the 'Directions' API, returned as 'sf' objects, either as single feature per alternative route, or a single feature per segment per alternative route; (2) travel distance or time matrices based on the 'Distance Matrix' API; (3) geocoded locations based on the 'Geocode' API, returned as 'sf' objects, either points or bounds.</t>
   </si>
   <si>
+    <t xml:space="preserve">0.3.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">maptools</t>
   </si>
   <si>
@@ -2542,9 +2588,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/r-spatial/mapview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.0</t>
   </si>
   <si>
     <t xml:space="preserve">2018-04-28</t>
@@ -3044,7 +3087,7 @@
     <t xml:space="preserve">https://github.com/r-lib/processx#readme</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0.3</t>
+    <t xml:space="preserve">3.1.0</t>
   </si>
   <si>
     <t xml:space="preserve">profvis</t>
@@ -3057,6 +3100,23 @@
   </si>
   <si>
     <t xml:space="preserve">https://rstudio.github.io/profvis/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstractions for Promise-Based Asynchronous Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides fundamental abstractions for doing asynchronous programming
+    in R using promises. Asynchronous programming is useful for allowing a single
+    R process to orchestrate multiple tasks in the background while also attending
+    to something else. Semantics are similar to 'JavaScript' promises, but with a
+    syntax that is idiomatic R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rstudio.github.io/promises,
+https://github.com/rstudio/promises</t>
   </si>
   <si>
     <t xml:space="preserve">psych</t>
@@ -3186,9 +3246,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/MI2DataLab/randomForestExplainer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9</t>
   </si>
   <si>
     <t xml:space="preserve">raster</t>
@@ -3392,9 +3449,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://rmarkdown.rstudio.com, https://github.com/rstudio/rmarkdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9</t>
   </si>
   <si>
     <t xml:space="preserve">rms</t>
@@ -3456,7 +3510,7 @@
     <t xml:space="preserve">http://www.milbo.org/rpart-plot</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2</t>
+    <t xml:space="preserve">2.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">rpostgis</t>
@@ -3476,9 +3530,6 @@
     <t xml:space="preserve">https://github.com/mablab/rpostgis</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017-12-10</t>
   </si>
   <si>
@@ -3492,6 +3543,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://topepo.github.io/rsample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0.2</t>
   </si>
   <si>
     <t xml:space="preserve">RTextTools</t>
@@ -3689,6 +3743,9 @@
     <t xml:space="preserve">http://shiny.rstudio.com</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">shinyalert</t>
   </si>
   <si>
@@ -3721,7 +3778,7 @@
 https://winvector.github.io/sigr/</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2.5</t>
+    <t xml:space="preserve">0.2.6</t>
   </si>
   <si>
     <t xml:space="preserve">Simpsons</t>
@@ -3755,7 +3812,7 @@
     mechanisms (MCAR, MAR, NMAR).</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-01-08</t>
+    <t xml:space="preserve">2018-04-30</t>
   </si>
   <si>
     <t xml:space="preserve">sinew</t>
@@ -3818,6 +3875,15 @@
 https://makeawebsitehub.com/social-media-image-sizes-cheat-sheet/</t>
   </si>
   <si>
+    <t xml:space="preserve">SmartEDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summarize and Explore the Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploratory analysis on any input data describing the structure and the relationships present in the data. The package automatically select the variable and does related descriptive statistics. Analyzing information value, weight of evidence, custom tables, summary statistics, graphical techniques will be performed for both numeric and categorical predictors.</t>
+  </si>
+  <si>
     <t xml:space="preserve">snakecase</t>
   </si>
   <si>
@@ -3892,7 +3958,7 @@
     <t xml:space="preserve">http://spark.rstudio.com</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8.2</t>
+    <t xml:space="preserve">0.8.4</t>
   </si>
   <si>
     <t xml:space="preserve">spatstat</t>
@@ -4103,6 +4169,20 @@
     <t xml:space="preserve">0.9.3</t>
   </si>
   <si>
+    <t xml:space="preserve">table1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tables of Descriptive Statistics in HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create HTML tables of descriptive statistics, as one would expect
+    to see as the first table (i.e. "Table 1") in a medical/epidemiological journal
+    article.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-25</t>
+  </si>
+  <si>
     <t xml:space="preserve">tabplot</t>
   </si>
   <si>
@@ -4160,9 +4240,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/statistikat/tatoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.0</t>
   </si>
   <si>
     <t xml:space="preserve">textclean</t>
@@ -4326,9 +4403,6 @@
     <t xml:space="preserve">https://github.com/business-science/timetk</t>
   </si>
   <si>
-    <t xml:space="preserve">2017-07-25</t>
-  </si>
-  <si>
     <t xml:space="preserve">tmap</t>
   </si>
   <si>
@@ -4360,16 +4434,6 @@
   </si>
   <si>
     <t xml:space="preserve">tmuxr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manage 'tmux'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create, control, and record 'tmux' sessions, windows, and panes
-    using a pipeable API.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/datascienceworkshops/tmuxr</t>
   </si>
   <si>
     <t xml:space="preserve">topicmodels</t>
@@ -4429,9 +4493,6 @@
   <si>
     <t xml:space="preserve">https://bnosac.github.io/udpipe/en/index.html,
 https://github.com/bnosac/udpipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
   </si>
   <si>
     <t xml:space="preserve">usethis</t>
@@ -4557,6 +4618,9 @@
     <t xml:space="preserve">http://withr.r-lib.org, http://github.com/r-lib/withr#readme</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">workflowr</t>
   </si>
   <si>
@@ -4591,7 +4655,10 @@
     <t xml:space="preserve">https://github.com/dmlc/xgboost</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6.4.1</t>
+    <t xml:space="preserve">0.71.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-11</t>
   </si>
   <si>
     <t xml:space="preserve">yardstick</t>
@@ -4619,6 +4686,20 @@
   </si>
   <si>
     <t xml:space="preserve">2017-4-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ztable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zebra-Striped Tables in LaTeX and HTML Formats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes zebra-striped tables (tables with alternating row colors)
+    in LaTeX and HTML formats easily from a data.frame, matrix, lm, aov, anova,
+    glm, coxph, nls, fitdistr, mytable and cbind.mytable objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://github.com/cardiomoon/ztable</t>
   </si>
 </sst>
 </file>
@@ -5228,100 +5309,98 @@
         <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>80</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>83</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>84</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
         <v>87</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>88</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>89</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>90</v>
-      </c>
-      <c r="E17" t="s">
-        <v>91</v>
       </c>
       <c r="F17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
         <v>92</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>93</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>94</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>95</v>
-      </c>
-      <c r="E18" t="s">
-        <v>96</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
         <v>97</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>98</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>99</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>100</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>101</v>
-      </c>
-      <c r="F19" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
         <v>103</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>104</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>105</v>
-      </c>
-      <c r="D20" t="s">
-        <v>106</v>
       </c>
       <c r="E20" t="s">
         <v>48</v>
@@ -5330,162 +5409,162 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
         <v>107</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>109</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>110</v>
-      </c>
-      <c r="E21" t="s">
-        <v>111</v>
       </c>
       <c r="F21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
         <v>112</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>113</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
         <v>114</v>
-      </c>
-      <c r="D22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" t="s">
-        <v>115</v>
       </c>
       <c r="F22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
         <v>116</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>118</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>119</v>
-      </c>
-      <c r="E23" t="s">
-        <v>120</v>
       </c>
       <c r="F23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
         <v>121</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>122</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>123</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>124</v>
-      </c>
-      <c r="E24" t="s">
-        <v>125</v>
       </c>
       <c r="F24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
         <v>126</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>127</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>128</v>
-      </c>
-      <c r="D25" t="s">
-        <v>129</v>
       </c>
       <c r="E25" t="s">
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
         <v>131</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>133</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>134</v>
-      </c>
-      <c r="E26" t="s">
-        <v>135</v>
       </c>
       <c r="F26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
         <v>136</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>137</v>
-      </c>
-      <c r="C27" t="s">
-        <v>138</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" t="s">
         <v>140</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>141</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>142</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>143</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>144</v>
-      </c>
-      <c r="F28" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
         <v>146</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>147</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>148</v>
-      </c>
-      <c r="D29" t="s">
-        <v>149</v>
       </c>
       <c r="E29" t="s">
         <v>58</v>
@@ -5494,52 +5573,52 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
         <v>150</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>151</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>152</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>153</v>
-      </c>
-      <c r="E30" t="s">
-        <v>154</v>
       </c>
       <c r="F30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" t="s">
         <v>155</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>156</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>157</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>158</v>
-      </c>
-      <c r="E31" t="s">
-        <v>159</v>
       </c>
       <c r="F31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" t="s">
         <v>160</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>161</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>162</v>
-      </c>
-      <c r="D32" t="s">
-        <v>163</v>
       </c>
       <c r="E32" t="s">
         <v>48</v>
@@ -5548,16 +5627,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
         <v>164</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>165</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>166</v>
-      </c>
-      <c r="D33" t="s">
-        <v>167</v>
       </c>
       <c r="E33" t="s">
         <v>58</v>
@@ -5566,132 +5645,132 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" t="s">
         <v>168</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>169</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>170</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>171</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>172</v>
-      </c>
-      <c r="F34" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" t="s">
         <v>174</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>175</v>
-      </c>
-      <c r="C35" t="s">
-        <v>176</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" t="s">
         <v>177</v>
-      </c>
-      <c r="F35" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" t="s">
         <v>179</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>180</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>181</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>182</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>183</v>
-      </c>
-      <c r="F36" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" t="s">
         <v>185</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>186</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>187</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>188</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>189</v>
-      </c>
-      <c r="F37" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" t="s">
         <v>191</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>192</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>193</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>194</v>
-      </c>
-      <c r="E38" t="s">
-        <v>195</v>
       </c>
       <c r="F38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" t="s">
         <v>196</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>197</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>198</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>199</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>200</v>
-      </c>
-      <c r="F39" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" t="s">
         <v>202</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>203</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>204</v>
-      </c>
-      <c r="D40" t="s">
-        <v>205</v>
       </c>
       <c r="E40" t="s">
         <v>33</v>
@@ -5700,212 +5779,212 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" t="s">
         <v>206</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>207</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>208</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>209</v>
-      </c>
-      <c r="E41" t="s">
-        <v>210</v>
       </c>
       <c r="F41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" t="s">
         <v>211</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>212</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>213</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>214</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>215</v>
-      </c>
-      <c r="F42" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" t="s">
         <v>217</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>218</v>
-      </c>
-      <c r="C43" t="s">
-        <v>219</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" t="s">
         <v>220</v>
-      </c>
-      <c r="F43" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" t="s">
         <v>222</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>223</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>224</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>225</v>
-      </c>
-      <c r="E44" t="s">
-        <v>226</v>
       </c>
       <c r="F44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" t="s">
         <v>227</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>228</v>
-      </c>
-      <c r="C45" t="s">
-        <v>229</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" t="s">
         <v>231</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>232</v>
-      </c>
-      <c r="C46" t="s">
-        <v>233</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
         <v>58</v>
       </c>
       <c r="F46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" t="s">
         <v>235</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>236</v>
-      </c>
-      <c r="C47" t="s">
-        <v>237</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
+        <v>237</v>
+      </c>
+      <c r="F47" t="s">
         <v>238</v>
-      </c>
-      <c r="F47" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>239</v>
+      </c>
+      <c r="B48" t="s">
         <v>240</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>241</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>242</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>243</v>
-      </c>
-      <c r="E48" t="s">
-        <v>244</v>
       </c>
       <c r="F48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" t="s">
         <v>245</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>246</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>247</v>
       </c>
-      <c r="D49" t="s">
-        <v>248</v>
-      </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" t="s">
         <v>249</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>250</v>
-      </c>
-      <c r="C50" t="s">
-        <v>251</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
+        <v>251</v>
+      </c>
+      <c r="F50" t="s">
         <v>252</v>
-      </c>
-      <c r="F50" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" t="s">
         <v>254</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>255</v>
-      </c>
-      <c r="C51" t="s">
-        <v>256</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>257</v>
+      </c>
+      <c r="B52" t="s">
         <v>258</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>259</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>260</v>
-      </c>
-      <c r="D52" t="s">
-        <v>261</v>
       </c>
       <c r="E52" t="s">
         <v>58</v>
@@ -5914,22 +5993,22 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" t="s">
         <v>262</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>263</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>264</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>265</v>
       </c>
-      <c r="E53" t="s">
-        <v>210</v>
-      </c>
       <c r="F53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54">
@@ -6020,7 +6099,7 @@
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F58"/>
     </row>
@@ -6052,405 +6131,405 @@
       <c r="C60" t="s">
         <v>298</v>
       </c>
-      <c r="D60" t="s">
-        <v>299</v>
-      </c>
+      <c r="D60"/>
       <c r="E60" t="s">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="F60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>299</v>
+      </c>
+      <c r="B61" t="s">
+        <v>300</v>
+      </c>
+      <c r="C61" t="s">
         <v>301</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D61" t="s">
         <v>302</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>303</v>
       </c>
-      <c r="D61" t="s">
-        <v>304</v>
-      </c>
-      <c r="E61" t="s">
-        <v>305</v>
-      </c>
-      <c r="F61" t="s">
-        <v>306</v>
-      </c>
+      <c r="F61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>304</v>
+      </c>
+      <c r="B62" t="s">
+        <v>305</v>
+      </c>
+      <c r="C62" t="s">
+        <v>306</v>
+      </c>
+      <c r="D62" t="s">
         <v>307</v>
       </c>
-      <c r="B62" t="s">
+      <c r="E62" t="s">
         <v>308</v>
       </c>
-      <c r="C62" t="s">
+      <c r="F62" t="s">
         <v>309</v>
-      </c>
-      <c r="D62"/>
-      <c r="E62" t="s">
-        <v>310</v>
-      </c>
-      <c r="F62" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>310</v>
+      </c>
+      <c r="B63" t="s">
+        <v>311</v>
+      </c>
+      <c r="C63" t="s">
         <v>312</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63"/>
+      <c r="E63" t="s">
         <v>313</v>
       </c>
-      <c r="C63" t="s">
+      <c r="F63" t="s">
         <v>314</v>
       </c>
-      <c r="D63" t="s">
-        <v>315</v>
-      </c>
-      <c r="E63" t="s">
-        <v>74</v>
-      </c>
-      <c r="F63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>315</v>
+      </c>
+      <c r="B64" t="s">
         <v>316</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>317</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>318</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>319</v>
       </c>
-      <c r="E64" t="s">
-        <v>320</v>
-      </c>
-      <c r="F64" t="s">
-        <v>321</v>
-      </c>
+      <c r="F64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" t="s">
         <v>322</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
         <v>323</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>324</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
         <v>325</v>
       </c>
-      <c r="E65" t="s">
-        <v>326</v>
-      </c>
-      <c r="F65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>326</v>
+      </c>
+      <c r="B66" t="s">
         <v>327</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>328</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>329</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>330</v>
       </c>
-      <c r="E66" t="s">
-        <v>331</v>
-      </c>
-      <c r="F66" t="s">
-        <v>332</v>
-      </c>
+      <c r="F66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>331</v>
+      </c>
+      <c r="B67" t="s">
+        <v>332</v>
+      </c>
+      <c r="C67" t="s">
         <v>333</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
         <v>334</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
         <v>335</v>
       </c>
-      <c r="D67"/>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>336</v>
-      </c>
-      <c r="F67" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>337</v>
+      </c>
+      <c r="B68" t="s">
         <v>338</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>339</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68"/>
+      <c r="E68" t="s">
         <v>340</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
         <v>341</v>
-      </c>
-      <c r="E68" t="s">
-        <v>342</v>
-      </c>
-      <c r="F68" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>342</v>
+      </c>
+      <c r="B69" t="s">
+        <v>343</v>
+      </c>
+      <c r="C69" t="s">
         <v>344</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
         <v>345</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
         <v>346</v>
       </c>
-      <c r="D69"/>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>347</v>
-      </c>
-      <c r="F69" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>348</v>
+      </c>
+      <c r="B70" t="s">
         <v>349</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>350</v>
-      </c>
-      <c r="C70" t="s">
-        <v>351</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
-        <v>270</v>
-      </c>
-      <c r="F70"/>
+        <v>351</v>
+      </c>
+      <c r="F70" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B71" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C71" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
-        <v>355</v>
-      </c>
-      <c r="F71" t="s">
-        <v>356</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="F71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72" t="s">
         <v>357</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>358</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72"/>
+      <c r="E72" t="s">
         <v>359</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
         <v>360</v>
-      </c>
-      <c r="E72" t="s">
-        <v>361</v>
-      </c>
-      <c r="F72" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>361</v>
+      </c>
+      <c r="B73" t="s">
+        <v>362</v>
+      </c>
+      <c r="C73" t="s">
         <v>363</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
         <v>364</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
         <v>365</v>
       </c>
-      <c r="D73"/>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>366</v>
-      </c>
-      <c r="F73" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>367</v>
+      </c>
+      <c r="B74" t="s">
         <v>368</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>369</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74"/>
+      <c r="E74" t="s">
         <v>370</v>
       </c>
-      <c r="D74" t="s">
+      <c r="F74" t="s">
         <v>371</v>
       </c>
-      <c r="E74" t="s">
-        <v>372</v>
-      </c>
-      <c r="F74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>372</v>
+      </c>
+      <c r="B75" t="s">
         <v>373</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>374</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>375</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>376</v>
-      </c>
-      <c r="E75" t="s">
-        <v>377</v>
       </c>
       <c r="F75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>377</v>
+      </c>
+      <c r="B76" t="s">
         <v>378</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>379</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>380</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>381</v>
       </c>
-      <c r="E76" t="s">
-        <v>382</v>
-      </c>
-      <c r="F76" t="s">
-        <v>383</v>
-      </c>
+      <c r="F76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>382</v>
+      </c>
+      <c r="B77" t="s">
+        <v>383</v>
+      </c>
+      <c r="C77" t="s">
         <v>384</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>385</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" t="s">
         <v>386</v>
-      </c>
-      <c r="D77" t="s">
-        <v>387</v>
-      </c>
-      <c r="E77" t="s">
-        <v>33</v>
-      </c>
-      <c r="F77" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>387</v>
+      </c>
+      <c r="B78" t="s">
+        <v>388</v>
+      </c>
+      <c r="C78" t="s">
         <v>389</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78" t="s">
         <v>390</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" t="s">
         <v>391</v>
-      </c>
-      <c r="D78" t="s">
-        <v>392</v>
-      </c>
-      <c r="E78" t="s">
-        <v>154</v>
-      </c>
-      <c r="F78" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>392</v>
+      </c>
+      <c r="B79" t="s">
         <v>393</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>394</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>395</v>
       </c>
-      <c r="D79"/>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>396</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>396</v>
+      </c>
+      <c r="B80" t="s">
         <v>397</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>398</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80"/>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
         <v>399</v>
-      </c>
-      <c r="D80" t="s">
-        <v>400</v>
-      </c>
-      <c r="E80" t="s">
-        <v>401</v>
-      </c>
-      <c r="F80" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>400</v>
+      </c>
+      <c r="B81" t="s">
+        <v>401</v>
+      </c>
+      <c r="C81" t="s">
+        <v>402</v>
+      </c>
+      <c r="D81" t="s">
         <v>403</v>
       </c>
-      <c r="B81" t="s">
+      <c r="E81" t="s">
         <v>404</v>
       </c>
-      <c r="C81" t="s">
+      <c r="F81" t="s">
         <v>405</v>
       </c>
-      <c r="D81"/>
-      <c r="E81" t="s">
-        <v>295</v>
-      </c>
-      <c r="F81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -6462,83 +6541,81 @@
       <c r="C82" t="s">
         <v>408</v>
       </c>
-      <c r="D82" t="s">
-        <v>409</v>
-      </c>
+      <c r="D82"/>
       <c r="E82" t="s">
-        <v>68</v>
+        <v>295</v>
       </c>
       <c r="F82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>409</v>
+      </c>
+      <c r="B83" t="s">
         <v>410</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>411</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>412</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>413</v>
-      </c>
-      <c r="E83" t="s">
-        <v>414</v>
       </c>
       <c r="F83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>414</v>
+      </c>
+      <c r="B84" t="s">
         <v>415</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>416</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>417</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>418</v>
-      </c>
-      <c r="E84" t="s">
-        <v>419</v>
       </c>
       <c r="F84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>419</v>
+      </c>
+      <c r="B85" t="s">
         <v>420</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>421</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>422</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>423</v>
-      </c>
-      <c r="E85" t="s">
-        <v>424</v>
       </c>
       <c r="F85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>424</v>
+      </c>
+      <c r="B86" t="s">
         <v>425</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>426</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>427</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>428</v>
-      </c>
-      <c r="E86" t="s">
-        <v>58</v>
       </c>
       <c r="F86"/>
     </row>
@@ -6556,135 +6633,137 @@
         <v>432</v>
       </c>
       <c r="E87" t="s">
-        <v>433</v>
-      </c>
-      <c r="F87" t="s">
-        <v>434</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>433</v>
+      </c>
+      <c r="B88" t="s">
+        <v>434</v>
+      </c>
+      <c r="C88" t="s">
         <v>435</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
         <v>436</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E88" t="s">
+        <v>413</v>
+      </c>
+      <c r="F88" t="s">
         <v>437</v>
-      </c>
-      <c r="D88"/>
-      <c r="E88" t="s">
-        <v>115</v>
-      </c>
-      <c r="F88" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>438</v>
+      </c>
+      <c r="B89" t="s">
         <v>439</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>440</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89"/>
+      <c r="E89" t="s">
+        <v>114</v>
+      </c>
+      <c r="F89" t="s">
         <v>441</v>
       </c>
-      <c r="D89" t="s">
-        <v>442</v>
-      </c>
-      <c r="E89" t="s">
-        <v>443</v>
-      </c>
-      <c r="F89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>442</v>
+      </c>
+      <c r="B90" t="s">
+        <v>443</v>
+      </c>
+      <c r="C90" t="s">
         <v>444</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>445</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>446</v>
-      </c>
-      <c r="D90" t="s">
-        <v>447</v>
-      </c>
-      <c r="E90" t="s">
-        <v>210</v>
       </c>
       <c r="F90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>447</v>
+      </c>
+      <c r="B91" t="s">
         <v>448</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>449</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>450</v>
       </c>
-      <c r="D91" t="s">
-        <v>451</v>
-      </c>
       <c r="E91" t="s">
-        <v>452</v>
+        <v>265</v>
       </c>
       <c r="F91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>451</v>
+      </c>
+      <c r="B92" t="s">
+        <v>452</v>
+      </c>
+      <c r="C92" t="s">
         <v>453</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>454</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>455</v>
-      </c>
-      <c r="D92"/>
-      <c r="E92" t="s">
-        <v>456</v>
       </c>
       <c r="F92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>456</v>
+      </c>
+      <c r="B93" t="s">
         <v>457</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>458</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93"/>
+      <c r="E93" t="s">
         <v>459</v>
       </c>
-      <c r="D93" t="s">
-        <v>460</v>
-      </c>
-      <c r="E93" t="s">
-        <v>377</v>
-      </c>
-      <c r="F93" t="s">
-        <v>461</v>
-      </c>
+      <c r="F93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>460</v>
+      </c>
+      <c r="B94" t="s">
+        <v>461</v>
+      </c>
+      <c r="C94" t="s">
         <v>462</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
         <v>463</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
+        <v>381</v>
+      </c>
+      <c r="F94" t="s">
         <v>464</v>
       </c>
-      <c r="D94"/>
-      <c r="E94" t="s">
-        <v>238</v>
-      </c>
-      <c r="F94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -6696,195 +6775,195 @@
       <c r="C95" t="s">
         <v>467</v>
       </c>
-      <c r="D95" t="s">
-        <v>468</v>
-      </c>
+      <c r="D95"/>
       <c r="E95" t="s">
-        <v>469</v>
+        <v>237</v>
       </c>
       <c r="F95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>468</v>
+      </c>
+      <c r="B96" t="s">
+        <v>469</v>
+      </c>
+      <c r="C96" t="s">
         <v>470</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
         <v>471</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E96" t="s">
         <v>472</v>
       </c>
-      <c r="D96" t="s">
-        <v>473</v>
-      </c>
-      <c r="E96" t="s">
-        <v>474</v>
-      </c>
-      <c r="F96" t="s">
-        <v>475</v>
-      </c>
+      <c r="F96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>473</v>
+      </c>
+      <c r="B97" t="s">
+        <v>474</v>
+      </c>
+      <c r="C97" t="s">
+        <v>475</v>
+      </c>
+      <c r="D97" t="s">
         <v>476</v>
       </c>
-      <c r="B97" t="s">
+      <c r="E97" t="s">
         <v>477</v>
       </c>
-      <c r="C97" t="s">
+      <c r="F97" t="s">
         <v>478</v>
       </c>
-      <c r="D97" t="s">
-        <v>479</v>
-      </c>
-      <c r="E97" t="s">
-        <v>68</v>
-      </c>
-      <c r="F97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>479</v>
+      </c>
+      <c r="B98" t="s">
         <v>480</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>481</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>482</v>
       </c>
-      <c r="D98" t="s">
-        <v>483</v>
-      </c>
       <c r="E98" t="s">
-        <v>484</v>
+        <v>68</v>
       </c>
       <c r="F98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>483</v>
+      </c>
+      <c r="B99" t="s">
+        <v>484</v>
+      </c>
+      <c r="C99" t="s">
         <v>485</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D99" t="s">
         <v>486</v>
       </c>
-      <c r="C99" t="s">
+      <c r="E99" t="s">
         <v>487</v>
-      </c>
-      <c r="D99" t="s">
-        <v>488</v>
-      </c>
-      <c r="E99" t="s">
-        <v>489</v>
       </c>
       <c r="F99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>488</v>
+      </c>
+      <c r="B100" t="s">
+        <v>489</v>
+      </c>
+      <c r="C100" t="s">
         <v>490</v>
       </c>
-      <c r="B100" t="s">
+      <c r="D100" t="s">
         <v>491</v>
       </c>
-      <c r="C100" t="s">
+      <c r="E100" t="s">
         <v>492</v>
       </c>
-      <c r="D100" t="s">
-        <v>493</v>
-      </c>
-      <c r="E100" t="s">
-        <v>494</v>
-      </c>
-      <c r="F100" t="s">
-        <v>495</v>
-      </c>
+      <c r="F100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>493</v>
+      </c>
+      <c r="B101" t="s">
+        <v>494</v>
+      </c>
+      <c r="C101" t="s">
+        <v>495</v>
+      </c>
+      <c r="D101" t="s">
         <v>496</v>
       </c>
-      <c r="B101" t="s">
+      <c r="E101" t="s">
         <v>497</v>
       </c>
-      <c r="C101" t="s">
+      <c r="F101" t="s">
         <v>498</v>
-      </c>
-      <c r="D101" t="s">
-        <v>499</v>
-      </c>
-      <c r="E101" t="s">
-        <v>500</v>
-      </c>
-      <c r="F101" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>499</v>
+      </c>
+      <c r="B102" t="s">
+        <v>500</v>
+      </c>
+      <c r="C102" t="s">
+        <v>501</v>
+      </c>
+      <c r="D102" t="s">
         <v>502</v>
       </c>
-      <c r="B102" t="s">
+      <c r="E102" t="s">
         <v>503</v>
       </c>
-      <c r="C102" t="s">
+      <c r="F102" t="s">
         <v>504</v>
       </c>
-      <c r="D102" t="s">
-        <v>505</v>
-      </c>
-      <c r="E102" t="s">
-        <v>33</v>
-      </c>
-      <c r="F102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>505</v>
+      </c>
+      <c r="B103" t="s">
         <v>506</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>507</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>508</v>
       </c>
-      <c r="D103" t="s">
-        <v>509</v>
-      </c>
       <c r="E103" t="s">
-        <v>510</v>
-      </c>
-      <c r="F103" t="s">
-        <v>511</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>509</v>
+      </c>
+      <c r="B104" t="s">
+        <v>510</v>
+      </c>
+      <c r="C104" t="s">
+        <v>511</v>
+      </c>
+      <c r="D104" t="s">
         <v>512</v>
       </c>
-      <c r="B104" t="s">
+      <c r="E104" t="s">
         <v>513</v>
       </c>
-      <c r="C104" t="s">
+      <c r="F104" t="s">
         <v>514</v>
       </c>
-      <c r="D104"/>
-      <c r="E104" t="s">
-        <v>515</v>
-      </c>
-      <c r="F104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>515</v>
+      </c>
+      <c r="B105" t="s">
         <v>516</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>517</v>
-      </c>
-      <c r="C105" t="s">
-        <v>518</v>
       </c>
       <c r="D105"/>
       <c r="E105" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="F105"/>
     </row>
@@ -6898,813 +6977,813 @@
       <c r="C106" t="s">
         <v>521</v>
       </c>
-      <c r="D106" t="s">
-        <v>522</v>
-      </c>
+      <c r="D106"/>
       <c r="E106" t="s">
-        <v>523</v>
-      </c>
-      <c r="F106" t="s">
-        <v>524</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>522</v>
+      </c>
+      <c r="B107" t="s">
+        <v>523</v>
+      </c>
+      <c r="C107" t="s">
+        <v>524</v>
+      </c>
+      <c r="D107" t="s">
         <v>525</v>
       </c>
-      <c r="B107" t="s">
+      <c r="E107" t="s">
         <v>526</v>
       </c>
-      <c r="C107" t="s">
+      <c r="F107" t="s">
         <v>527</v>
-      </c>
-      <c r="D107" t="s">
-        <v>528</v>
-      </c>
-      <c r="E107" t="s">
-        <v>529</v>
-      </c>
-      <c r="F107" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>528</v>
+      </c>
+      <c r="B108" t="s">
+        <v>529</v>
+      </c>
+      <c r="C108" t="s">
+        <v>530</v>
+      </c>
+      <c r="D108" t="s">
         <v>531</v>
       </c>
-      <c r="B108" t="s">
+      <c r="E108" t="s">
         <v>532</v>
       </c>
-      <c r="C108" t="s">
+      <c r="F108" t="s">
         <v>533</v>
-      </c>
-      <c r="D108" t="s">
-        <v>534</v>
-      </c>
-      <c r="E108" t="s">
-        <v>535</v>
-      </c>
-      <c r="F108" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>534</v>
+      </c>
+      <c r="B109" t="s">
+        <v>535</v>
+      </c>
+      <c r="C109" t="s">
+        <v>536</v>
+      </c>
+      <c r="D109" t="s">
         <v>537</v>
       </c>
-      <c r="B109" t="s">
+      <c r="E109" t="s">
         <v>538</v>
       </c>
-      <c r="C109" t="s">
+      <c r="F109" t="s">
         <v>539</v>
       </c>
-      <c r="D109" t="s">
-        <v>540</v>
-      </c>
-      <c r="E109" t="s">
-        <v>541</v>
-      </c>
-      <c r="F109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>540</v>
+      </c>
+      <c r="B110" t="s">
+        <v>541</v>
+      </c>
+      <c r="C110" t="s">
         <v>542</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D110" t="s">
         <v>543</v>
       </c>
-      <c r="C110" t="s">
+      <c r="E110" t="s">
         <v>544</v>
-      </c>
-      <c r="D110" t="s">
-        <v>545</v>
-      </c>
-      <c r="E110" t="s">
-        <v>489</v>
       </c>
       <c r="F110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>545</v>
+      </c>
+      <c r="B111" t="s">
         <v>546</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>547</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>548</v>
       </c>
-      <c r="D111" t="s">
-        <v>549</v>
-      </c>
       <c r="E111" t="s">
-        <v>210</v>
-      </c>
-      <c r="F111" t="s">
-        <v>550</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="F111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>549</v>
+      </c>
+      <c r="B112" t="s">
+        <v>550</v>
+      </c>
+      <c r="C112" t="s">
         <v>551</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112" t="s">
         <v>552</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E112" t="s">
+        <v>265</v>
+      </c>
+      <c r="F112" t="s">
         <v>553</v>
-      </c>
-      <c r="D112" t="s">
-        <v>554</v>
-      </c>
-      <c r="E112" t="s">
-        <v>555</v>
-      </c>
-      <c r="F112" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>554</v>
+      </c>
+      <c r="B113" t="s">
+        <v>555</v>
+      </c>
+      <c r="C113" t="s">
+        <v>556</v>
+      </c>
+      <c r="D113" t="s">
         <v>557</v>
       </c>
-      <c r="B113" t="s">
+      <c r="E113" t="s">
         <v>558</v>
       </c>
-      <c r="C113" t="s">
+      <c r="F113" t="s">
         <v>559</v>
-      </c>
-      <c r="D113" t="s">
-        <v>560</v>
-      </c>
-      <c r="E113" t="s">
-        <v>210</v>
-      </c>
-      <c r="F113" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>560</v>
+      </c>
+      <c r="B114" t="s">
+        <v>561</v>
+      </c>
+      <c r="C114" t="s">
         <v>562</v>
       </c>
-      <c r="B114" t="s">
+      <c r="D114" t="s">
         <v>563</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E114" t="s">
+        <v>265</v>
+      </c>
+      <c r="F114" t="s">
         <v>564</v>
       </c>
-      <c r="D114" t="s">
-        <v>565</v>
-      </c>
-      <c r="E114" t="s">
-        <v>566</v>
-      </c>
-      <c r="F114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>565</v>
+      </c>
+      <c r="B115" t="s">
+        <v>566</v>
+      </c>
+      <c r="C115" t="s">
         <v>567</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
         <v>568</v>
       </c>
-      <c r="C115" t="s">
+      <c r="E115" t="s">
         <v>569</v>
-      </c>
-      <c r="D115" t="s">
-        <v>570</v>
-      </c>
-      <c r="E115" t="s">
-        <v>571</v>
       </c>
       <c r="F115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>570</v>
+      </c>
+      <c r="B116" t="s">
+        <v>571</v>
+      </c>
+      <c r="C116" t="s">
         <v>572</v>
       </c>
-      <c r="B116" t="s">
+      <c r="D116" t="s">
         <v>573</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E116" t="s">
         <v>574</v>
       </c>
-      <c r="D116" t="s">
-        <v>575</v>
-      </c>
-      <c r="E116" t="s">
-        <v>377</v>
-      </c>
-      <c r="F116" t="s">
-        <v>576</v>
-      </c>
+      <c r="F116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>575</v>
+      </c>
+      <c r="B117" t="s">
+        <v>576</v>
+      </c>
+      <c r="C117" t="s">
         <v>577</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
         <v>578</v>
       </c>
-      <c r="C117" t="s">
+      <c r="E117" t="s">
+        <v>459</v>
+      </c>
+      <c r="F117" t="s">
         <v>579</v>
       </c>
-      <c r="D117" t="s">
-        <v>580</v>
-      </c>
-      <c r="E117" t="s">
-        <v>33</v>
-      </c>
-      <c r="F117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>580</v>
+      </c>
+      <c r="B118" t="s">
         <v>581</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>582</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>583</v>
       </c>
-      <c r="D118" t="s">
-        <v>584</v>
-      </c>
       <c r="E118" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="F118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>584</v>
+      </c>
+      <c r="B119" t="s">
         <v>585</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>586</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>587</v>
       </c>
-      <c r="D119" t="s">
-        <v>588</v>
-      </c>
       <c r="E119" t="s">
-        <v>589</v>
+        <v>58</v>
       </c>
       <c r="F119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>588</v>
+      </c>
+      <c r="B120" t="s">
+        <v>589</v>
+      </c>
+      <c r="C120" t="s">
         <v>590</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120" t="s">
         <v>591</v>
       </c>
-      <c r="C120" t="s">
+      <c r="E120" t="s">
         <v>592</v>
       </c>
-      <c r="D120" t="s">
-        <v>593</v>
-      </c>
-      <c r="E120" t="s">
-        <v>594</v>
-      </c>
-      <c r="F120" t="s">
-        <v>595</v>
-      </c>
+      <c r="F120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>593</v>
+      </c>
+      <c r="B121" t="s">
+        <v>594</v>
+      </c>
+      <c r="C121" t="s">
+        <v>595</v>
+      </c>
+      <c r="D121" t="s">
         <v>596</v>
       </c>
-      <c r="B121" t="s">
-        <v>597</v>
-      </c>
-      <c r="C121" t="s">
-        <v>598</v>
-      </c>
-      <c r="D121"/>
       <c r="E121" t="s">
-        <v>599</v>
-      </c>
-      <c r="F121" t="s">
-        <v>600</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>597</v>
+      </c>
+      <c r="B122" t="s">
+        <v>598</v>
+      </c>
+      <c r="C122" t="s">
+        <v>599</v>
+      </c>
+      <c r="D122" t="s">
+        <v>600</v>
+      </c>
+      <c r="E122" t="s">
         <v>601</v>
       </c>
-      <c r="B122" t="s">
+      <c r="F122" t="s">
         <v>602</v>
       </c>
-      <c r="C122" t="s">
-        <v>603</v>
-      </c>
-      <c r="D122" t="s">
-        <v>604</v>
-      </c>
-      <c r="E122" t="s">
-        <v>605</v>
-      </c>
-      <c r="F122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B123" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C123" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D123"/>
       <c r="E123" t="s">
-        <v>609</v>
-      </c>
-      <c r="F123"/>
+        <v>606</v>
+      </c>
+      <c r="F123" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>608</v>
+      </c>
+      <c r="B124" t="s">
+        <v>609</v>
+      </c>
+      <c r="C124" t="s">
         <v>610</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D124" t="s">
         <v>611</v>
       </c>
-      <c r="C124" t="s">
+      <c r="E124" t="s">
         <v>612</v>
-      </c>
-      <c r="D124"/>
-      <c r="E124" t="s">
-        <v>613</v>
       </c>
       <c r="F124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>613</v>
+      </c>
+      <c r="B125" t="s">
         <v>614</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>615</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125"/>
+      <c r="E125" t="s">
         <v>616</v>
       </c>
-      <c r="D125" t="s">
-        <v>617</v>
-      </c>
-      <c r="E125" t="s">
-        <v>618</v>
-      </c>
-      <c r="F125" t="s">
-        <v>619</v>
-      </c>
+      <c r="F125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B126" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C126" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D126"/>
       <c r="E126" t="s">
-        <v>623</v>
-      </c>
-      <c r="F126" t="s">
-        <v>624</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="F126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>621</v>
+      </c>
+      <c r="B127" t="s">
+        <v>622</v>
+      </c>
+      <c r="C127" t="s">
+        <v>623</v>
+      </c>
+      <c r="D127" t="s">
+        <v>624</v>
+      </c>
+      <c r="E127" t="s">
         <v>625</v>
       </c>
-      <c r="B127" t="s">
+      <c r="F127" t="s">
         <v>626</v>
       </c>
-      <c r="C127" t="s">
-        <v>627</v>
-      </c>
-      <c r="D127" t="s">
-        <v>628</v>
-      </c>
-      <c r="E127" t="s">
-        <v>629</v>
-      </c>
-      <c r="F127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>627</v>
+      </c>
+      <c r="B128" t="s">
+        <v>628</v>
+      </c>
+      <c r="C128" t="s">
+        <v>629</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128" t="s">
         <v>630</v>
       </c>
-      <c r="B128" t="s">
+      <c r="F128" t="s">
         <v>631</v>
-      </c>
-      <c r="C128" t="s">
-        <v>632</v>
-      </c>
-      <c r="D128" t="s">
-        <v>633</v>
-      </c>
-      <c r="E128" t="s">
-        <v>310</v>
-      </c>
-      <c r="F128" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>632</v>
+      </c>
+      <c r="B129" t="s">
+        <v>633</v>
+      </c>
+      <c r="C129" t="s">
+        <v>634</v>
+      </c>
+      <c r="D129" t="s">
         <v>635</v>
       </c>
-      <c r="B129" t="s">
+      <c r="E129" t="s">
         <v>636</v>
       </c>
-      <c r="C129" t="s">
-        <v>637</v>
-      </c>
-      <c r="D129" t="s">
-        <v>638</v>
-      </c>
-      <c r="E129" t="s">
-        <v>377</v>
-      </c>
-      <c r="F129" t="s">
-        <v>639</v>
-      </c>
+      <c r="F129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>637</v>
+      </c>
+      <c r="B130" t="s">
+        <v>638</v>
+      </c>
+      <c r="C130" t="s">
+        <v>639</v>
+      </c>
+      <c r="D130" t="s">
         <v>640</v>
       </c>
-      <c r="B130" t="s">
+      <c r="E130" t="s">
+        <v>313</v>
+      </c>
+      <c r="F130" t="s">
         <v>641</v>
       </c>
-      <c r="C130" t="s">
-        <v>642</v>
-      </c>
-      <c r="D130"/>
-      <c r="E130" t="s">
-        <v>48</v>
-      </c>
-      <c r="F130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>642</v>
+      </c>
+      <c r="B131" t="s">
         <v>643</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>644</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>645</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
+        <v>381</v>
+      </c>
+      <c r="F131" t="s">
         <v>646</v>
-      </c>
-      <c r="E131" t="s">
-        <v>571</v>
-      </c>
-      <c r="F131" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>647</v>
+      </c>
+      <c r="B132" t="s">
         <v>648</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>649</v>
-      </c>
-      <c r="C132" t="s">
-        <v>650</v>
       </c>
       <c r="D132"/>
       <c r="E132" t="s">
-        <v>651</v>
-      </c>
-      <c r="F132" t="s">
-        <v>652</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F132"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>650</v>
+      </c>
+      <c r="B133" t="s">
+        <v>651</v>
+      </c>
+      <c r="C133" t="s">
+        <v>652</v>
+      </c>
+      <c r="D133" t="s">
         <v>653</v>
       </c>
-      <c r="B133" t="s">
+      <c r="E133" t="s">
+        <v>574</v>
+      </c>
+      <c r="F133" t="s">
         <v>654</v>
       </c>
-      <c r="C133" t="s">
-        <v>655</v>
-      </c>
-      <c r="D133" t="s">
-        <v>656</v>
-      </c>
-      <c r="E133" t="s">
-        <v>657</v>
-      </c>
-      <c r="F133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>655</v>
+      </c>
+      <c r="B134" t="s">
+        <v>656</v>
+      </c>
+      <c r="C134" t="s">
+        <v>657</v>
+      </c>
+      <c r="D134" t="s">
         <v>658</v>
       </c>
-      <c r="B134" t="s">
+      <c r="E134" t="s">
         <v>659</v>
       </c>
-      <c r="C134" t="s">
-        <v>660</v>
-      </c>
-      <c r="D134"/>
-      <c r="E134" t="s">
-        <v>115</v>
-      </c>
-      <c r="F134" t="s">
-        <v>661</v>
-      </c>
+      <c r="F134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>660</v>
+      </c>
+      <c r="B135" t="s">
+        <v>661</v>
+      </c>
+      <c r="C135" t="s">
         <v>662</v>
-      </c>
-      <c r="B135" t="s">
-        <v>663</v>
-      </c>
-      <c r="C135" t="s">
-        <v>664</v>
       </c>
       <c r="D135"/>
       <c r="E135" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F135" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>665</v>
+      </c>
+      <c r="B136" t="s">
+        <v>666</v>
+      </c>
+      <c r="C136" t="s">
         <v>667</v>
       </c>
-      <c r="B136" t="s">
+      <c r="D136" t="s">
         <v>668</v>
       </c>
-      <c r="C136" t="s">
+      <c r="E136" t="s">
         <v>669</v>
       </c>
-      <c r="D136" t="s">
-        <v>670</v>
-      </c>
-      <c r="E136" t="s">
-        <v>244</v>
-      </c>
-      <c r="F136" t="s">
-        <v>671</v>
-      </c>
+      <c r="F136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>670</v>
+      </c>
+      <c r="B137" t="s">
+        <v>671</v>
+      </c>
+      <c r="C137" t="s">
         <v>672</v>
-      </c>
-      <c r="B137" t="s">
-        <v>673</v>
-      </c>
-      <c r="C137" t="s">
-        <v>674</v>
       </c>
       <c r="D137"/>
       <c r="E137" t="s">
-        <v>675</v>
+        <v>114</v>
       </c>
       <c r="F137" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B138" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C138" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D138"/>
       <c r="E138" t="s">
-        <v>680</v>
+        <v>74</v>
       </c>
       <c r="F138" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>678</v>
+      </c>
+      <c r="B139" t="s">
+        <v>679</v>
+      </c>
+      <c r="C139" t="s">
+        <v>680</v>
+      </c>
+      <c r="D139" t="s">
+        <v>681</v>
+      </c>
+      <c r="E139" t="s">
+        <v>243</v>
+      </c>
+      <c r="F139" t="s">
         <v>682</v>
       </c>
-      <c r="B139" t="s">
-        <v>683</v>
-      </c>
-      <c r="C139" t="s">
-        <v>684</v>
-      </c>
-      <c r="D139"/>
-      <c r="E139" t="s">
-        <v>230</v>
-      </c>
-      <c r="F139"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>683</v>
+      </c>
+      <c r="B140" t="s">
+        <v>684</v>
+      </c>
+      <c r="C140" t="s">
         <v>685</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D140"/>
+      <c r="E140" t="s">
         <v>686</v>
       </c>
-      <c r="C140" t="s">
+      <c r="F140" t="s">
         <v>687</v>
-      </c>
-      <c r="D140" t="s">
-        <v>688</v>
-      </c>
-      <c r="E140" t="s">
-        <v>689</v>
-      </c>
-      <c r="F140" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>688</v>
+      </c>
+      <c r="B141" t="s">
+        <v>689</v>
+      </c>
+      <c r="C141" t="s">
+        <v>690</v>
+      </c>
+      <c r="D141"/>
+      <c r="E141" t="s">
         <v>691</v>
       </c>
-      <c r="B141" t="s">
+      <c r="F141" t="s">
         <v>692</v>
-      </c>
-      <c r="C141" t="s">
-        <v>693</v>
-      </c>
-      <c r="D141" t="s">
-        <v>694</v>
-      </c>
-      <c r="E141" t="s">
-        <v>695</v>
-      </c>
-      <c r="F141" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B142" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C142" t="s">
-        <v>699</v>
-      </c>
-      <c r="D142" t="s">
-        <v>700</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="D142"/>
       <c r="E142" t="s">
-        <v>701</v>
-      </c>
-      <c r="F142" t="s">
-        <v>702</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="F142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B143" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C143" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D143" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E143" t="s">
-        <v>135</v>
+        <v>701</v>
       </c>
       <c r="F143" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B144" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C144" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D144" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E144" t="s">
-        <v>712</v>
+        <v>319</v>
       </c>
       <c r="F144" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B145" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C145" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D145" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E145" t="s">
-        <v>718</v>
-      </c>
-      <c r="F145"/>
+        <v>712</v>
+      </c>
+      <c r="F145" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B146" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C146" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D146" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E146" t="s">
-        <v>723</v>
-      </c>
-      <c r="F146"/>
+        <v>134</v>
+      </c>
+      <c r="F146" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>719</v>
+      </c>
+      <c r="B147" t="s">
+        <v>720</v>
+      </c>
+      <c r="C147" t="s">
+        <v>721</v>
+      </c>
+      <c r="D147" t="s">
+        <v>722</v>
+      </c>
+      <c r="E147" t="s">
+        <v>723</v>
+      </c>
+      <c r="F147" t="s">
         <v>724</v>
       </c>
-      <c r="B147" t="s">
-        <v>725</v>
-      </c>
-      <c r="C147" t="s">
-        <v>726</v>
-      </c>
-      <c r="D147"/>
-      <c r="E147" t="s">
-        <v>58</v>
-      </c>
-      <c r="F147"/>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>725</v>
+      </c>
+      <c r="B148" t="s">
+        <v>726</v>
+      </c>
+      <c r="C148" t="s">
         <v>727</v>
       </c>
-      <c r="B148" t="s">
+      <c r="D148" t="s">
         <v>728</v>
       </c>
-      <c r="C148" t="s">
+      <c r="E148" t="s">
         <v>729</v>
-      </c>
-      <c r="D148" t="s">
-        <v>730</v>
-      </c>
-      <c r="E148" t="s">
-        <v>189</v>
       </c>
       <c r="F148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>730</v>
+      </c>
+      <c r="B149" t="s">
         <v>731</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>732</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>733</v>
       </c>
-      <c r="D149"/>
       <c r="E149" t="s">
-        <v>424</v>
-      </c>
-      <c r="F149" t="s">
         <v>734</v>
       </c>
+      <c r="F149"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
@@ -7716,139 +7795,143 @@
       <c r="C150" t="s">
         <v>737</v>
       </c>
-      <c r="D150" t="s">
-        <v>738</v>
-      </c>
+      <c r="D150"/>
       <c r="E150" t="s">
-        <v>120</v>
-      </c>
-      <c r="F150" t="s">
-        <v>739</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
+        <v>738</v>
+      </c>
+      <c r="B151" t="s">
+        <v>739</v>
+      </c>
+      <c r="C151" t="s">
         <v>740</v>
       </c>
-      <c r="B151" t="s">
+      <c r="D151" t="s">
         <v>741</v>
       </c>
-      <c r="C151" t="s">
-        <v>742</v>
-      </c>
-      <c r="D151"/>
       <c r="E151" t="s">
-        <v>377</v>
-      </c>
-      <c r="F151" t="s">
-        <v>743</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F151"/>
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>742</v>
+      </c>
+      <c r="B152" t="s">
+        <v>743</v>
+      </c>
+      <c r="C152" t="s">
         <v>744</v>
       </c>
-      <c r="B152" t="s">
+      <c r="D152"/>
+      <c r="E152" t="s">
+        <v>428</v>
+      </c>
+      <c r="F152" t="s">
         <v>745</v>
-      </c>
-      <c r="C152" t="s">
-        <v>746</v>
-      </c>
-      <c r="D152" t="s">
-        <v>747</v>
-      </c>
-      <c r="E152" t="s">
-        <v>748</v>
-      </c>
-      <c r="F152" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>746</v>
+      </c>
+      <c r="B153" t="s">
+        <v>747</v>
+      </c>
+      <c r="C153" t="s">
+        <v>748</v>
+      </c>
+      <c r="D153" t="s">
+        <v>749</v>
+      </c>
+      <c r="E153" t="s">
+        <v>119</v>
+      </c>
+      <c r="F153" t="s">
         <v>750</v>
-      </c>
-      <c r="B153" t="s">
-        <v>751</v>
-      </c>
-      <c r="C153" t="s">
-        <v>752</v>
-      </c>
-      <c r="D153"/>
-      <c r="E153" t="s">
-        <v>753</v>
-      </c>
-      <c r="F153" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B154" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C154" t="s">
-        <v>757</v>
-      </c>
-      <c r="D154" t="s">
-        <v>758</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="D154"/>
       <c r="E154" t="s">
-        <v>759</v>
+        <v>381</v>
       </c>
       <c r="F154" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B155" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C155" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D155" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E155" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F155" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>767</v>
-      </c>
-      <c r="B156"/>
-      <c r="C156"/>
+        <v>761</v>
+      </c>
+      <c r="B156" t="s">
+        <v>762</v>
+      </c>
+      <c r="C156" t="s">
+        <v>763</v>
+      </c>
       <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156"/>
+      <c r="E156" t="s">
+        <v>764</v>
+      </c>
+      <c r="F156" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>766</v>
+      </c>
+      <c r="B157" t="s">
+        <v>767</v>
+      </c>
+      <c r="C157" t="s">
         <v>768</v>
       </c>
-      <c r="B157" t="s">
+      <c r="D157" t="s">
         <v>769</v>
       </c>
-      <c r="C157" t="s">
+      <c r="E157" t="s">
         <v>770</v>
       </c>
-      <c r="D157" t="s">
+      <c r="F157" t="s">
         <v>771</v>
       </c>
-      <c r="E157" t="s">
-        <v>58</v>
-      </c>
-      <c r="F157"/>
     </row>
     <row r="158">
       <c r="A158" t="s">
@@ -7860,28 +7943,24 @@
       <c r="C158" t="s">
         <v>774</v>
       </c>
-      <c r="D158"/>
+      <c r="D158" t="s">
+        <v>775</v>
+      </c>
       <c r="E158" t="s">
-        <v>115</v>
+        <v>776</v>
       </c>
       <c r="F158" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>776</v>
-      </c>
-      <c r="B159" t="s">
-        <v>777</v>
-      </c>
-      <c r="C159" t="s">
         <v>778</v>
       </c>
+      <c r="B159"/>
+      <c r="C159"/>
       <c r="D159"/>
-      <c r="E159" t="s">
-        <v>43</v>
-      </c>
+      <c r="E159"/>
       <c r="F159"/>
     </row>
     <row r="160">
@@ -7898,1849 +7977,1963 @@
         <v>782</v>
       </c>
       <c r="E160" t="s">
-        <v>783</v>
+        <v>58</v>
       </c>
       <c r="F160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>783</v>
+      </c>
+      <c r="B161" t="s">
         <v>784</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>785</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161"/>
+      <c r="E161" t="s">
+        <v>114</v>
+      </c>
+      <c r="F161" t="s">
         <v>786</v>
       </c>
-      <c r="D161" t="s">
-        <v>787</v>
-      </c>
-      <c r="E161" t="s">
-        <v>33</v>
-      </c>
-      <c r="F161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>787</v>
+      </c>
+      <c r="B162" t="s">
         <v>788</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>789</v>
       </c>
-      <c r="C162" t="s">
-        <v>790</v>
-      </c>
-      <c r="D162" t="s">
-        <v>791</v>
-      </c>
+      <c r="D162"/>
       <c r="E162" t="s">
-        <v>792</v>
-      </c>
-      <c r="F162" t="s">
-        <v>793</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>790</v>
+      </c>
+      <c r="B163" t="s">
+        <v>791</v>
+      </c>
+      <c r="C163" t="s">
+        <v>792</v>
+      </c>
+      <c r="D163" t="s">
+        <v>793</v>
+      </c>
+      <c r="E163" t="s">
         <v>794</v>
-      </c>
-      <c r="B163" t="s">
-        <v>795</v>
-      </c>
-      <c r="C163" t="s">
-        <v>796</v>
-      </c>
-      <c r="D163" t="s">
-        <v>797</v>
-      </c>
-      <c r="E163" t="s">
-        <v>798</v>
       </c>
       <c r="F163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B164" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C164" t="s">
-        <v>801</v>
-      </c>
-      <c r="D164"/>
+        <v>797</v>
+      </c>
+      <c r="D164" t="s">
+        <v>798</v>
+      </c>
       <c r="E164" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F164"/>
     </row>
     <row r="165">
       <c r="A165" t="s">
+        <v>799</v>
+      </c>
+      <c r="B165" t="s">
+        <v>800</v>
+      </c>
+      <c r="C165" t="s">
+        <v>801</v>
+      </c>
+      <c r="D165" t="s">
         <v>802</v>
       </c>
-      <c r="B165"/>
-      <c r="C165"/>
-      <c r="D165"/>
-      <c r="E165"/>
-      <c r="F165"/>
+      <c r="E165" t="s">
+        <v>803</v>
+      </c>
+      <c r="F165" t="s">
+        <v>804</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B166" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C166" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D166" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E166" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F166"/>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B167" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C167" t="s">
-        <v>810</v>
-      </c>
-      <c r="D167" t="s">
-        <v>811</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="D167"/>
       <c r="E167" t="s">
-        <v>783</v>
+        <v>58</v>
       </c>
       <c r="F167"/>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>812</v>
-      </c>
-      <c r="B168" t="s">
         <v>813</v>
       </c>
-      <c r="C168" t="s">
-        <v>814</v>
-      </c>
-      <c r="D168" t="s">
-        <v>815</v>
-      </c>
-      <c r="E168" t="s">
-        <v>535</v>
-      </c>
-      <c r="F168" t="s">
-        <v>816</v>
-      </c>
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
+        <v>814</v>
+      </c>
+      <c r="B169" t="s">
+        <v>815</v>
+      </c>
+      <c r="C169" t="s">
+        <v>816</v>
+      </c>
+      <c r="D169" t="s">
         <v>817</v>
       </c>
-      <c r="B169" t="s">
+      <c r="E169" t="s">
         <v>818</v>
-      </c>
-      <c r="C169" t="s">
-        <v>819</v>
-      </c>
-      <c r="D169" t="s">
-        <v>820</v>
-      </c>
-      <c r="E169" t="s">
-        <v>821</v>
       </c>
       <c r="F169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>819</v>
+      </c>
+      <c r="B170" t="s">
+        <v>820</v>
+      </c>
+      <c r="C170" t="s">
+        <v>821</v>
+      </c>
+      <c r="D170" t="s">
         <v>822</v>
       </c>
-      <c r="B170" t="s">
-        <v>823</v>
-      </c>
-      <c r="C170" t="s">
-        <v>824</v>
-      </c>
-      <c r="D170" t="s">
-        <v>825</v>
-      </c>
       <c r="E170" t="s">
-        <v>230</v>
+        <v>794</v>
       </c>
       <c r="F170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
+        <v>823</v>
+      </c>
+      <c r="B171" t="s">
+        <v>824</v>
+      </c>
+      <c r="C171" t="s">
+        <v>825</v>
+      </c>
+      <c r="D171" t="s">
         <v>826</v>
       </c>
-      <c r="B171" t="s">
+      <c r="E171" t="s">
+        <v>538</v>
+      </c>
+      <c r="F171" t="s">
         <v>827</v>
-      </c>
-      <c r="C171" t="s">
-        <v>828</v>
-      </c>
-      <c r="D171" t="s">
-        <v>829</v>
-      </c>
-      <c r="E171" t="s">
-        <v>830</v>
-      </c>
-      <c r="F171" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
+        <v>828</v>
+      </c>
+      <c r="B172" t="s">
+        <v>829</v>
+      </c>
+      <c r="C172" t="s">
+        <v>830</v>
+      </c>
+      <c r="D172" t="s">
+        <v>831</v>
+      </c>
+      <c r="E172" t="s">
         <v>832</v>
       </c>
-      <c r="B172" t="s">
-        <v>833</v>
-      </c>
-      <c r="C172" t="s">
-        <v>834</v>
-      </c>
-      <c r="D172" t="s">
-        <v>835</v>
-      </c>
-      <c r="E172" t="s">
-        <v>836</v>
-      </c>
-      <c r="F172" t="s">
-        <v>837</v>
-      </c>
+      <c r="F172"/>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B173" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C173" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D173" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E173" t="s">
-        <v>842</v>
-      </c>
-      <c r="F173" t="s">
-        <v>843</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="F173"/>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="B174" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C174" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="D174" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="E174" t="s">
-        <v>848</v>
-      </c>
-      <c r="F174" t="s">
-        <v>311</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F174"/>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="B175" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="C175" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="D175" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="E175" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="F175" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="B176" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="C176" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="D176" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="E176" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="F176" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="B177" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="C177" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="D177" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="E177" t="s">
-        <v>865</v>
-      </c>
-      <c r="F177"/>
+        <v>857</v>
+      </c>
+      <c r="F177" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B178" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="C178" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="D178" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="E178" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="F178" t="s">
-        <v>871</v>
+        <v>314</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="B179" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="C179" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="D179" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="E179" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="F179" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="B180" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="C180" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="D180" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="E180" t="s">
-        <v>43</v>
-      </c>
-      <c r="F180"/>
+        <v>874</v>
+      </c>
+      <c r="F180" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B181" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="C181" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="D181" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E181" t="s">
-        <v>865</v>
-      </c>
-      <c r="F181" t="s">
-        <v>886</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="F181"/>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B182" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="C182" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="D182" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="E182" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="F182" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B183" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="C183" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="D183" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="E183" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="F183" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="B184" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="C184" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="D184" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E184" t="s">
-        <v>902</v>
+        <v>43</v>
       </c>
       <c r="F184"/>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="B185" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="C185" t="s">
-        <v>905</v>
-      </c>
-      <c r="D185"/>
+        <v>898</v>
+      </c>
+      <c r="D185" t="s">
+        <v>899</v>
+      </c>
       <c r="E185" t="s">
-        <v>523</v>
+        <v>636</v>
       </c>
       <c r="F185" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="B186" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="C186" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="D186" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="E186" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="F186" t="s">
-        <v>666</v>
+        <v>891</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="B187" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="C187" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="D187" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="E187" t="s">
-        <v>172</v>
+        <v>910</v>
       </c>
       <c r="F187" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B188" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C188" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="D188" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="E188" t="s">
-        <v>189</v>
+        <v>916</v>
       </c>
       <c r="F188"/>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B189" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C189" t="s">
-        <v>923</v>
-      </c>
-      <c r="D189" t="s">
-        <v>924</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="D189"/>
       <c r="E189" t="s">
-        <v>925</v>
-      </c>
-      <c r="F189"/>
+        <v>526</v>
+      </c>
+      <c r="F189" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="B190" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="C190" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="D190" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="E190" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="F190" t="s">
-        <v>931</v>
+        <v>677</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B191" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C191" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="D191" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="E191" t="s">
-        <v>712</v>
+        <v>171</v>
       </c>
       <c r="F191" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="B192" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C192" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="D192" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="E192" t="s">
-        <v>941</v>
+        <v>153</v>
       </c>
       <c r="F192"/>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="B193" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="C193" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="D193" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="E193" t="s">
-        <v>946</v>
-      </c>
-      <c r="F193" t="s">
-        <v>947</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="F193"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="B194" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="C194" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="D194" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="E194" t="s">
-        <v>469</v>
-      </c>
-      <c r="F194"/>
+        <v>943</v>
+      </c>
+      <c r="F194" t="s">
+        <v>944</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="B195" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="C195" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="D195" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="E195" t="s">
-        <v>956</v>
+        <v>723</v>
       </c>
       <c r="F195" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="B196" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="C196" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="D196" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="E196" t="s">
-        <v>962</v>
-      </c>
-      <c r="F196" t="s">
-        <v>963</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="F196"/>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="B197" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="C197" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="D197" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="E197" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F197" t="s">
-        <v>434</v>
+        <v>959</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="B198" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C198" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="D198" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="E198" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="F198"/>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="B199" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="C199" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="D199" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="E199" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F199" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="B200" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="C200" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="D200" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="E200" t="s">
-        <v>135</v>
+        <v>975</v>
       </c>
       <c r="F200" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="B201" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C201" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="D201" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="E201" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="F201" t="s">
-        <v>988</v>
+        <v>437</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="B202" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="C202" t="s">
-        <v>991</v>
-      </c>
-      <c r="D202"/>
+        <v>983</v>
+      </c>
+      <c r="D202" t="s">
+        <v>984</v>
+      </c>
       <c r="E202" t="s">
-        <v>992</v>
-      </c>
-      <c r="F202" t="s">
-        <v>993</v>
-      </c>
+        <v>985</v>
+      </c>
+      <c r="F202"/>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="B203" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="C203" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D203" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="E203" t="s">
-        <v>58</v>
-      </c>
-      <c r="F203"/>
+        <v>990</v>
+      </c>
+      <c r="F203" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B204" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C204" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D204"/>
+        <v>994</v>
+      </c>
+      <c r="D204" t="s">
+        <v>995</v>
+      </c>
       <c r="E204" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="F204" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B205" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C205" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D205" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E205" t="s">
-        <v>305</v>
-      </c>
-      <c r="F205"/>
+        <v>114</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D206"/>
+      <c r="E206" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F206" t="s">
         <v>1006</v>
       </c>
-      <c r="B206" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D206" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E206" t="s">
-        <v>135</v>
-      </c>
-      <c r="F206"/>
     </row>
     <row r="207">
       <c r="A207" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D207" t="s">
         <v>1010</v>
       </c>
-      <c r="B207" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1013</v>
-      </c>
       <c r="E207" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F207" t="s">
-        <v>561</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F207"/>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B208" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C208" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D208"/>
       <c r="E208" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F208" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E209" t="s">
         <v>1019</v>
       </c>
-      <c r="B209" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D209"/>
-      <c r="E209" t="s">
-        <v>972</v>
-      </c>
-      <c r="F209" t="s">
-        <v>1022</v>
-      </c>
+      <c r="F209"/>
     </row>
     <row r="210">
       <c r="A210" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D210" t="s">
         <v>1023</v>
       </c>
-      <c r="B210" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D210" t="s">
-        <v>1026</v>
-      </c>
       <c r="E210" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F210" t="s">
-        <v>1028</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F210"/>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="B211" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C211" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="D211" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="E211" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F211"/>
+        <v>1028</v>
+      </c>
+      <c r="F211" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B212" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="C212" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D212" t="s">
-        <v>1037</v>
-      </c>
+        <v>1031</v>
+      </c>
+      <c r="D212"/>
       <c r="E212" t="s">
         <v>48</v>
       </c>
-      <c r="F212"/>
+      <c r="F212" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B213" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="C213" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D213" t="s">
-        <v>1041</v>
-      </c>
+        <v>1035</v>
+      </c>
+      <c r="D213"/>
       <c r="E213" t="s">
-        <v>1042</v>
+        <v>270</v>
       </c>
       <c r="F213" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="B214" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="C214" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="D214" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="E214" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F214"/>
+        <v>1041</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="B215" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="C215" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="D215" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="E215" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F215" t="s">
-        <v>1054</v>
-      </c>
+        <v>1047</v>
+      </c>
+      <c r="F215"/>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="B216" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="C216" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="D216" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="E216" t="s">
-        <v>1059</v>
+        <v>48</v>
       </c>
       <c r="F216"/>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="B217" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="C217" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D217" t="s">
-        <v>1063</v>
-      </c>
+        <v>1054</v>
+      </c>
+      <c r="D217"/>
       <c r="E217" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F217" t="s">
-        <v>877</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F217"/>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="B218" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="C218" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D218"/>
+        <v>1057</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1058</v>
+      </c>
       <c r="E218" t="s">
-        <v>74</v>
-      </c>
-      <c r="F218"/>
+        <v>1059</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="B219" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="C219" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="D219" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="E219" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F219"/>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="B220" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="C220" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="D220" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="E220" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="F220" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="B221" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C221" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="D221" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="E221" t="s">
-        <v>618</v>
+        <v>1076</v>
       </c>
       <c r="F221"/>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="B222" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="C222" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="D222" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E222" t="s">
-        <v>115</v>
+        <v>1081</v>
       </c>
       <c r="F222" t="s">
-        <v>1087</v>
+        <v>891</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B223" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C223" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D223" t="s">
-        <v>1091</v>
-      </c>
+        <v>1084</v>
+      </c>
+      <c r="D223"/>
       <c r="E223" t="s">
-        <v>33</v>
+        <v>954</v>
       </c>
       <c r="F223"/>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B224" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="C224" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="D224" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="E224" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="F224"/>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="B225" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="C225" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="D225" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="E225" t="s">
-        <v>210</v>
+        <v>1094</v>
       </c>
       <c r="F225" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="B226" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="C226" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="D226" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="E226" t="s">
-        <v>154</v>
-      </c>
-      <c r="F226" t="s">
-        <v>1106</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="F226"/>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="B227" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="C227" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="D227" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="E227" t="s">
-        <v>1111</v>
+        <v>114</v>
       </c>
       <c r="F227" t="s">
-        <v>696</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="B228" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="C228" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="D228" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="E228" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F228" t="s">
-        <v>1117</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F228"/>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="B229" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="C229" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="D229" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="E229" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F229" t="s">
-        <v>1123</v>
-      </c>
+        <v>1113</v>
+      </c>
+      <c r="F229"/>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="B230" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="C230" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="D230" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="E230" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F230"/>
+        <v>265</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="B231" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="C231" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="D231" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="E231" t="s">
-        <v>1133</v>
+        <v>153</v>
       </c>
       <c r="F231" t="s">
-        <v>348</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="B232" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="C232" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="D232" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="E232" t="s">
-        <v>33</v>
-      </c>
-      <c r="F232"/>
+        <v>1128</v>
+      </c>
+      <c r="F232" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="B233" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="C233" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="D233"/>
       <c r="E233" t="s">
-        <v>1141</v>
+        <v>134</v>
       </c>
       <c r="F233" t="s">
-        <v>993</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="B234" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="C234" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="D234" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="E234" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="F234" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="B235" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="C235" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="D235" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="E235" t="s">
-        <v>33</v>
+        <v>1143</v>
       </c>
       <c r="F235" t="s">
-        <v>438</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="B236" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C236" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="D236" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="E236" t="s">
-        <v>135</v>
+        <v>1019</v>
       </c>
       <c r="F236"/>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="B237" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="C237" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="D237" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="E237" t="s">
-        <v>1128</v>
+        <v>1153</v>
       </c>
       <c r="F237" t="s">
-        <v>1160</v>
+        <v>352</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="B238" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="C238" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="D238" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="E238" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F238" t="s">
-        <v>1166</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F238"/>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="B239" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="C239" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D239" t="s">
-        <v>1170</v>
-      </c>
+        <v>1160</v>
+      </c>
+      <c r="D239"/>
       <c r="E239" t="s">
-        <v>48</v>
+        <v>1161</v>
       </c>
       <c r="F239" t="s">
-        <v>1171</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="B240" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="C240" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="D240" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="E240" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="F240" t="s">
-        <v>843</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="B241" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="C241" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="D241" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="E241" t="s">
-        <v>1181</v>
+        <v>33</v>
       </c>
       <c r="F241" t="s">
-        <v>843</v>
+        <v>441</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="B242" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="C242" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="D242" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="E242" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="F242"/>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="B243" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="C243" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D243"/>
+        <v>1178</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1179</v>
+      </c>
       <c r="E243" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F243"/>
+        <v>1019</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1180</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="B244" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="C244" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="D244" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="E244" t="s">
-        <v>58</v>
+        <v>1185</v>
       </c>
       <c r="F244" t="s">
-        <v>271</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="B245" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="C245" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D245"/>
+        <v>1189</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1190</v>
+      </c>
       <c r="E245" t="s">
         <v>33</v>
       </c>
-      <c r="F245"/>
+      <c r="F245" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B246" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="C246" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D246" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="E246" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F246"/>
+        <v>1195</v>
+      </c>
+      <c r="F246" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="B247" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="C247" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="D247" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="E247" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F247"/>
+        <v>1200</v>
+      </c>
+      <c r="F247" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D248" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E248" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F248" t="s">
-        <v>1212</v>
-      </c>
+        <v>1201</v>
+      </c>
+      <c r="B248"/>
+      <c r="C248"/>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248"/>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="B249" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="C249" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D249" t="s">
-        <v>1216</v>
-      </c>
+        <v>1204</v>
+      </c>
+      <c r="D249"/>
       <c r="E249" t="s">
-        <v>456</v>
+        <v>1205</v>
       </c>
       <c r="F249"/>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B250"/>
-      <c r="C250"/>
-      <c r="D250"/>
-      <c r="E250"/>
-      <c r="F250"/>
+        <v>1206</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E250" t="s">
+        <v>58</v>
+      </c>
+      <c r="F250" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="B251" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="C251" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D251" t="s">
-        <v>1221</v>
-      </c>
+        <v>1212</v>
+      </c>
+      <c r="D251"/>
       <c r="E251" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F251"/>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="B252" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="C252" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="D252" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="E252" t="s">
-        <v>125</v>
-      </c>
-      <c r="F252" t="s">
-        <v>1226</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F252"/>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="B253" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="C253" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D253"/>
+        <v>1219</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1220</v>
+      </c>
       <c r="E253" t="s">
-        <v>43</v>
-      </c>
-      <c r="F253" t="s">
-        <v>1230</v>
-      </c>
+        <v>1221</v>
+      </c>
+      <c r="F253"/>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="B254" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="C254" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="D254" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="E254" t="s">
-        <v>941</v>
-      </c>
-      <c r="F254"/>
+        <v>1226</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1227</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="B255" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="C255" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="D255" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="E255" t="s">
-        <v>115</v>
-      </c>
-      <c r="F255" t="s">
-        <v>760</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="F255"/>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B256" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C256" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D256" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E256" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F256" t="s">
-        <v>983</v>
-      </c>
+        <v>1232</v>
+      </c>
+      <c r="B256"/>
+      <c r="C256"/>
+      <c r="D256"/>
+      <c r="E256"/>
+      <c r="F256"/>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>1244</v>
+        <v>1233</v>
       </c>
       <c r="B257" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
       <c r="C257" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
       <c r="D257" t="s">
-        <v>1247</v>
+        <v>1236</v>
       </c>
       <c r="E257" t="s">
-        <v>295</v>
+        <v>48</v>
       </c>
       <c r="F257"/>
     </row>
     <row r="258">
       <c r="A258" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E258" t="s">
+        <v>124</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D259"/>
+      <c r="E259" t="s">
+        <v>43</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C260" t="s">
         <v>1248</v>
       </c>
-      <c r="B258" t="s">
+      <c r="D260" t="s">
         <v>1249</v>
       </c>
-      <c r="C258" t="s">
+      <c r="E260" t="s">
         <v>1250</v>
       </c>
-      <c r="D258" t="s">
+      <c r="F260"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
         <v>1251</v>
       </c>
-      <c r="E258" t="s">
+      <c r="B261" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E261" t="s">
+        <v>114</v>
+      </c>
+      <c r="F261" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E263" t="s">
+        <v>295</v>
+      </c>
+      <c r="F263"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E264" t="s">
         <v>68</v>
       </c>
-      <c r="F258" t="s">
-        <v>1252</v>
-      </c>
+      <c r="F264" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E265" t="s">
+        <v>985</v>
+      </c>
+      <c r="F265"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/cran_packages.xlsx
+++ b/Docs/cran_packages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1362">
   <si>
     <t xml:space="preserve">Package</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
   </si>
   <si>
     <t xml:space="preserve">alphahull</t>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">2016-02-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color</t>
   </si>
   <si>
     <t xml:space="preserve">Amelia</t>
@@ -89,6 +95,9 @@
     <t xml:space="preserve">2018-05-07</t>
   </si>
   <si>
+    <t xml:space="preserve">Imputation</t>
+  </si>
+  <si>
     <t xml:space="preserve">anim.plots</t>
   </si>
   <si>
@@ -108,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">2017-5-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation</t>
   </si>
   <si>
     <t xml:space="preserve">animation</t>
@@ -160,6 +172,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outliers / Time Series</t>
   </si>
   <si>
     <t xml:space="preserve">archivist</t>
@@ -189,6 +204,9 @@
     <t xml:space="preserve">2.3.1</t>
   </si>
   <si>
+    <t xml:space="preserve">workflow</t>
+  </si>
+  <si>
     <t xml:space="preserve">autoplotly</t>
   </si>
   <si>
@@ -207,6 +225,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plots</t>
   </si>
   <si>
     <t xml:space="preserve">basictabler</t>
@@ -229,6 +250,9 @@
     <t xml:space="preserve">0.1.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Tables</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boruta</t>
   </si>
   <si>
@@ -245,6 +269,9 @@
     <t xml:space="preserve">5.3.0</t>
   </si>
   <si>
+    <t xml:space="preserve">EDA</t>
+  </si>
+  <si>
     <t xml:space="preserve">bigrquery</t>
   </si>
   <si>
@@ -260,6 +287,9 @@
     <t xml:space="preserve">1.0.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Big Data / Cloud</t>
+  </si>
+  <si>
     <t xml:space="preserve">bookdown</t>
   </si>
   <si>
@@ -275,26 +305,31 @@
     <t xml:space="preserve">0.7</t>
   </si>
   <si>
+    <t xml:space="preserve">Markdown</t>
+  </si>
+  <si>
     <t xml:space="preserve">breakDown</t>
   </si>
   <si>
-    <t xml:space="preserve">Break Down Plots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Break Down Plots are inspired by waterfall plots created by 'xgboostExplainer' package
-    (see &lt;https://github.com/AppliedDataSciencePartners/xgboostExplainer&gt;). 
-    The idea behind Break Down Plots it to decompose model prediction for a single observation. 
-    Break Down Plots show the contribution of every variable present in the model. 
-    Such plots will work for binary classifiers and general regression models. </t>
+    <t xml:space="preserve">Model Agnostic Explainers for Individual Predictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model agnostic tool for decomposition of predictions from black boxes.
+    Break Down Table shows contributions of every variable to a final prediction. 
+    Break Down Plot presents variable contributions in a concise graphical way. 
+    This package work for binary classifiers and general regression models. </t>
   </si>
   <si>
     <t xml:space="preserve">https://pbiecek.github.io/breakDown/</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-01</t>
+    <t xml:space="preserve">0.1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster</t>
   </si>
   <si>
     <t xml:space="preserve">brms</t>
@@ -320,13 +355,13 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/paul-buerkner/brms,
-https://groups.google.com/forum/#!forum/brms-users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-14</t>
+http://discourse.mc-stan.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">C50</t>
@@ -339,6 +374,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://topepo.github.io/C5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models</t>
   </si>
   <si>
     <t xml:space="preserve">car</t>
@@ -363,6 +401,9 @@
     <t xml:space="preserve">2018-03-23</t>
   </si>
   <si>
+    <t xml:space="preserve">Stats</t>
+  </si>
+  <si>
     <t xml:space="preserve">caret</t>
   </si>
   <si>
@@ -394,6 +435,9 @@
     <t xml:space="preserve">2.1.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Maps</t>
+  </si>
+  <si>
     <t xml:space="preserve">changepoint</t>
   </si>
   <si>
@@ -410,6 +454,9 @@
   </si>
   <si>
     <t xml:space="preserve">2016-10-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Series</t>
   </si>
   <si>
     <t xml:space="preserve">charlatan</t>
@@ -425,6 +472,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/ropensci/charlatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data / Testing</t>
   </si>
   <si>
     <t xml:space="preserve">choroplethr</t>
@@ -443,10 +493,10 @@
     Google Maps. </t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.arilamstein.com/open-source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6.1</t>
+    <t xml:space="preserve">www.choroplethr.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6.2</t>
   </si>
   <si>
     <t xml:space="preserve">choroplethrMaps</t>
@@ -457,6 +507,9 @@
   <si>
     <t xml:space="preserve">Contains 3 maps. 1) US States 2) US Counties 3) Countries of the
     world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.arilamstein.com/open-source</t>
   </si>
   <si>
     <t xml:space="preserve">1.0.1</t>
@@ -477,6 +530,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Data</t>
   </si>
   <si>
     <t xml:space="preserve">cleanNLP</t>
@@ -501,6 +557,9 @@
     <t xml:space="preserve">2.0.3</t>
   </si>
   <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
     <t xml:space="preserve">clustree</t>
   </si>
   <si>
@@ -596,6 +655,29 @@
     <t xml:space="preserve">https://github.com/jimvine/confinterpret</t>
   </si>
   <si>
+    <t xml:space="preserve">Explain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conflicted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Alternative Conflict Resolution Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R's default conflict management system gives the most recently
+    loaded package precedence. This can make it hard to detect conflicts, 
+    particularly when they arise because a package update creates ambiguity
+    that did not previously exist. 'conflicted' takes a different approach, 
+    making every conflict an error and forcing you to choose which function 
+    to use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/r-lib/conflicted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming</t>
+  </si>
+  <si>
     <t xml:space="preserve">corrr</t>
   </si>
   <si>
@@ -662,6 +744,9 @@
     <t xml:space="preserve">https://github.com/RhoInc/CRANsearcher</t>
   </si>
   <si>
+    <t xml:space="preserve">Help</t>
+  </si>
+  <si>
     <t xml:space="preserve">cshapes</t>
   </si>
   <si>
@@ -835,25 +920,22 @@
     <t xml:space="preserve">2018-05-03</t>
   </si>
   <si>
-    <t xml:space="preserve">datamap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A system for mapping foreign objects to R variables and
-environments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datamap utilizes variable bindings and objects of class
-        "UserDefinedDatabase" to provide a simple mapping system to
-        foreign objects. Maps can be used as environments or attached
-        to the search path, and changes to either are persistent.
-        Mapped foreign objects are fetched in real-time and are never
-        cached by the mapping system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-12-03</t>
+    <t xml:space="preserve">datamaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Interactive Web Maps with the 'JavaScript Datamaps'
+Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easily create interactive choropleth maps then add bubbles and arcs by coordinates or region name. 
+    These maps can be used directly from the console, from 'RStudio', in 'Shiny' apps and 'R Markdown' documents. 'Shiny' 
+    proxies allow to interactively add arcs and bubbles, change choropleth values, or change labels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://datamaps.john-coene.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0.3</t>
   </si>
   <si>
     <t xml:space="preserve">datapasta</t>
@@ -869,6 +951,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools</t>
   </si>
   <si>
     <t xml:space="preserve">dataPreparation</t>
@@ -934,6 +1019,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDA / Stats</t>
   </si>
   <si>
     <t xml:space="preserve">desctable</t>
@@ -1023,7 +1111,10 @@
 https://alinetalhouk.github.io/diceR</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5.0</t>
+    <t xml:space="preserve">0.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-10</t>
   </si>
   <si>
     <t xml:space="preserve">diffobj</t>
@@ -1039,10 +1130,13 @@
     <t xml:space="preserve">https://github.com/brodieG/diffobj</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-26</t>
+    <t xml:space="preserve">0.1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDA / Tools</t>
   </si>
   <si>
     <t xml:space="preserve">directlabels</t>
@@ -1069,17 +1163,25 @@
     <t xml:space="preserve">drake</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Frames in R for Make</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An R-focused pipeline toolkit
-  for reproducible code and high-performance computing.</t>
+    <t xml:space="preserve">A Pipeline Toolkit for Reproducible Computation at Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A general-purpose computational engine for data analysis,
+  drake rebuilds intermediate data objects when their dependencies change,
+  and it skips work when the results are already up to date.
+  Not every execution starts from scratch,
+  and completed projects have tangible evidence
+  that they are reproducible.
+  Extensive documentation, from beginner-friendly tutorials
+  to practical examples and more, is available at the reference website
+  &lt;https://ropensci.github.io/drake/&gt; and the online manual
+  &lt;https://ropenscilabs.github.io/drake-manual/&gt;.</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/ropensci/drake</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2</t>
+    <t xml:space="preserve">5.2.1</t>
   </si>
   <si>
     <t xml:space="preserve">dygraphs</t>
@@ -1107,10 +1209,14 @@
     <t xml:space="preserve">egg</t>
   </si>
   <si>
-    <t xml:space="preserve">Extensions for 'ggplot2', to Align Plots, and Set Panel Sizes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miscellaneous functions to help customise 'ggplot2' objects. High-level functions are provided to post-process 'ggplot2' layouts and allow alignment between plot panels, as well as setting panel sizes to fixed values. </t>
+    <t xml:space="preserve">Extensions for 'ggplot2': Custom Geom, Plot Alignment,
+Symmetrised Scale, and Fixed Panel Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscellaneous functions to help customise 'ggplot2' objects. High-level functions are provided to post-process 'ggplot2' layouts and allow alignment between plot panels, as well as setting panel sizes to fixed values. Other functions include a custom 'geom', and a helper function to enforce symmetric scales in facetted plots.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4.0</t>
   </si>
   <si>
     <t xml:space="preserve">errorist</t>
@@ -1127,6 +1233,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming / Tools</t>
   </si>
   <si>
     <t xml:space="preserve">ERSA</t>
@@ -1159,6 +1268,9 @@
     <t xml:space="preserve">0.17</t>
   </si>
   <si>
+    <t xml:space="preserve">Tools / Plots</t>
+  </si>
+  <si>
     <t xml:space="preserve">factoextra</t>
   </si>
   <si>
@@ -1183,6 +1295,9 @@
     <t xml:space="preserve">2017-08-22</t>
   </si>
   <si>
+    <t xml:space="preserve">EDA / Factorial Analysis</t>
+  </si>
+  <si>
     <t xml:space="preserve">FFTrees</t>
   </si>
   <si>
@@ -1217,6 +1332,9 @@
     <t xml:space="preserve">2.4.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Tools / Files</t>
+  </si>
+  <si>
     <t xml:space="preserve">forecTheta</t>
   </si>
   <si>
@@ -1233,6 +1351,9 @@
   </si>
   <si>
     <t xml:space="preserve">2016-05-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forecasting</t>
   </si>
   <si>
     <t xml:space="preserve">fs</t>
@@ -1248,7 +1369,7 @@
     <t xml:space="preserve">http://fs.r-lib.org, https://github.com/r-lib/fs</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.2</t>
+    <t xml:space="preserve">1.2.3</t>
   </si>
   <si>
     <t xml:space="preserve">funModeling</t>
@@ -1267,6 +1388,9 @@
   </si>
   <si>
     <t xml:space="preserve">2018-01-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDA / Models</t>
   </si>
   <si>
     <t xml:space="preserve">futile.logger</t>
@@ -1284,6 +1408,9 @@
   </si>
   <si>
     <t xml:space="preserve">2016-07-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools / Logs</t>
   </si>
   <si>
     <t xml:space="preserve">gbm</t>
@@ -1337,6 +1464,9 @@
     <t xml:space="preserve">Provides geofaceting functionality for 'ggplot2'. Geofaceting arranges a sequence of plots of data for different geographical entities into a grid that preserves some of the geographical orientation.</t>
   </si>
   <si>
+    <t xml:space="preserve">0.1.9</t>
+  </si>
+  <si>
     <t xml:space="preserve">geonames</t>
   </si>
   <si>
@@ -1426,9 +1556,6 @@
     <t xml:space="preserve">https://github.com/hrbrmstr/ggalt</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">ggbeeswarm</t>
   </si>
   <si>
@@ -1535,7 +1662,7 @@
     <t xml:space="preserve">https://github.com/GuangchuangYu/ggimage</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1.6</t>
+    <t xml:space="preserve">0.1.7</t>
   </si>
   <si>
     <t xml:space="preserve">ggiraph</t>
@@ -1550,7 +1677,7 @@
     <t xml:space="preserve">https://davidgohel.github.io/ggiraph</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4.2</t>
+    <t xml:space="preserve">0.4.3</t>
   </si>
   <si>
     <t xml:space="preserve">ggmap</t>
@@ -1665,6 +1792,9 @@
     <t xml:space="preserve">https://github.com/clauswilke/ggridges</t>
   </si>
   <si>
+    <t xml:space="preserve">0.5.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">ggsci</t>
   </si>
   <si>
@@ -1693,7 +1823,7 @@
     and rolling summaries such as rolling average on the fly for time series.</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5.1</t>
+    <t xml:space="preserve">0.5.4</t>
   </si>
   <si>
     <t xml:space="preserve">ggsn</t>
@@ -1737,9 +1867,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://indrajeetpatil.github.io/ggstatsplot/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0.3</t>
   </si>
   <si>
     <t xml:space="preserve">ggtern</t>
@@ -1776,6 +1903,12 @@
     <t xml:space="preserve">https://github.com/calligross/ggthemeassist</t>
   </si>
   <si>
+    <t xml:space="preserve">0.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plots / Color</t>
+  </si>
+  <si>
     <t xml:space="preserve">ggthemes</t>
   </si>
   <si>
@@ -1809,9 +1942,6 @@
     <t xml:space="preserve">http://ggvis.rstudio.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">glmnet</t>
   </si>
   <si>
@@ -1851,18 +1981,24 @@
     <t xml:space="preserve">googleLanguageR</t>
   </si>
   <si>
-    <t xml:space="preserve">Call Google's 'Natural Language' API, 'Cloud Translation' API
-and 'Cloud Speech' API</t>
+    <t xml:space="preserve">Call Google's 'Natural Language' API, 'Cloud Translation' API,
+'Cloud Speech' API and 'Cloud Text-to-Speech' API</t>
   </si>
   <si>
     <t xml:space="preserve">Call 'Google Cloud' machine learning APIs for text and speech tasks.
   Call the 'Cloud Translation' API &lt;https://cloud.google.com/translate/&gt; for detection 
   and translation of text, the 'Natural Language' API &lt;https://cloud.google.com/natural-language/&gt; to 
-  analyse text for sentiment, entities or syntax or the 'Cloud Speech' API 
-  &lt;https://cloud.google.com/speech/&gt; to transcribe sound files to text.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://code.markedmondson.me/googleLanguageR/</t>
+  analyse text for sentiment, entities or syntax, the 'Cloud Speech' API 
+  &lt;https://cloud.google.com/speech/&gt; to transcribe sound files to text and 
+  the 'Cloud Text-to-Speech' API &lt;https://cloud.google.com/text-to-speech/&gt; to turn text 
+  into sound files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://code.markedmondson.me/googleLanguageR/,
+https://github.com/ropensci/googleLanguageR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text / Cloud</t>
   </si>
   <si>
     <t xml:space="preserve">gpclib</t>
@@ -1926,6 +2062,9 @@
   </si>
   <si>
     <t xml:space="preserve">2018-02-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data / Cloud</t>
   </si>
   <si>
     <t xml:space="preserve">heatmaply</t>
@@ -1963,6 +2102,9 @@
     <t xml:space="preserve">2018-02-01</t>
   </si>
   <si>
+    <t xml:space="preserve">Plot</t>
+  </si>
+  <si>
     <t xml:space="preserve">here</t>
   </si>
   <si>
@@ -1985,6 +2127,9 @@
     <t xml:space="preserve">2017-05-27</t>
   </si>
   <si>
+    <t xml:space="preserve">Tools / Programming</t>
+  </si>
+  <si>
     <t xml:space="preserve">hexbin</t>
   </si>
   <si>
@@ -2010,6 +2155,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/GuangchuangYu/hexSticker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4.4</t>
   </si>
   <si>
     <t xml:space="preserve">highcharter</t>
@@ -2132,6 +2280,9 @@
     <t xml:space="preserve">2018-04-27</t>
   </si>
   <si>
+    <t xml:space="preserve">Help / Models</t>
+  </si>
+  <si>
     <t xml:space="preserve">infer</t>
   </si>
   <si>
@@ -2165,6 +2316,9 @@
     <t xml:space="preserve">https://github.com/sfirke/janitor</t>
   </si>
   <si>
+    <t xml:space="preserve">Tools / EDA</t>
+  </si>
+  <si>
     <t xml:space="preserve">knitr</t>
   </si>
   <si>
@@ -2179,6 +2333,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report</t>
   </si>
   <si>
     <t xml:space="preserve">komaletter</t>
@@ -2259,7 +2416,7 @@
     <t xml:space="preserve">http://rstudio.github.io/leaflet/</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0.0</t>
+    <t xml:space="preserve">2.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">leaflet.minicharts</t>
@@ -2273,9 +2430,6 @@
     variables on a single map.</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">leaps</t>
   </si>
   <si>
@@ -2316,10 +2470,13 @@
     <t xml:space="preserve">Each function accomplishes the work of several or more standard R functions. For example, two function calls, Read() and CountAll(), read the data and generate summary statistics for all variables in the data frame, plus histograms and bar charts as appropriate.  Other functions provide for descriptive statistics, a comprehensive regression analysis, analysis of variance and t-test, plotting including the introduced here Violin/Box/Scatter plot for a numerical variable, bar chart, histogram, box plot, density curves, calibrated power curve, reading multiple data formats with the same function call, variable labels, color themes, Trellis graphics and a built-in help system. A confirmatory factor analysis of multiple indicator measurement models is available, as are pedagogical routines for data simulation such as for the Central Limit Theorem. Compatible with 'RStudio' and 'knitr' including generation of R markdown instructions for interpretative output. </t>
   </si>
   <si>
-    <t xml:space="preserve">3.7.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-25</t>
+    <t xml:space="preserve">3.7.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming / Stats / Tools</t>
   </si>
   <si>
     <t xml:space="preserve">liftr</t>
@@ -2335,6 +2492,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker / Report</t>
   </si>
   <si>
     <t xml:space="preserve">likert</t>
@@ -2411,6 +2571,9 @@
     <t xml:space="preserve">2017-07-19</t>
   </si>
   <si>
+    <t xml:space="preserve">Models / Stats</t>
+  </si>
+  <si>
     <t xml:space="preserve">live</t>
   </si>
   <si>
@@ -2429,7 +2592,7 @@
     <t xml:space="preserve">https://github.com/MI2DataLab/live</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.4</t>
+    <t xml:space="preserve">1.5.7</t>
   </si>
   <si>
     <t xml:space="preserve">logging</t>
@@ -2446,6 +2609,9 @@
   </si>
   <si>
     <t xml:space="preserve">2013-04-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log</t>
   </si>
   <si>
     <t xml:space="preserve">magick</t>
@@ -2471,6 +2637,9 @@
     <t xml:space="preserve">1.9</t>
   </si>
   <si>
+    <t xml:space="preserve">Images</t>
+  </si>
+  <si>
     <t xml:space="preserve">manipulate</t>
   </si>
   <si>
@@ -2496,6 +2665,9 @@
   <si>
     <t xml:space="preserve">Supplement to maps package, providing the larger and/or
 	higher-resolution databases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.0</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-29</t>
@@ -2727,6 +2899,9 @@
     <t xml:space="preserve">https://github.com/njtierney/naniar</t>
   </si>
   <si>
+    <t xml:space="preserve">0.3.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">naturalsort</t>
   </si>
   <si>
@@ -2797,6 +2972,9 @@
     <t xml:space="preserve">2011-01-23</t>
   </si>
   <si>
+    <t xml:space="preserve">Outliers</t>
+  </si>
+  <si>
     <t xml:space="preserve">OutliersO3</t>
   </si>
   <si>
@@ -2804,9 +2982,6 @@
   </si>
   <si>
     <t xml:space="preserve">Potential outliers are identified for all combinations of a dataset's variables. The available methods are HDoutliers() from the package 'HDoutliers', FastPCS() from the package 'FastPCS', mvBACON() from 'robustX', adjOutlyingness() from 'robustbase', DectectDeviatingCells() from 'cellWise', covMcd() from 'robustbase'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5.4</t>
   </si>
   <si>
     <t xml:space="preserve">2018-02-08</t>
@@ -2865,7 +3040,13 @@
     <t xml:space="preserve">2017-02-14</t>
   </si>
   <si>
+    <t xml:space="preserve">Files</t>
+  </si>
+  <si>
     <t xml:space="preserve">pcaMethods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stats / Factorial Analysis</t>
   </si>
   <si>
     <t xml:space="preserve">pkgdown</t>
@@ -2880,6 +3061,12 @@
   </si>
   <si>
     <t xml:space="preserve">http://pkgdown.r-lib.org, https://github.com/r-lib/pkgdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation</t>
   </si>
   <si>
     <t xml:space="preserve">PMCMRplus</t>
@@ -2921,7 +3108,7 @@
              are provided.</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-04-26</t>
+    <t xml:space="preserve">2018-09-16</t>
   </si>
   <si>
     <t xml:space="preserve">pipefittr</t>
@@ -2970,6 +3157,9 @@
     <t xml:space="preserve">https://github.com/derekyves/placement</t>
   </si>
   <si>
+    <t xml:space="preserve">Maps / Cloud</t>
+  </si>
+  <si>
     <t xml:space="preserve">plotKML</t>
   </si>
   <si>
@@ -2987,6 +3177,9 @@
   </si>
   <si>
     <t xml:space="preserve">2017-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maps / Plots</t>
   </si>
   <si>
     <t xml:space="preserve">plotly</t>
@@ -3032,6 +3225,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Databases</t>
   </si>
   <si>
     <t xml:space="preserve">postGIStools</t>
@@ -3067,6 +3263,9 @@
   </si>
   <si>
     <t xml:space="preserve">2017-05-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tables / Reports</t>
   </si>
   <si>
     <t xml:space="preserve">processx</t>
@@ -3090,6 +3289,9 @@
     <t xml:space="preserve">3.1.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Tools / System</t>
+  </si>
+  <si>
     <t xml:space="preserve">profvis</t>
   </si>
   <si>
@@ -3162,6 +3364,9 @@
     <t xml:space="preserve">2017-04-09</t>
   </si>
   <si>
+    <t xml:space="preserve">Tools / Regex</t>
+  </si>
+  <si>
     <t xml:space="preserve">quantmod</t>
   </si>
   <si>
@@ -3266,6 +3471,9 @@
     <t xml:space="preserve">2017-11-12</t>
   </si>
   <si>
+    <t xml:space="preserve">Geo</t>
+  </si>
+  <si>
     <t xml:space="preserve">rasterVis</t>
   </si>
   <si>
@@ -3278,10 +3486,7 @@
     <t xml:space="preserve">http://oscarperpinan.github.io/rastervis</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-05</t>
+    <t xml:space="preserve">0.45</t>
   </si>
   <si>
     <t xml:space="preserve">reprex</t>
@@ -3323,13 +3528,16 @@
     <t xml:space="preserve">Bindings for the 'Geospatial' Data Abstraction Library</t>
   </si>
   <si>
-    <t xml:space="preserve">Provides bindings to the 'Geospatial' Data Abstraction Library ('GDAL') (&gt;= 1.6.3) and access to projection/transformation operations from the 'PROJ.4' library. The 'GDAL' and 'PROJ.4' libraries are external to the package, and, when installing the package from source, must be correctly installed first. Both 'GDAL' raster and 'OGR' vector map data can be imported into R, and 'GDAL' raster data and 'OGR' vector data exported. Use is made of classes defined in the 'sp' package. Windows and Mac Intel OS X binaries (including 'GDAL', 'PROJ.4' and 'Expat') are provided on 'CRAN'. </t>
+    <t xml:space="preserve">Provides bindings to the 'Geospatial' Data Abstraction Library ('GDAL') (&gt;= 1.11.4) and access to projection/transformation operations from the 'PROJ.4' library. The 'GDAL' and 'PROJ.4' libraries are external to the package, and, when installing the package from source, must be correctly installed first. Both 'GDAL' raster and 'OGR' vector map data can be imported into R, and 'GDAL' raster data and 'OGR' vector data exported. Use is made of classes defined in the 'sp' package. Windows and Mac Intel OS X binaries (including 'GDAL', 'PROJ.4' and 'Expat') are provided on 'CRAN'. </t>
   </si>
   <si>
     <t xml:space="preserve">http://www.gdal.org, https://r-forge.r-project.org/projects/rgdal/</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2-20</t>
+    <t xml:space="preserve">1.3-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-05</t>
   </si>
   <si>
     <t xml:space="preserve">rgeos</t>
@@ -3345,10 +3553,10 @@
 http://trac.osgeo.org/geos/</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-30</t>
+    <t xml:space="preserve">0.3-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-02</t>
   </si>
   <si>
     <t xml:space="preserve">rgl</t>
@@ -3382,7 +3590,13 @@
         plots within R. This requires proper coordinate scaling.</t>
   </si>
   <si>
-    <t xml:space="preserve">2016-09-06</t>
+    <t xml:space="preserve">http://rgooglemaps.r-forge.r-project.org/QuickTutorial.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-01</t>
   </si>
   <si>
     <t xml:space="preserve">rio</t>
@@ -3407,6 +3621,9 @@
     <t xml:space="preserve">0.5.10</t>
   </si>
   <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
     <t xml:space="preserve">riverplot</t>
   </si>
   <si>
@@ -3448,7 +3665,11 @@
     <t xml:space="preserve">Convert R Markdown documents into a variety of formats.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://rmarkdown.rstudio.com, https://github.com/rstudio/rmarkdown</t>
+    <t xml:space="preserve">https://rmarkdown.rstudio.com,
+https://github.com/rstudio/rmarkdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10</t>
   </si>
   <si>
     <t xml:space="preserve">rms</t>
@@ -3568,9 +3789,6 @@
     <t xml:space="preserve">http://www.rtexttools.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">2014-01-18</t>
   </si>
   <si>
@@ -3607,22 +3825,22 @@
     <t xml:space="preserve">https://CRAN.R-project.org/package=rtweet</t>
   </si>
   <si>
+    <t xml:space="preserve">0.6.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">rvg</t>
   </si>
   <si>
     <t xml:space="preserve">R Graphics Devices for Vector Graphics Output</t>
   </si>
   <si>
-    <t xml:space="preserve">Vector Graphics devices for 'SVG', 'DrawingML' for Microsoft Word, 
+    <t xml:space="preserve">Vector Graphics devices for 'SVG', 'DrawingML' for Microsoft 
   PowerPoint and Excel. Functions extending package 'officer' are provided to 
   embed 'DrawingML' graphics into 'Microsoft PowerPoint' presentations and 
   'Microsoft Excel' workbooks.</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/davidgohel/rvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1.8</t>
   </si>
   <si>
     <t xml:space="preserve">rworldmap</t>
@@ -3743,7 +3961,7 @@
     <t xml:space="preserve">http://shiny.rstudio.com</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.0</t>
+    <t xml:space="preserve">UI</t>
   </si>
   <si>
     <t xml:space="preserve">shinyalert</t>
@@ -3779,6 +3997,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-25</t>
   </si>
   <si>
     <t xml:space="preserve">Simpsons</t>
@@ -3855,7 +4076,7 @@
     <t xml:space="preserve">https://github.com/ropenscilabs/skimr</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0.2</t>
+    <t xml:space="preserve">1.0.3</t>
   </si>
   <si>
     <t xml:space="preserve">smpic</t>
@@ -3918,7 +4139,7 @@
     <t xml:space="preserve">https://github.com/edzer/sp/ https://edzer.github.io/sp/</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2-7</t>
+    <t xml:space="preserve">1.3-1</t>
   </si>
   <si>
     <t xml:space="preserve">spanish</t>
@@ -3973,13 +4194,27 @@
 	Exploratory methods include quadrat counts, K-functions and their simulation envelopes, nearest neighbour distance and empty space statistics, Fry plots, pair correlation function, kernel smoothed intensity, relative risk estimation with cross-validated bandwidth selection, mark correlation functions, segregation indices, mark dependence diagnostics, and kernel estimates of covariate effects. Formal hypothesis tests of random pattern (chi-squared, Kolmogorov-Smirnov, Monte Carlo, Diggle-Cressie-Loosmore-Ford, Dao-Genton, two-stage Monte Carlo) and tests for covariate effects (Cox-Berman-Waller-Lawson, Kolmogorov-Smirnov, ANOVA) are also supported.
 	Parametric models can be fitted to point pattern data using the functions ppm(), kppm(), slrm(), dppm() similar to glm(). Types of models include Poisson, Gibbs and Cox point processes, Neyman-Scott cluster processes, and determinantal point processes. Models may involve dependence on covariates, inter-point interaction, cluster formation and dependence on marks. Models are fitted by maximum likelihood, logistic regression, minimum contrast, and composite likelihood methods. 
 	A model can be fitted to a list of point patterns (replicated point pattern data) using the function mppm(). The model can include random effects and fixed effects depending on the experimental design, in addition to all the features listed above.
-	Fitted point process models can be simulated, automatically. Formal hypothesis tests of a fitted model are supported (likelihood ratio test, analysis of deviance, Monte Carlo tests) along with basic tools for model selection (stepwise(), AIC()). Tools for validating the fitted model include simulation envelopes, residuals, residual plots and Q-Q plots, leverage and influence diagnostics, partial residuals, and added variable plots.</t>
+	Fitted point process models can be simulated, automatically. Formal hypothesis tests of a fitted model are supported (likelihood ratio test, analysis of deviance, Monte Carlo tests) along with basic tools for model selection (stepwise(), AIC()) and variable selection (sdr). Tools for validating the fitted model include simulation envelopes, residuals, residual plots and Q-Q plots, leverage and influence diagnostics, partial residuals, and added variable plots.</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.spatstat.org</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55-1</t>
+    <t xml:space="preserve">1.56-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secure Shell (SSH) Client for R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect to a remote server over SSH to transfer files via SCP, 
+    setup a secure tunnel, or run a command or script on the host while 
+    streaming stdout and stderr directly to the client.</t>
   </si>
   <si>
     <t xml:space="preserve">staplr</t>
@@ -4077,7 +4312,7 @@
     temporal data.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://pkg.earo.me/sugrrants</t>
+    <t xml:space="preserve">https://pkg.earo.me/sugrrants</t>
   </si>
   <si>
     <t xml:space="preserve">summarytools</t>
@@ -4097,7 +4332,7 @@
     <t xml:space="preserve">https://github.com/dcomtois/summarytools</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8.3</t>
+    <t xml:space="preserve">0.8.5</t>
   </si>
   <si>
     <t xml:space="preserve">swatches</t>
@@ -4195,10 +4430,10 @@
     <t xml:space="preserve">https://github.com/mtennekes/tabplot</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017-01-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plots / Big Data</t>
   </si>
   <si>
     <t xml:space="preserve">tadaatoolbox</t>
@@ -4248,20 +4483,16 @@
     <t xml:space="preserve">Text Cleaning Tools</t>
   </si>
   <si>
-    <t xml:space="preserve">Tools to clean and process text.  Tools are geared at checking for
-         substrings that are not optimal for analysis and replacing or removing
-         them (normalizing) with more analysis friendly substrings (see Sproat,
-         Black, Chen, Kumar, Ostendorf, &amp; Richards (2001)
-         &lt;doi:10.1006/csla.2001.0169&gt;) or extracting them into new variables.
-         For example, emoticons are often used in text but not always easily
-         handled by analysis algorithms.  The 'replace_emoticon()' function
-         replaces emoticons with word equivalents.</t>
+    <t xml:space="preserve">Tools to clean and process text.  Tools are geared at checking for substrings that
+          are not optimal for analysis and replacing or removing them (normalizing) with more
+          analysis friendly substrings (see Sproat, Black, Chen, Kumar, Ostendorf, &amp; Richards
+          (2001) &lt;doi:10.1006/csla.2001.0169&gt;) or extracting them into new variables. For
+          example, emoticons are often used in text but not always easily handled by analysis
+          algorithms.  The replace_emoticon() function replaces emoticons with word
+          equivalents.</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/trinker/textclean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7.3</t>
   </si>
   <si>
     <t xml:space="preserve">textfeatures</t>
@@ -4287,7 +4518,13 @@
     <t xml:space="preserve">Some tools for cleaning up messy 'Excel' files to be suitable for R. People who have been working with 'Excel' for years built more or less complicated sheets with names, characters, formats that are not homogeneous. To be able to use them in R nowadays, we built a set of functions that will avoid the majority of importation problems and keep all the data at best.</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11</t>
+    <t xml:space="preserve">0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDA / Imputation</t>
   </si>
   <si>
     <t xml:space="preserve">threejs</t>
@@ -4301,9 +4538,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://bwlewis.github.io/rthreejs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3.1</t>
   </si>
   <si>
     <t xml:space="preserve">2017-08-11</t>
@@ -4403,6 +4637,9 @@
     <t xml:space="preserve">https://github.com/business-science/timetk</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-05-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">tmap</t>
   </si>
   <si>
@@ -4434,6 +4671,9 @@
   </si>
   <si>
     <t xml:space="preserve">tmuxr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System</t>
   </si>
   <si>
     <t xml:space="preserve">topicmodels</t>
@@ -4464,6 +4704,9 @@
   <si>
     <t xml:space="preserve">https://petolau.github.io/package/,
 https://github.com/PetoLau/TSrepr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-31</t>
   </si>
   <si>
     <t xml:space="preserve">TSstudio</t>
@@ -4511,6 +4754,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programing</t>
   </si>
   <si>
     <t xml:space="preserve">VIM</t>
@@ -4588,7 +4834,10 @@
     <t xml:space="preserve">http://datastorm-open.github.io/visNetwork/</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-01-09</t>
+    <t xml:space="preserve">2.0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-13</t>
   </si>
   <si>
     <t xml:space="preserve">waterfalls</t>
@@ -4633,6 +4882,25 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/jdblischak/workflowr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WVPlots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Plots for Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select data analysis plots, under a standardized calling interface implemented on top of 'ggplot2' and 'plotly'.  
+   Plots of interest include: 'ROC', gain curve, scatter plot with marginal distributions, 
+   conditioned scatter plot with marginal densities,
+   box and stem with matching theoretical distribution, and density with matching theoretical distribution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/WinVector/WVPlots,
+https://winvector.github.io/WVPlots/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-24He</t>
   </si>
   <si>
     <t xml:space="preserve">xgboost</t>
@@ -4655,10 +4923,23 @@
     <t xml:space="preserve">https://github.com/dmlc/xgboost</t>
   </si>
   <si>
-    <t xml:space="preserve">0.71.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-11</t>
+    <t xml:space="preserve">0.71.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X Ray Vision on your Datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools to analyze datasets previous to any statistical modeling.
+    Has various functions designed to find inconsistencies and understanding the distribution of the data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sicarul/xray/</t>
   </si>
   <si>
     <t xml:space="preserve">yardstick</t>
@@ -4700,6 +4981,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://github.com/cardiomoon/ztable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1.8</t>
   </si>
 </sst>
 </file>
@@ -5050,4890 +5334,5765 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6"/>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F7"/>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F8"/>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F9"/>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F10"/>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F11"/>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F12"/>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F15"/>
+      <c r="G15" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F17"/>
+      <c r="G17" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F18"/>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>116</v>
+      </c>
+      <c r="G19" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F20"/>
+      <c r="G20" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21" t="s">
         <v>110</v>
       </c>
-      <c r="F21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F22"/>
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F23"/>
+      <c r="G23" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F24"/>
+      <c r="G24" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>149</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="F26"/>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="F27"/>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>164</v>
+      </c>
+      <c r="G28" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F29"/>
+      <c r="G29" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="F30"/>
+      <c r="G30" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="F31"/>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="F32"/>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F33"/>
+      <c r="G33" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="E34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F34" t="s">
-        <v>172</v>
+        <v>67</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35"/>
+        <v>196</v>
+      </c>
+      <c r="D35" t="s">
+        <v>197</v>
+      </c>
       <c r="E35" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="F35" t="s">
-        <v>177</v>
+        <v>199</v>
+      </c>
+      <c r="G35" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
-      </c>
-      <c r="D36" t="s">
-        <v>181</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D36"/>
       <c r="E36" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="F36" t="s">
-        <v>183</v>
+        <v>204</v>
+      </c>
+      <c r="G36" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D37" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="E37" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>210</v>
+      </c>
+      <c r="G37" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="E38" t="s">
-        <v>194</v>
-      </c>
-      <c r="F38"/>
+        <v>215</v>
+      </c>
+      <c r="F38" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B39" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="D39" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="E39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" t="s">
-        <v>200</v>
+        <v>221</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40"/>
+        <v>226</v>
+      </c>
+      <c r="F40" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="B41" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="F41"/>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="B42" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="E42" t="s">
-        <v>214</v>
-      </c>
-      <c r="F42" t="s">
-        <v>215</v>
+        <v>236</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="C43" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43"/>
+        <v>239</v>
+      </c>
+      <c r="D43" t="s">
+        <v>240</v>
+      </c>
       <c r="E43" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="F43" t="s">
-        <v>220</v>
+        <v>242</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D44" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="E44" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="F44"/>
+      <c r="G44" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="B45" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="C45" t="s">
-        <v>228</v>
-      </c>
-      <c r="D45"/>
+        <v>250</v>
+      </c>
+      <c r="D45" t="s">
+        <v>251</v>
+      </c>
       <c r="E45" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="F45"/>
+      <c r="G45" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C46" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" t="s">
-        <v>233</v>
+        <v>257</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="B47" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="C47" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="F47" t="s">
-        <v>238</v>
+        <v>261</v>
+      </c>
+      <c r="G47" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="C48" t="s">
-        <v>241</v>
-      </c>
-      <c r="D48" t="s">
-        <v>242</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="D48"/>
       <c r="E48" t="s">
-        <v>243</v>
-      </c>
-      <c r="F48"/>
+        <v>265</v>
+      </c>
+      <c r="F48" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="C49" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="D49" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="F49"/>
+      <c r="G49" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="C50" t="s">
-        <v>250</v>
-      </c>
-      <c r="D50"/>
+        <v>275</v>
+      </c>
+      <c r="D50" t="s">
+        <v>276</v>
+      </c>
       <c r="E50" t="s">
-        <v>251</v>
-      </c>
-      <c r="F50" t="s">
-        <v>252</v>
+        <v>49</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="B51" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="C51" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>256</v>
-      </c>
-      <c r="F51"/>
+        <v>280</v>
+      </c>
+      <c r="F51" t="s">
+        <v>281</v>
+      </c>
+      <c r="G51" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="B52" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="C52" t="s">
-        <v>259</v>
-      </c>
-      <c r="D52" t="s">
-        <v>260</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="D52"/>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="F52"/>
+      <c r="G52" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B53" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="C53" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="D53" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="E53" t="s">
-        <v>265</v>
-      </c>
-      <c r="F53" t="s">
-        <v>215</v>
+        <v>67</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="B54" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="C54" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="D54" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="E54" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="F54" t="s">
-        <v>271</v>
+        <v>295</v>
+      </c>
+      <c r="G54" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="B55" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C55" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="D55" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="E55" t="s">
-        <v>276</v>
-      </c>
-      <c r="F55"/>
+        <v>300</v>
+      </c>
+      <c r="F55" t="s">
+        <v>301</v>
+      </c>
+      <c r="G55" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="C56" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="D56" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="E56" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="F56"/>
+      <c r="G56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B57" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C57" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D57" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="E57" t="s">
-        <v>286</v>
-      </c>
-      <c r="F57" t="s">
-        <v>287</v>
+        <v>312</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="B58" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="C58" t="s">
-        <v>290</v>
-      </c>
-      <c r="D58"/>
+        <v>315</v>
+      </c>
+      <c r="D58" t="s">
+        <v>316</v>
+      </c>
       <c r="E58" t="s">
-        <v>188</v>
-      </c>
-      <c r="F58"/>
+        <v>317</v>
+      </c>
+      <c r="F58" t="s">
+        <v>318</v>
+      </c>
+      <c r="G58" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="B59" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="C59" t="s">
-        <v>293</v>
-      </c>
-      <c r="D59" t="s">
-        <v>294</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D59"/>
       <c r="E59" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="F59"/>
+      <c r="G59" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="B60" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="C60" t="s">
-        <v>298</v>
-      </c>
-      <c r="D60"/>
+        <v>325</v>
+      </c>
+      <c r="D60" t="s">
+        <v>326</v>
+      </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>327</v>
       </c>
       <c r="F60"/>
+      <c r="G60" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="B61" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="C61" t="s">
-        <v>301</v>
-      </c>
-      <c r="D61" t="s">
-        <v>302</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="D61"/>
       <c r="E61" t="s">
-        <v>303</v>
+        <v>55</v>
       </c>
       <c r="F61"/>
+      <c r="G61" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="C62" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="D62" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="E62" t="s">
-        <v>308</v>
-      </c>
-      <c r="F62" t="s">
-        <v>309</v>
+        <v>336</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="B63" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="C63" t="s">
-        <v>312</v>
-      </c>
-      <c r="D63"/>
+        <v>340</v>
+      </c>
+      <c r="D63" t="s">
+        <v>341</v>
+      </c>
       <c r="E63" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="F63" t="s">
-        <v>314</v>
+        <v>343</v>
+      </c>
+      <c r="G63" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="B64" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="C64" t="s">
-        <v>317</v>
-      </c>
-      <c r="D64" t="s">
-        <v>318</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="D64"/>
       <c r="E64" t="s">
-        <v>319</v>
-      </c>
-      <c r="F64"/>
+        <v>348</v>
+      </c>
+      <c r="F64" t="s">
+        <v>349</v>
+      </c>
+      <c r="G64" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="B65" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="C65" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="D65" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="E65" t="s">
-        <v>324</v>
-      </c>
-      <c r="F65" t="s">
-        <v>325</v>
+        <v>354</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="B66" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="C66" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="D66" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="E66" t="s">
-        <v>330</v>
-      </c>
-      <c r="F66"/>
+        <v>360</v>
+      </c>
+      <c r="F66" t="s">
+        <v>361</v>
+      </c>
+      <c r="G66" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="B67" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="C67" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="D67" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="E67" t="s">
-        <v>335</v>
-      </c>
-      <c r="F67" t="s">
-        <v>336</v>
+        <v>367</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="B68" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="C68" t="s">
-        <v>339</v>
-      </c>
-      <c r="D68"/>
+        <v>370</v>
+      </c>
+      <c r="D68" t="s">
+        <v>371</v>
+      </c>
       <c r="E68" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="F68" t="s">
-        <v>341</v>
+        <v>373</v>
+      </c>
+      <c r="G68" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="B69" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="C69" t="s">
-        <v>344</v>
-      </c>
-      <c r="D69" t="s">
-        <v>345</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="D69"/>
       <c r="E69" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="F69" t="s">
-        <v>347</v>
+        <v>379</v>
+      </c>
+      <c r="G69" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="B70" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="C70" t="s">
-        <v>350</v>
-      </c>
-      <c r="D70"/>
+        <v>383</v>
+      </c>
+      <c r="D70" t="s">
+        <v>384</v>
+      </c>
       <c r="E70" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="F70" t="s">
-        <v>352</v>
+        <v>386</v>
+      </c>
+      <c r="G70" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="B71" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="C71" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
-        <v>270</v>
-      </c>
-      <c r="F71"/>
+        <v>390</v>
+      </c>
+      <c r="F71" t="s">
+        <v>391</v>
+      </c>
+      <c r="G71" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="B72" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="C72" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="D72"/>
       <c r="E72" t="s">
-        <v>359</v>
-      </c>
-      <c r="F72" t="s">
-        <v>360</v>
+        <v>395</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="B73" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="C73" t="s">
-        <v>363</v>
-      </c>
-      <c r="D73" t="s">
-        <v>364</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="D73"/>
       <c r="E73" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="F73" t="s">
-        <v>366</v>
+        <v>400</v>
+      </c>
+      <c r="G73" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="B74" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="C74" t="s">
-        <v>369</v>
-      </c>
-      <c r="D74"/>
+        <v>403</v>
+      </c>
+      <c r="D74" t="s">
+        <v>404</v>
+      </c>
       <c r="E74" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="F74" t="s">
-        <v>371</v>
+        <v>406</v>
+      </c>
+      <c r="G74" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="B75" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="C75" t="s">
-        <v>374</v>
-      </c>
-      <c r="D75" t="s">
-        <v>375</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="D75"/>
       <c r="E75" t="s">
-        <v>376</v>
-      </c>
-      <c r="F75"/>
+        <v>410</v>
+      </c>
+      <c r="F75" t="s">
+        <v>411</v>
+      </c>
+      <c r="G75" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="B76" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="C76" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="D76" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="E76" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="F76"/>
+      <c r="G76" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="B77" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="C77" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="D77" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="E77" t="s">
-        <v>209</v>
-      </c>
-      <c r="F77" t="s">
-        <v>386</v>
+        <v>322</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="B78" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="C78" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="D78" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="F78" t="s">
-        <v>391</v>
+        <v>425</v>
+      </c>
+      <c r="G78" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="B79" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="C79" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="D79" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>189</v>
+        <v>430</v>
+      </c>
+      <c r="G79" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="B80" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="C80" t="s">
-        <v>398</v>
-      </c>
-      <c r="D80"/>
+        <v>433</v>
+      </c>
+      <c r="D80" t="s">
+        <v>434</v>
+      </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="F80" t="s">
-        <v>399</v>
+        <v>216</v>
+      </c>
+      <c r="G80" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="B81" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="C81" t="s">
-        <v>402</v>
-      </c>
-      <c r="D81" t="s">
-        <v>403</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D81"/>
       <c r="E81" t="s">
-        <v>404</v>
+        <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>405</v>
+        <v>438</v>
+      </c>
+      <c r="G81" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="B82" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="C82" t="s">
-        <v>408</v>
-      </c>
-      <c r="D82"/>
+        <v>441</v>
+      </c>
+      <c r="D82" t="s">
+        <v>442</v>
+      </c>
       <c r="E82" t="s">
-        <v>295</v>
-      </c>
-      <c r="F82"/>
+        <v>443</v>
+      </c>
+      <c r="F82" t="s">
+        <v>444</v>
+      </c>
+      <c r="G82" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="B83" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="C83" t="s">
-        <v>411</v>
-      </c>
-      <c r="D83" t="s">
-        <v>412</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D83"/>
       <c r="E83" t="s">
-        <v>413</v>
+        <v>327</v>
       </c>
       <c r="F83"/>
+      <c r="G83" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="B84" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="C84" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="D84" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="E84" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="F84"/>
+      <c r="G84" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="B85" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="C85" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="D85" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="E85" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="F85"/>
+      <c r="G85" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="B86" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="C86" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="D86" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="E86" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="F86"/>
+      <c r="G86" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="B87" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="C87" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="D87" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="E87" t="s">
-        <v>58</v>
+        <v>467</v>
       </c>
       <c r="F87"/>
+      <c r="G87" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="B88" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="C88" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="D88" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="E88" t="s">
-        <v>413</v>
-      </c>
-      <c r="F88" t="s">
-        <v>437</v>
+        <v>67</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="B89" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="C89" t="s">
-        <v>440</v>
-      </c>
-      <c r="D89"/>
+        <v>474</v>
+      </c>
+      <c r="D89" t="s">
+        <v>475</v>
+      </c>
       <c r="E89" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="F89" t="s">
-        <v>441</v>
+        <v>476</v>
+      </c>
+      <c r="G89" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="B90" t="s">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="C90" t="s">
-        <v>444</v>
-      </c>
-      <c r="D90" t="s">
-        <v>445</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="D90"/>
       <c r="E90" t="s">
-        <v>446</v>
-      </c>
-      <c r="F90"/>
+        <v>132</v>
+      </c>
+      <c r="F90" t="s">
+        <v>480</v>
+      </c>
+      <c r="G90" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="B91" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="C91" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="D91" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="E91" t="s">
-        <v>265</v>
+        <v>485</v>
       </c>
       <c r="F91"/>
+      <c r="G91" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="B92" t="s">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="C92" t="s">
-        <v>453</v>
+        <v>488</v>
       </c>
       <c r="D92" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="E92" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="F92"/>
+      <c r="G92" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="B93" t="s">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="C93" t="s">
-        <v>458</v>
-      </c>
-      <c r="D93"/>
+        <v>493</v>
+      </c>
+      <c r="D93" t="s">
+        <v>494</v>
+      </c>
       <c r="E93" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="F93"/>
+      <c r="G93" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="B94" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="C94" t="s">
-        <v>462</v>
-      </c>
-      <c r="D94" t="s">
-        <v>463</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="D94"/>
       <c r="E94" t="s">
-        <v>381</v>
-      </c>
-      <c r="F94" t="s">
-        <v>464</v>
+        <v>499</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="B95" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="C95" t="s">
-        <v>467</v>
-      </c>
-      <c r="D95"/>
+        <v>502</v>
+      </c>
+      <c r="D95" t="s">
+        <v>503</v>
+      </c>
       <c r="E95" t="s">
-        <v>237</v>
-      </c>
-      <c r="F95"/>
+        <v>322</v>
+      </c>
+      <c r="F95" t="s">
+        <v>504</v>
+      </c>
+      <c r="G95" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="B96" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="C96" t="s">
-        <v>470</v>
-      </c>
-      <c r="D96" t="s">
-        <v>471</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="D96"/>
       <c r="E96" t="s">
-        <v>472</v>
+        <v>265</v>
       </c>
       <c r="F96"/>
+      <c r="G96" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="B97" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="C97" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="D97" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="E97" t="s">
-        <v>477</v>
-      </c>
-      <c r="F97" t="s">
-        <v>478</v>
+        <v>247</v>
+      </c>
+      <c r="F97"/>
+      <c r="G97" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="B98" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="C98" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="D98" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="E98" t="s">
-        <v>68</v>
-      </c>
-      <c r="F98"/>
+        <v>516</v>
+      </c>
+      <c r="F98" t="s">
+        <v>517</v>
+      </c>
+      <c r="G98" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="B99" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="C99" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="D99" t="s">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="E99" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="F99"/>
+      <c r="G99" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="B100" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="C100" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="D100" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="E100" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="F100"/>
+      <c r="G100" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="B101" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="C101" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="D101" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="E101" t="s">
-        <v>497</v>
-      </c>
-      <c r="F101" t="s">
-        <v>498</v>
+        <v>457</v>
+      </c>
+      <c r="F101"/>
+      <c r="G101" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="B102" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="C102" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c r="D102" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="E102" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="F102" t="s">
-        <v>504</v>
+        <v>538</v>
+      </c>
+      <c r="G102" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="B103" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="C103" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="D103" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
-      </c>
-      <c r="F103"/>
+        <v>543</v>
+      </c>
+      <c r="F103" t="s">
+        <v>544</v>
+      </c>
+      <c r="G103" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="B104" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="C104" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="D104" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="E104" t="s">
-        <v>513</v>
-      </c>
-      <c r="F104" t="s">
-        <v>514</v>
+        <v>215</v>
+      </c>
+      <c r="F104"/>
+      <c r="G104" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="B105" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="C105" t="s">
-        <v>517</v>
-      </c>
-      <c r="D105"/>
+        <v>552</v>
+      </c>
+      <c r="D105" t="s">
+        <v>553</v>
+      </c>
       <c r="E105" t="s">
-        <v>518</v>
-      </c>
-      <c r="F105"/>
+        <v>554</v>
+      </c>
+      <c r="F105" t="s">
+        <v>555</v>
+      </c>
+      <c r="G105" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>519</v>
+        <v>556</v>
       </c>
       <c r="B106" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="C106" t="s">
-        <v>521</v>
+        <v>558</v>
       </c>
       <c r="D106"/>
       <c r="E106" t="s">
-        <v>188</v>
+        <v>559</v>
       </c>
       <c r="F106"/>
+      <c r="G106" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
       <c r="B107" t="s">
-        <v>523</v>
+        <v>561</v>
       </c>
       <c r="C107" t="s">
-        <v>524</v>
-      </c>
-      <c r="D107" t="s">
-        <v>525</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="D107"/>
       <c r="E107" t="s">
-        <v>526</v>
-      </c>
-      <c r="F107" t="s">
-        <v>527</v>
+        <v>215</v>
+      </c>
+      <c r="F107"/>
+      <c r="G107" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B108" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C108" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="D108" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="E108" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="F108" t="s">
-        <v>533</v>
+        <v>568</v>
+      </c>
+      <c r="G108" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
       <c r="B109" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
       <c r="C109" t="s">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="D109" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="E109" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="F109" t="s">
-        <v>539</v>
+        <v>575</v>
+      </c>
+      <c r="G109" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="B110" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="C110" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="D110" t="s">
-        <v>543</v>
+        <v>580</v>
       </c>
       <c r="E110" t="s">
-        <v>544</v>
-      </c>
-      <c r="F110"/>
+        <v>581</v>
+      </c>
+      <c r="F110" t="s">
+        <v>582</v>
+      </c>
+      <c r="G110" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="B111" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="C111" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="D111" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c r="E111" t="s">
-        <v>492</v>
+        <v>588</v>
       </c>
       <c r="F111"/>
+      <c r="G111" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="B112" t="s">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="C112" t="s">
-        <v>551</v>
+        <v>591</v>
       </c>
       <c r="D112" t="s">
-        <v>552</v>
+        <v>592</v>
       </c>
       <c r="E112" t="s">
-        <v>265</v>
-      </c>
-      <c r="F112" t="s">
-        <v>553</v>
+        <v>593</v>
+      </c>
+      <c r="F112"/>
+      <c r="G112" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>554</v>
+        <v>594</v>
       </c>
       <c r="B113" t="s">
-        <v>555</v>
+        <v>595</v>
       </c>
       <c r="C113" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="D113" t="s">
-        <v>557</v>
+        <v>597</v>
       </c>
       <c r="E113" t="s">
-        <v>558</v>
+        <v>490</v>
       </c>
       <c r="F113" t="s">
-        <v>559</v>
+        <v>598</v>
+      </c>
+      <c r="G113" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>560</v>
+        <v>599</v>
       </c>
       <c r="B114" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="C114" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="D114" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="E114" t="s">
-        <v>265</v>
+        <v>603</v>
       </c>
       <c r="F114" t="s">
-        <v>564</v>
+        <v>604</v>
+      </c>
+      <c r="G114" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="B115" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="C115" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="D115" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="E115" t="s">
-        <v>569</v>
-      </c>
-      <c r="F115"/>
+        <v>490</v>
+      </c>
+      <c r="F115" t="s">
+        <v>609</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="B116" t="s">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="C116" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
       <c r="D116" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="E116" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="F116"/>
+      <c r="G116" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="B117" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="C117" t="s">
-        <v>577</v>
+        <v>617</v>
       </c>
       <c r="D117" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
       <c r="E117" t="s">
-        <v>459</v>
-      </c>
-      <c r="F117" t="s">
-        <v>579</v>
+        <v>619</v>
+      </c>
+      <c r="F117"/>
+      <c r="G117" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="B118" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="C118" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="D118" t="s">
-        <v>583</v>
+        <v>623</v>
       </c>
       <c r="E118" t="s">
-        <v>188</v>
-      </c>
-      <c r="F118"/>
+        <v>294</v>
+      </c>
+      <c r="F118" t="s">
+        <v>624</v>
+      </c>
+      <c r="G118" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>584</v>
+        <v>626</v>
       </c>
       <c r="B119" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="C119" t="s">
-        <v>586</v>
+        <v>628</v>
       </c>
       <c r="D119" t="s">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="E119" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="F119"/>
+      <c r="G119" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="B120" t="s">
-        <v>589</v>
+        <v>631</v>
       </c>
       <c r="C120" t="s">
-        <v>590</v>
+        <v>632</v>
       </c>
       <c r="D120" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
       <c r="E120" t="s">
-        <v>592</v>
+        <v>67</v>
       </c>
       <c r="F120"/>
+      <c r="G120" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
       <c r="B121" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="C121" t="s">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="D121" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="E121" t="s">
-        <v>188</v>
+        <v>639</v>
       </c>
       <c r="F121"/>
+      <c r="G121" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>597</v>
+        <v>641</v>
       </c>
       <c r="B122" t="s">
-        <v>598</v>
+        <v>642</v>
       </c>
       <c r="C122" t="s">
-        <v>599</v>
+        <v>643</v>
       </c>
       <c r="D122" t="s">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="E122" t="s">
-        <v>601</v>
-      </c>
-      <c r="F122" t="s">
-        <v>602</v>
+        <v>215</v>
+      </c>
+      <c r="F122"/>
+      <c r="G122" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>603</v>
+        <v>645</v>
       </c>
       <c r="B123" t="s">
-        <v>604</v>
+        <v>646</v>
       </c>
       <c r="C123" t="s">
-        <v>605</v>
-      </c>
-      <c r="D123"/>
+        <v>647</v>
+      </c>
+      <c r="D123" t="s">
+        <v>648</v>
+      </c>
       <c r="E123" t="s">
-        <v>606</v>
+        <v>649</v>
       </c>
       <c r="F123" t="s">
-        <v>607</v>
+        <v>650</v>
+      </c>
+      <c r="G123" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>608</v>
+        <v>651</v>
       </c>
       <c r="B124" t="s">
-        <v>609</v>
+        <v>652</v>
       </c>
       <c r="C124" t="s">
-        <v>610</v>
-      </c>
-      <c r="D124" t="s">
-        <v>611</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="D124"/>
       <c r="E124" t="s">
-        <v>612</v>
-      </c>
-      <c r="F124"/>
+        <v>654</v>
+      </c>
+      <c r="F124" t="s">
+        <v>655</v>
+      </c>
+      <c r="G124" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>613</v>
+        <v>656</v>
       </c>
       <c r="B125" t="s">
-        <v>614</v>
+        <v>657</v>
       </c>
       <c r="C125" t="s">
-        <v>615</v>
-      </c>
-      <c r="D125"/>
+        <v>658</v>
+      </c>
+      <c r="D125" t="s">
+        <v>659</v>
+      </c>
       <c r="E125" t="s">
-        <v>616</v>
+        <v>660</v>
       </c>
       <c r="F125"/>
+      <c r="G125" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>617</v>
+        <v>661</v>
       </c>
       <c r="B126" t="s">
-        <v>618</v>
+        <v>662</v>
       </c>
       <c r="C126" t="s">
-        <v>619</v>
+        <v>663</v>
       </c>
       <c r="D126"/>
       <c r="E126" t="s">
-        <v>620</v>
+        <v>499</v>
       </c>
       <c r="F126"/>
+      <c r="G126" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>621</v>
+        <v>664</v>
       </c>
       <c r="B127" t="s">
-        <v>622</v>
+        <v>665</v>
       </c>
       <c r="C127" t="s">
-        <v>623</v>
-      </c>
-      <c r="D127" t="s">
-        <v>624</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="D127"/>
       <c r="E127" t="s">
-        <v>625</v>
-      </c>
-      <c r="F127" t="s">
-        <v>626</v>
+        <v>667</v>
+      </c>
+      <c r="F127"/>
+      <c r="G127" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>627</v>
+        <v>668</v>
       </c>
       <c r="B128" t="s">
-        <v>628</v>
+        <v>669</v>
       </c>
       <c r="C128" t="s">
-        <v>629</v>
-      </c>
-      <c r="D128"/>
+        <v>670</v>
+      </c>
+      <c r="D128" t="s">
+        <v>671</v>
+      </c>
       <c r="E128" t="s">
-        <v>630</v>
+        <v>672</v>
       </c>
       <c r="F128" t="s">
-        <v>631</v>
+        <v>673</v>
+      </c>
+      <c r="G128" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="B129" t="s">
-        <v>633</v>
+        <v>675</v>
       </c>
       <c r="C129" t="s">
-        <v>634</v>
-      </c>
-      <c r="D129" t="s">
-        <v>635</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="D129"/>
       <c r="E129" t="s">
-        <v>636</v>
-      </c>
-      <c r="F129"/>
+        <v>677</v>
+      </c>
+      <c r="F129" t="s">
+        <v>678</v>
+      </c>
+      <c r="G129" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>637</v>
+        <v>680</v>
       </c>
       <c r="B130" t="s">
-        <v>638</v>
+        <v>681</v>
       </c>
       <c r="C130" t="s">
-        <v>639</v>
+        <v>682</v>
       </c>
       <c r="D130" t="s">
-        <v>640</v>
+        <v>683</v>
       </c>
       <c r="E130" t="s">
-        <v>313</v>
-      </c>
-      <c r="F130" t="s">
-        <v>641</v>
+        <v>684</v>
+      </c>
+      <c r="F130"/>
+      <c r="G130" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>642</v>
+        <v>686</v>
       </c>
       <c r="B131" t="s">
-        <v>643</v>
+        <v>687</v>
       </c>
       <c r="C131" t="s">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="D131" t="s">
-        <v>645</v>
+        <v>689</v>
       </c>
       <c r="E131" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="F131" t="s">
-        <v>646</v>
+        <v>690</v>
+      </c>
+      <c r="G131" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>647</v>
+        <v>691</v>
       </c>
       <c r="B132" t="s">
-        <v>648</v>
+        <v>692</v>
       </c>
       <c r="C132" t="s">
-        <v>649</v>
-      </c>
-      <c r="D132"/>
+        <v>693</v>
+      </c>
+      <c r="D132" t="s">
+        <v>694</v>
+      </c>
       <c r="E132" t="s">
-        <v>48</v>
-      </c>
-      <c r="F132"/>
+        <v>322</v>
+      </c>
+      <c r="F132" t="s">
+        <v>695</v>
+      </c>
+      <c r="G132" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="B133" t="s">
-        <v>651</v>
+        <v>697</v>
       </c>
       <c r="C133" t="s">
-        <v>652</v>
-      </c>
-      <c r="D133" t="s">
-        <v>653</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="D133"/>
       <c r="E133" t="s">
-        <v>574</v>
-      </c>
-      <c r="F133" t="s">
-        <v>654</v>
+        <v>55</v>
+      </c>
+      <c r="F133"/>
+      <c r="G133" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>655</v>
+        <v>699</v>
       </c>
       <c r="B134" t="s">
-        <v>656</v>
+        <v>700</v>
       </c>
       <c r="C134" t="s">
-        <v>657</v>
+        <v>701</v>
       </c>
       <c r="D134" t="s">
-        <v>658</v>
+        <v>702</v>
       </c>
       <c r="E134" t="s">
-        <v>659</v>
-      </c>
-      <c r="F134"/>
+        <v>619</v>
+      </c>
+      <c r="F134" t="s">
+        <v>703</v>
+      </c>
+      <c r="G134" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>660</v>
+        <v>705</v>
       </c>
       <c r="B135" t="s">
-        <v>661</v>
+        <v>706</v>
       </c>
       <c r="C135" t="s">
-        <v>662</v>
-      </c>
-      <c r="D135"/>
+        <v>707</v>
+      </c>
+      <c r="D135" t="s">
+        <v>708</v>
+      </c>
       <c r="E135" t="s">
-        <v>663</v>
-      </c>
-      <c r="F135" t="s">
-        <v>664</v>
+        <v>709</v>
+      </c>
+      <c r="F135"/>
+      <c r="G135" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>665</v>
+        <v>710</v>
       </c>
       <c r="B136" t="s">
-        <v>666</v>
+        <v>711</v>
       </c>
       <c r="C136" t="s">
-        <v>667</v>
-      </c>
-      <c r="D136" t="s">
-        <v>668</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="D136"/>
       <c r="E136" t="s">
-        <v>669</v>
-      </c>
-      <c r="F136"/>
+        <v>713</v>
+      </c>
+      <c r="F136" t="s">
+        <v>714</v>
+      </c>
+      <c r="G136" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>670</v>
+        <v>716</v>
       </c>
       <c r="B137" t="s">
-        <v>671</v>
+        <v>717</v>
       </c>
       <c r="C137" t="s">
-        <v>672</v>
-      </c>
-      <c r="D137"/>
+        <v>718</v>
+      </c>
+      <c r="D137" t="s">
+        <v>719</v>
+      </c>
       <c r="E137" t="s">
-        <v>114</v>
-      </c>
-      <c r="F137" t="s">
-        <v>673</v>
+        <v>720</v>
+      </c>
+      <c r="F137"/>
+      <c r="G137" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>674</v>
+        <v>722</v>
       </c>
       <c r="B138" t="s">
-        <v>675</v>
+        <v>723</v>
       </c>
       <c r="C138" t="s">
-        <v>676</v>
+        <v>724</v>
       </c>
       <c r="D138"/>
       <c r="E138" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="F138" t="s">
-        <v>677</v>
+        <v>725</v>
+      </c>
+      <c r="G138" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>678</v>
+        <v>726</v>
       </c>
       <c r="B139" t="s">
-        <v>679</v>
+        <v>727</v>
       </c>
       <c r="C139" t="s">
-        <v>680</v>
-      </c>
-      <c r="D139" t="s">
-        <v>681</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="D139"/>
       <c r="E139" t="s">
-        <v>243</v>
+        <v>729</v>
       </c>
       <c r="F139" t="s">
-        <v>682</v>
+        <v>730</v>
+      </c>
+      <c r="G139" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
       <c r="B140" t="s">
-        <v>684</v>
+        <v>732</v>
       </c>
       <c r="C140" t="s">
-        <v>685</v>
-      </c>
-      <c r="D140"/>
+        <v>733</v>
+      </c>
+      <c r="D140" t="s">
+        <v>734</v>
+      </c>
       <c r="E140" t="s">
-        <v>686</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>687</v>
+        <v>735</v>
+      </c>
+      <c r="G140" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>688</v>
+        <v>736</v>
       </c>
       <c r="B141" t="s">
-        <v>689</v>
+        <v>737</v>
       </c>
       <c r="C141" t="s">
-        <v>690</v>
+        <v>738</v>
       </c>
       <c r="D141"/>
       <c r="E141" t="s">
-        <v>691</v>
+        <v>739</v>
       </c>
       <c r="F141" t="s">
-        <v>692</v>
+        <v>740</v>
+      </c>
+      <c r="G141" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>693</v>
+        <v>741</v>
       </c>
       <c r="B142" t="s">
-        <v>694</v>
+        <v>742</v>
       </c>
       <c r="C142" t="s">
-        <v>695</v>
+        <v>743</v>
       </c>
       <c r="D142"/>
       <c r="E142" t="s">
-        <v>696</v>
-      </c>
-      <c r="F142"/>
+        <v>744</v>
+      </c>
+      <c r="F142" t="s">
+        <v>745</v>
+      </c>
+      <c r="G142" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="B143" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="C143" t="s">
-        <v>699</v>
-      </c>
-      <c r="D143" t="s">
-        <v>700</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="D143"/>
       <c r="E143" t="s">
-        <v>701</v>
-      </c>
-      <c r="F143" t="s">
-        <v>702</v>
+        <v>749</v>
+      </c>
+      <c r="F143"/>
+      <c r="G143" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>703</v>
+        <v>750</v>
       </c>
       <c r="B144" t="s">
-        <v>704</v>
+        <v>751</v>
       </c>
       <c r="C144" t="s">
-        <v>705</v>
+        <v>752</v>
       </c>
       <c r="D144" t="s">
-        <v>706</v>
+        <v>753</v>
       </c>
       <c r="E144" t="s">
-        <v>319</v>
+        <v>754</v>
       </c>
       <c r="F144" t="s">
-        <v>707</v>
+        <v>755</v>
+      </c>
+      <c r="G144" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>708</v>
+        <v>756</v>
       </c>
       <c r="B145" t="s">
-        <v>709</v>
+        <v>757</v>
       </c>
       <c r="C145" t="s">
-        <v>710</v>
+        <v>758</v>
       </c>
       <c r="D145" t="s">
-        <v>711</v>
+        <v>759</v>
       </c>
       <c r="E145" t="s">
-        <v>712</v>
+        <v>354</v>
       </c>
       <c r="F145" t="s">
-        <v>713</v>
+        <v>760</v>
+      </c>
+      <c r="G145" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>714</v>
+        <v>761</v>
       </c>
       <c r="B146" t="s">
-        <v>715</v>
+        <v>762</v>
       </c>
       <c r="C146" t="s">
-        <v>716</v>
+        <v>763</v>
       </c>
       <c r="D146" t="s">
-        <v>717</v>
+        <v>764</v>
       </c>
       <c r="E146" t="s">
-        <v>134</v>
+        <v>765</v>
       </c>
       <c r="F146" t="s">
-        <v>718</v>
+        <v>766</v>
+      </c>
+      <c r="G146" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>719</v>
+        <v>767</v>
       </c>
       <c r="B147" t="s">
-        <v>720</v>
+        <v>768</v>
       </c>
       <c r="C147" t="s">
-        <v>721</v>
+        <v>769</v>
       </c>
       <c r="D147" t="s">
-        <v>722</v>
+        <v>770</v>
       </c>
       <c r="E147" t="s">
-        <v>723</v>
+        <v>154</v>
       </c>
       <c r="F147" t="s">
-        <v>724</v>
+        <v>771</v>
+      </c>
+      <c r="G147" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="B148" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
       <c r="C148" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="D148" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
       <c r="E148" t="s">
-        <v>729</v>
-      </c>
-      <c r="F148"/>
+        <v>776</v>
+      </c>
+      <c r="F148" t="s">
+        <v>777</v>
+      </c>
+      <c r="G148" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>730</v>
+        <v>778</v>
       </c>
       <c r="B149" t="s">
-        <v>731</v>
+        <v>779</v>
       </c>
       <c r="C149" t="s">
-        <v>732</v>
+        <v>780</v>
       </c>
       <c r="D149" t="s">
-        <v>733</v>
+        <v>781</v>
       </c>
       <c r="E149" t="s">
-        <v>734</v>
+        <v>782</v>
       </c>
       <c r="F149"/>
+      <c r="G149" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>735</v>
+        <v>783</v>
       </c>
       <c r="B150" t="s">
-        <v>736</v>
+        <v>784</v>
       </c>
       <c r="C150" t="s">
-        <v>737</v>
-      </c>
-      <c r="D150"/>
+        <v>785</v>
+      </c>
+      <c r="D150" t="s">
+        <v>786</v>
+      </c>
       <c r="E150" t="s">
-        <v>58</v>
+        <v>787</v>
       </c>
       <c r="F150"/>
+      <c r="G150" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>738</v>
+        <v>788</v>
       </c>
       <c r="B151" t="s">
-        <v>739</v>
+        <v>789</v>
       </c>
       <c r="C151" t="s">
-        <v>740</v>
-      </c>
-      <c r="D151" t="s">
-        <v>741</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="D151"/>
       <c r="E151" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="F151"/>
+      <c r="G151" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>742</v>
+        <v>791</v>
       </c>
       <c r="B152" t="s">
-        <v>743</v>
+        <v>792</v>
       </c>
       <c r="C152" t="s">
-        <v>744</v>
-      </c>
-      <c r="D152"/>
+        <v>793</v>
+      </c>
+      <c r="D152" t="s">
+        <v>794</v>
+      </c>
       <c r="E152" t="s">
-        <v>428</v>
-      </c>
-      <c r="F152" t="s">
-        <v>745</v>
+        <v>795</v>
+      </c>
+      <c r="F152"/>
+      <c r="G152" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>746</v>
+        <v>796</v>
       </c>
       <c r="B153" t="s">
-        <v>747</v>
+        <v>797</v>
       </c>
       <c r="C153" t="s">
-        <v>748</v>
-      </c>
-      <c r="D153" t="s">
-        <v>749</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="D153"/>
       <c r="E153" t="s">
-        <v>119</v>
+        <v>467</v>
       </c>
       <c r="F153" t="s">
-        <v>750</v>
+        <v>799</v>
+      </c>
+      <c r="G153" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>751</v>
+        <v>800</v>
       </c>
       <c r="B154" t="s">
-        <v>752</v>
+        <v>801</v>
       </c>
       <c r="C154" t="s">
-        <v>753</v>
-      </c>
-      <c r="D154"/>
+        <v>802</v>
+      </c>
+      <c r="D154" t="s">
+        <v>803</v>
+      </c>
       <c r="E154" t="s">
-        <v>381</v>
+        <v>137</v>
       </c>
       <c r="F154" t="s">
-        <v>754</v>
+        <v>804</v>
+      </c>
+      <c r="G154" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>755</v>
+        <v>805</v>
       </c>
       <c r="B155" t="s">
-        <v>756</v>
+        <v>806</v>
       </c>
       <c r="C155" t="s">
-        <v>757</v>
-      </c>
-      <c r="D155" t="s">
-        <v>758</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="D155"/>
       <c r="E155" t="s">
-        <v>759</v>
+        <v>322</v>
       </c>
       <c r="F155" t="s">
-        <v>760</v>
+        <v>808</v>
+      </c>
+      <c r="G155" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>761</v>
+        <v>809</v>
       </c>
       <c r="B156" t="s">
-        <v>762</v>
+        <v>810</v>
       </c>
       <c r="C156" t="s">
-        <v>763</v>
-      </c>
-      <c r="D156"/>
+        <v>811</v>
+      </c>
+      <c r="D156" t="s">
+        <v>812</v>
+      </c>
       <c r="E156" t="s">
-        <v>764</v>
+        <v>813</v>
       </c>
       <c r="F156" t="s">
-        <v>765</v>
+        <v>814</v>
+      </c>
+      <c r="G156" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>766</v>
+        <v>816</v>
       </c>
       <c r="B157" t="s">
-        <v>767</v>
+        <v>817</v>
       </c>
       <c r="C157" t="s">
-        <v>768</v>
-      </c>
-      <c r="D157" t="s">
-        <v>769</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="D157"/>
       <c r="E157" t="s">
-        <v>770</v>
+        <v>499</v>
       </c>
       <c r="F157" t="s">
-        <v>771</v>
+        <v>819</v>
+      </c>
+      <c r="G157" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>772</v>
+        <v>820</v>
       </c>
       <c r="B158" t="s">
-        <v>773</v>
+        <v>821</v>
       </c>
       <c r="C158" t="s">
-        <v>774</v>
+        <v>822</v>
       </c>
       <c r="D158" t="s">
-        <v>775</v>
+        <v>823</v>
       </c>
       <c r="E158" t="s">
-        <v>776</v>
+        <v>824</v>
       </c>
       <c r="F158" t="s">
-        <v>777</v>
+        <v>825</v>
+      </c>
+      <c r="G158" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>778</v>
-      </c>
-      <c r="B159"/>
-      <c r="C159"/>
-      <c r="D159"/>
-      <c r="E159"/>
-      <c r="F159"/>
+        <v>826</v>
+      </c>
+      <c r="B159" t="s">
+        <v>827</v>
+      </c>
+      <c r="C159" t="s">
+        <v>828</v>
+      </c>
+      <c r="D159" t="s">
+        <v>829</v>
+      </c>
+      <c r="E159" t="s">
+        <v>830</v>
+      </c>
+      <c r="F159" t="s">
+        <v>831</v>
+      </c>
+      <c r="G159" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>779</v>
-      </c>
-      <c r="B160" t="s">
-        <v>780</v>
-      </c>
-      <c r="C160" t="s">
-        <v>781</v>
-      </c>
-      <c r="D160" t="s">
-        <v>782</v>
-      </c>
-      <c r="E160" t="s">
-        <v>58</v>
-      </c>
+        <v>833</v>
+      </c>
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
       <c r="F160"/>
+      <c r="G160" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>783</v>
+        <v>835</v>
       </c>
       <c r="B161" t="s">
-        <v>784</v>
+        <v>836</v>
       </c>
       <c r="C161" t="s">
-        <v>785</v>
-      </c>
-      <c r="D161"/>
+        <v>837</v>
+      </c>
+      <c r="D161" t="s">
+        <v>838</v>
+      </c>
       <c r="E161" t="s">
-        <v>114</v>
-      </c>
-      <c r="F161" t="s">
-        <v>786</v>
+        <v>839</v>
+      </c>
+      <c r="F161"/>
+      <c r="G161" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>787</v>
+        <v>841</v>
       </c>
       <c r="B162" t="s">
-        <v>788</v>
+        <v>842</v>
       </c>
       <c r="C162" t="s">
-        <v>789</v>
+        <v>843</v>
       </c>
       <c r="D162"/>
       <c r="E162" t="s">
-        <v>43</v>
-      </c>
-      <c r="F162"/>
+        <v>839</v>
+      </c>
+      <c r="F162" t="s">
+        <v>844</v>
+      </c>
+      <c r="G162" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>790</v>
+        <v>845</v>
       </c>
       <c r="B163" t="s">
-        <v>791</v>
+        <v>846</v>
       </c>
       <c r="C163" t="s">
-        <v>792</v>
-      </c>
-      <c r="D163" t="s">
-        <v>793</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="D163"/>
       <c r="E163" t="s">
-        <v>794</v>
+        <v>49</v>
       </c>
       <c r="F163"/>
+      <c r="G163" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>795</v>
+        <v>848</v>
       </c>
       <c r="B164" t="s">
-        <v>796</v>
+        <v>849</v>
       </c>
       <c r="C164" t="s">
-        <v>797</v>
+        <v>850</v>
       </c>
       <c r="D164" t="s">
-        <v>798</v>
+        <v>851</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>852</v>
       </c>
       <c r="F164"/>
+      <c r="G164" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>799</v>
+        <v>853</v>
       </c>
       <c r="B165" t="s">
-        <v>800</v>
+        <v>854</v>
       </c>
       <c r="C165" t="s">
-        <v>801</v>
+        <v>855</v>
       </c>
       <c r="D165" t="s">
-        <v>802</v>
+        <v>856</v>
       </c>
       <c r="E165" t="s">
-        <v>803</v>
-      </c>
-      <c r="F165" t="s">
-        <v>804</v>
+        <v>37</v>
+      </c>
+      <c r="F165"/>
+      <c r="G165" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>805</v>
+        <v>858</v>
       </c>
       <c r="B166" t="s">
-        <v>806</v>
+        <v>859</v>
       </c>
       <c r="C166" t="s">
-        <v>807</v>
+        <v>860</v>
       </c>
       <c r="D166" t="s">
-        <v>808</v>
+        <v>861</v>
       </c>
       <c r="E166" t="s">
-        <v>809</v>
-      </c>
-      <c r="F166"/>
+        <v>862</v>
+      </c>
+      <c r="F166" t="s">
+        <v>863</v>
+      </c>
+      <c r="G166" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>810</v>
+        <v>865</v>
       </c>
       <c r="B167" t="s">
-        <v>811</v>
+        <v>866</v>
       </c>
       <c r="C167" t="s">
-        <v>812</v>
-      </c>
-      <c r="D167"/>
+        <v>867</v>
+      </c>
+      <c r="D167" t="s">
+        <v>868</v>
+      </c>
       <c r="E167" t="s">
-        <v>58</v>
+        <v>869</v>
       </c>
       <c r="F167"/>
+      <c r="G167" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>813</v>
-      </c>
-      <c r="B168"/>
-      <c r="C168"/>
+        <v>870</v>
+      </c>
+      <c r="B168" t="s">
+        <v>871</v>
+      </c>
+      <c r="C168" t="s">
+        <v>872</v>
+      </c>
       <c r="D168"/>
-      <c r="E168"/>
+      <c r="E168" t="s">
+        <v>67</v>
+      </c>
       <c r="F168"/>
+      <c r="G168" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>814</v>
-      </c>
-      <c r="B169" t="s">
-        <v>815</v>
-      </c>
-      <c r="C169" t="s">
-        <v>816</v>
-      </c>
-      <c r="D169" t="s">
-        <v>817</v>
-      </c>
-      <c r="E169" t="s">
-        <v>818</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
       <c r="F169"/>
+      <c r="G169" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>819</v>
+        <v>874</v>
       </c>
       <c r="B170" t="s">
-        <v>820</v>
+        <v>875</v>
       </c>
       <c r="C170" t="s">
-        <v>821</v>
+        <v>876</v>
       </c>
       <c r="D170" t="s">
-        <v>822</v>
+        <v>877</v>
       </c>
       <c r="E170" t="s">
-        <v>794</v>
+        <v>878</v>
       </c>
       <c r="F170"/>
+      <c r="G170" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>823</v>
+        <v>880</v>
       </c>
       <c r="B171" t="s">
-        <v>824</v>
+        <v>881</v>
       </c>
       <c r="C171" t="s">
-        <v>825</v>
+        <v>882</v>
       </c>
       <c r="D171" t="s">
-        <v>826</v>
+        <v>883</v>
       </c>
       <c r="E171" t="s">
-        <v>538</v>
-      </c>
-      <c r="F171" t="s">
-        <v>827</v>
+        <v>852</v>
+      </c>
+      <c r="F171"/>
+      <c r="G171" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>828</v>
+        <v>884</v>
       </c>
       <c r="B172" t="s">
-        <v>829</v>
+        <v>885</v>
       </c>
       <c r="C172" t="s">
-        <v>830</v>
+        <v>886</v>
       </c>
       <c r="D172" t="s">
-        <v>831</v>
+        <v>887</v>
       </c>
       <c r="E172" t="s">
-        <v>832</v>
-      </c>
-      <c r="F172"/>
+        <v>581</v>
+      </c>
+      <c r="F172" t="s">
+        <v>888</v>
+      </c>
+      <c r="G172" t="s">
+        <v>889</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>833</v>
+        <v>890</v>
       </c>
       <c r="B173" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="C173" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="D173" t="s">
-        <v>836</v>
+        <v>893</v>
       </c>
       <c r="E173" t="s">
-        <v>696</v>
+        <v>894</v>
       </c>
       <c r="F173"/>
+      <c r="G173" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>837</v>
+        <v>896</v>
       </c>
       <c r="B174" t="s">
-        <v>838</v>
+        <v>897</v>
       </c>
       <c r="C174" t="s">
-        <v>839</v>
+        <v>898</v>
       </c>
       <c r="D174" t="s">
-        <v>840</v>
+        <v>899</v>
       </c>
       <c r="E174" t="s">
-        <v>114</v>
+        <v>749</v>
       </c>
       <c r="F174"/>
+      <c r="G174" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="B175" t="s">
-        <v>842</v>
+        <v>901</v>
       </c>
       <c r="C175" t="s">
-        <v>843</v>
+        <v>902</v>
       </c>
       <c r="D175" t="s">
-        <v>844</v>
+        <v>903</v>
       </c>
       <c r="E175" t="s">
-        <v>845</v>
-      </c>
-      <c r="F175" t="s">
-        <v>846</v>
+        <v>132</v>
+      </c>
+      <c r="F175"/>
+      <c r="G175" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>847</v>
+        <v>904</v>
       </c>
       <c r="B176" t="s">
-        <v>848</v>
+        <v>905</v>
       </c>
       <c r="C176" t="s">
-        <v>849</v>
+        <v>906</v>
       </c>
       <c r="D176" t="s">
-        <v>850</v>
+        <v>907</v>
       </c>
       <c r="E176" t="s">
-        <v>851</v>
+        <v>908</v>
       </c>
       <c r="F176" t="s">
-        <v>852</v>
+        <v>909</v>
+      </c>
+      <c r="G176" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>853</v>
+        <v>910</v>
       </c>
       <c r="B177" t="s">
-        <v>854</v>
+        <v>911</v>
       </c>
       <c r="C177" t="s">
-        <v>855</v>
+        <v>912</v>
       </c>
       <c r="D177" t="s">
-        <v>856</v>
+        <v>913</v>
       </c>
       <c r="E177" t="s">
-        <v>857</v>
+        <v>914</v>
       </c>
       <c r="F177" t="s">
-        <v>858</v>
+        <v>915</v>
+      </c>
+      <c r="G177" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>859</v>
+        <v>917</v>
       </c>
       <c r="B178" t="s">
-        <v>860</v>
+        <v>918</v>
       </c>
       <c r="C178" t="s">
-        <v>861</v>
+        <v>919</v>
       </c>
       <c r="D178" t="s">
-        <v>862</v>
+        <v>920</v>
       </c>
       <c r="E178" t="s">
-        <v>863</v>
+        <v>921</v>
       </c>
       <c r="F178" t="s">
-        <v>314</v>
+        <v>922</v>
+      </c>
+      <c r="G178" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>864</v>
+        <v>923</v>
       </c>
       <c r="B179" t="s">
-        <v>865</v>
+        <v>924</v>
       </c>
       <c r="C179" t="s">
-        <v>866</v>
+        <v>925</v>
       </c>
       <c r="D179" t="s">
-        <v>867</v>
+        <v>926</v>
       </c>
       <c r="E179" t="s">
-        <v>868</v>
+        <v>927</v>
       </c>
       <c r="F179" t="s">
-        <v>869</v>
+        <v>349</v>
+      </c>
+      <c r="G179" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>870</v>
+        <v>928</v>
       </c>
       <c r="B180" t="s">
-        <v>871</v>
+        <v>929</v>
       </c>
       <c r="C180" t="s">
-        <v>872</v>
+        <v>930</v>
       </c>
       <c r="D180" t="s">
-        <v>873</v>
+        <v>931</v>
       </c>
       <c r="E180" t="s">
-        <v>874</v>
+        <v>932</v>
       </c>
       <c r="F180" t="s">
-        <v>875</v>
+        <v>933</v>
+      </c>
+      <c r="G180" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>876</v>
+        <v>934</v>
       </c>
       <c r="B181" t="s">
-        <v>877</v>
+        <v>935</v>
       </c>
       <c r="C181" t="s">
-        <v>878</v>
+        <v>936</v>
       </c>
       <c r="D181" t="s">
-        <v>879</v>
+        <v>937</v>
       </c>
       <c r="E181" t="s">
-        <v>636</v>
-      </c>
-      <c r="F181"/>
+        <v>938</v>
+      </c>
+      <c r="F181" t="s">
+        <v>939</v>
+      </c>
+      <c r="G181" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>880</v>
+        <v>940</v>
       </c>
       <c r="B182" t="s">
-        <v>881</v>
+        <v>941</v>
       </c>
       <c r="C182" t="s">
-        <v>882</v>
+        <v>942</v>
       </c>
       <c r="D182" t="s">
-        <v>883</v>
+        <v>943</v>
       </c>
       <c r="E182" t="s">
-        <v>884</v>
-      </c>
-      <c r="F182" t="s">
-        <v>885</v>
+        <v>684</v>
+      </c>
+      <c r="F182"/>
+      <c r="G182" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>886</v>
+        <v>944</v>
       </c>
       <c r="B183" t="s">
-        <v>887</v>
+        <v>945</v>
       </c>
       <c r="C183" t="s">
-        <v>888</v>
+        <v>946</v>
       </c>
       <c r="D183" t="s">
-        <v>889</v>
+        <v>947</v>
       </c>
       <c r="E183" t="s">
-        <v>890</v>
+        <v>948</v>
       </c>
       <c r="F183" t="s">
-        <v>891</v>
+        <v>949</v>
+      </c>
+      <c r="G183" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>892</v>
+        <v>951</v>
       </c>
       <c r="B184" t="s">
-        <v>893</v>
+        <v>952</v>
       </c>
       <c r="C184" t="s">
-        <v>894</v>
+        <v>953</v>
       </c>
       <c r="D184" t="s">
-        <v>895</v>
+        <v>954</v>
       </c>
       <c r="E184" t="s">
-        <v>43</v>
+        <v>955</v>
       </c>
       <c r="F184"/>
+      <c r="G184" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>896</v>
+        <v>956</v>
       </c>
       <c r="B185" t="s">
-        <v>897</v>
+        <v>957</v>
       </c>
       <c r="C185" t="s">
-        <v>898</v>
+        <v>958</v>
       </c>
       <c r="D185" t="s">
-        <v>899</v>
+        <v>959</v>
       </c>
       <c r="E185" t="s">
-        <v>636</v>
-      </c>
-      <c r="F185" t="s">
-        <v>900</v>
+        <v>49</v>
+      </c>
+      <c r="F185"/>
+      <c r="G185" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>901</v>
+        <v>960</v>
       </c>
       <c r="B186" t="s">
-        <v>902</v>
+        <v>961</v>
       </c>
       <c r="C186" t="s">
-        <v>903</v>
+        <v>962</v>
       </c>
       <c r="D186" t="s">
-        <v>904</v>
+        <v>963</v>
       </c>
       <c r="E186" t="s">
-        <v>905</v>
+        <v>684</v>
       </c>
       <c r="F186" t="s">
-        <v>891</v>
+        <v>964</v>
+      </c>
+      <c r="G186" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>906</v>
+        <v>965</v>
       </c>
       <c r="B187" t="s">
-        <v>907</v>
+        <v>966</v>
       </c>
       <c r="C187" t="s">
-        <v>908</v>
+        <v>967</v>
       </c>
       <c r="D187" t="s">
-        <v>909</v>
+        <v>968</v>
       </c>
       <c r="E187" t="s">
-        <v>910</v>
+        <v>969</v>
       </c>
       <c r="F187" t="s">
-        <v>911</v>
+        <v>970</v>
+      </c>
+      <c r="G187" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>912</v>
+        <v>971</v>
       </c>
       <c r="B188" t="s">
-        <v>913</v>
+        <v>972</v>
       </c>
       <c r="C188" t="s">
-        <v>914</v>
+        <v>973</v>
       </c>
       <c r="D188" t="s">
-        <v>915</v>
+        <v>974</v>
       </c>
       <c r="E188" t="s">
-        <v>916</v>
-      </c>
-      <c r="F188"/>
+        <v>975</v>
+      </c>
+      <c r="F188" t="s">
+        <v>976</v>
+      </c>
+      <c r="G188" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>917</v>
+        <v>977</v>
       </c>
       <c r="B189" t="s">
-        <v>918</v>
+        <v>978</v>
       </c>
       <c r="C189" t="s">
-        <v>919</v>
-      </c>
-      <c r="D189"/>
+        <v>979</v>
+      </c>
+      <c r="D189" t="s">
+        <v>980</v>
+      </c>
       <c r="E189" t="s">
-        <v>526</v>
-      </c>
-      <c r="F189" t="s">
-        <v>920</v>
+        <v>981</v>
+      </c>
+      <c r="F189"/>
+      <c r="G189" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>921</v>
+        <v>982</v>
       </c>
       <c r="B190" t="s">
-        <v>922</v>
+        <v>983</v>
       </c>
       <c r="C190" t="s">
-        <v>923</v>
+        <v>984</v>
       </c>
       <c r="D190" t="s">
-        <v>924</v>
+        <v>985</v>
       </c>
       <c r="E190" t="s">
-        <v>925</v>
+        <v>986</v>
       </c>
       <c r="F190" t="s">
-        <v>677</v>
+        <v>987</v>
+      </c>
+      <c r="G190" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>926</v>
+        <v>988</v>
       </c>
       <c r="B191" t="s">
-        <v>927</v>
+        <v>989</v>
       </c>
       <c r="C191" t="s">
-        <v>928</v>
+        <v>990</v>
       </c>
       <c r="D191" t="s">
-        <v>929</v>
+        <v>991</v>
       </c>
       <c r="E191" t="s">
-        <v>171</v>
+        <v>992</v>
       </c>
       <c r="F191" t="s">
-        <v>930</v>
+        <v>730</v>
+      </c>
+      <c r="G191" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>931</v>
+        <v>994</v>
       </c>
       <c r="B192" t="s">
-        <v>932</v>
+        <v>995</v>
       </c>
       <c r="C192" t="s">
-        <v>933</v>
+        <v>996</v>
       </c>
       <c r="D192" t="s">
-        <v>934</v>
+        <v>997</v>
       </c>
       <c r="E192" t="s">
-        <v>153</v>
-      </c>
-      <c r="F192"/>
+        <v>198</v>
+      </c>
+      <c r="F192" t="s">
+        <v>998</v>
+      </c>
+      <c r="G192" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>935</v>
+        <v>999</v>
       </c>
       <c r="B193" t="s">
-        <v>936</v>
+        <v>1000</v>
       </c>
       <c r="C193" t="s">
-        <v>937</v>
+        <v>1001</v>
       </c>
       <c r="D193" t="s">
-        <v>938</v>
+        <v>1002</v>
       </c>
       <c r="E193" t="s">
-        <v>669</v>
+        <v>179</v>
       </c>
       <c r="F193"/>
+      <c r="G193" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>939</v>
+        <v>1003</v>
       </c>
       <c r="B194" t="s">
-        <v>940</v>
+        <v>1004</v>
       </c>
       <c r="C194" t="s">
-        <v>941</v>
+        <v>1005</v>
       </c>
       <c r="D194" t="s">
-        <v>942</v>
+        <v>1006</v>
       </c>
       <c r="E194" t="s">
-        <v>943</v>
-      </c>
-      <c r="F194" t="s">
-        <v>944</v>
+        <v>1007</v>
+      </c>
+      <c r="F194"/>
+      <c r="G194" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>945</v>
+        <v>1008</v>
       </c>
       <c r="B195" t="s">
-        <v>946</v>
+        <v>1009</v>
       </c>
       <c r="C195" t="s">
-        <v>947</v>
+        <v>1010</v>
       </c>
       <c r="D195" t="s">
-        <v>948</v>
+        <v>1011</v>
       </c>
       <c r="E195" t="s">
-        <v>723</v>
+        <v>1012</v>
       </c>
       <c r="F195" t="s">
-        <v>949</v>
+        <v>1013</v>
+      </c>
+      <c r="G195" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>950</v>
+        <v>1014</v>
       </c>
       <c r="B196" t="s">
-        <v>951</v>
+        <v>1015</v>
       </c>
       <c r="C196" t="s">
-        <v>952</v>
+        <v>1016</v>
       </c>
       <c r="D196" t="s">
-        <v>953</v>
+        <v>1017</v>
       </c>
       <c r="E196" t="s">
-        <v>954</v>
-      </c>
-      <c r="F196"/>
+        <v>776</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G196" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>955</v>
+        <v>1019</v>
       </c>
       <c r="B197" t="s">
-        <v>956</v>
+        <v>1020</v>
       </c>
       <c r="C197" t="s">
-        <v>957</v>
+        <v>1021</v>
       </c>
       <c r="D197" t="s">
-        <v>958</v>
+        <v>1022</v>
       </c>
       <c r="E197" t="s">
-        <v>376</v>
-      </c>
-      <c r="F197" t="s">
-        <v>959</v>
+        <v>1023</v>
+      </c>
+      <c r="F197"/>
+      <c r="G197" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>960</v>
+        <v>1024</v>
       </c>
       <c r="B198" t="s">
-        <v>961</v>
+        <v>1025</v>
       </c>
       <c r="C198" t="s">
-        <v>962</v>
+        <v>1026</v>
       </c>
       <c r="D198" t="s">
-        <v>963</v>
+        <v>1027</v>
       </c>
       <c r="E198" t="s">
-        <v>964</v>
-      </c>
-      <c r="F198"/>
+        <v>416</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G198" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>965</v>
+        <v>1029</v>
       </c>
       <c r="B199" t="s">
-        <v>966</v>
+        <v>1030</v>
       </c>
       <c r="C199" t="s">
-        <v>967</v>
+        <v>1031</v>
       </c>
       <c r="D199" t="s">
-        <v>968</v>
+        <v>1032</v>
       </c>
       <c r="E199" t="s">
-        <v>969</v>
-      </c>
-      <c r="F199" t="s">
-        <v>970</v>
+        <v>1033</v>
+      </c>
+      <c r="F199"/>
+      <c r="G199" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>971</v>
+        <v>1034</v>
       </c>
       <c r="B200" t="s">
-        <v>972</v>
+        <v>1035</v>
       </c>
       <c r="C200" t="s">
-        <v>973</v>
+        <v>1036</v>
       </c>
       <c r="D200" t="s">
-        <v>974</v>
+        <v>1037</v>
       </c>
       <c r="E200" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
       <c r="F200" t="s">
-        <v>976</v>
+        <v>1038</v>
+      </c>
+      <c r="G200" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>977</v>
+        <v>1039</v>
       </c>
       <c r="B201" t="s">
-        <v>978</v>
+        <v>1040</v>
       </c>
       <c r="C201" t="s">
-        <v>979</v>
+        <v>1041</v>
       </c>
       <c r="D201" t="s">
-        <v>980</v>
+        <v>1042</v>
       </c>
       <c r="E201" t="s">
-        <v>209</v>
+        <v>1043</v>
       </c>
       <c r="F201" t="s">
-        <v>437</v>
+        <v>1044</v>
+      </c>
+      <c r="G201" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>981</v>
+        <v>1045</v>
       </c>
       <c r="B202" t="s">
-        <v>982</v>
+        <v>1046</v>
       </c>
       <c r="C202" t="s">
-        <v>983</v>
+        <v>1047</v>
       </c>
       <c r="D202" t="s">
-        <v>984</v>
+        <v>1048</v>
       </c>
       <c r="E202" t="s">
-        <v>985</v>
+        <v>1049</v>
       </c>
       <c r="F202"/>
+      <c r="G202" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>986</v>
+        <v>1050</v>
       </c>
       <c r="B203" t="s">
-        <v>987</v>
+        <v>1051</v>
       </c>
       <c r="C203" t="s">
-        <v>988</v>
+        <v>1052</v>
       </c>
       <c r="D203" t="s">
-        <v>989</v>
+        <v>1053</v>
       </c>
       <c r="E203" t="s">
-        <v>990</v>
-      </c>
-      <c r="F203" t="s">
-        <v>991</v>
+        <v>395</v>
+      </c>
+      <c r="F203"/>
+      <c r="G203" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>992</v>
+        <v>1054</v>
       </c>
       <c r="B204" t="s">
-        <v>993</v>
+        <v>1055</v>
       </c>
       <c r="C204" t="s">
-        <v>994</v>
+        <v>1056</v>
       </c>
       <c r="D204" t="s">
-        <v>995</v>
+        <v>1057</v>
       </c>
       <c r="E204" t="s">
-        <v>134</v>
+        <v>1058</v>
       </c>
       <c r="F204" t="s">
-        <v>996</v>
+        <v>1059</v>
+      </c>
+      <c r="G204" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>997</v>
+        <v>1060</v>
       </c>
       <c r="B205" t="s">
-        <v>998</v>
+        <v>1061</v>
       </c>
       <c r="C205" t="s">
-        <v>999</v>
+        <v>1062</v>
       </c>
       <c r="D205" t="s">
-        <v>1000</v>
+        <v>1063</v>
       </c>
       <c r="E205" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="F205" t="s">
-        <v>1001</v>
+        <v>1064</v>
+      </c>
+      <c r="G205" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>1002</v>
+        <v>1065</v>
       </c>
       <c r="B206" t="s">
-        <v>1003</v>
+        <v>1066</v>
       </c>
       <c r="C206" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D206"/>
+        <v>1067</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1068</v>
+      </c>
       <c r="E206" t="s">
-        <v>1005</v>
+        <v>132</v>
       </c>
       <c r="F206" t="s">
-        <v>1006</v>
+        <v>1069</v>
+      </c>
+      <c r="G206" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>1007</v>
+        <v>1070</v>
       </c>
       <c r="B207" t="s">
-        <v>1008</v>
+        <v>1071</v>
       </c>
       <c r="C207" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1010</v>
-      </c>
+        <v>1072</v>
+      </c>
+      <c r="D207"/>
       <c r="E207" t="s">
-        <v>58</v>
-      </c>
-      <c r="F207"/>
+        <v>1073</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G207" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>1011</v>
+        <v>1075</v>
       </c>
       <c r="B208" t="s">
-        <v>1012</v>
+        <v>1076</v>
       </c>
       <c r="C208" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D208"/>
+        <v>1077</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1078</v>
+      </c>
       <c r="E208" t="s">
-        <v>63</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1014</v>
+        <v>67</v>
+      </c>
+      <c r="F208"/>
+      <c r="G208" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>1015</v>
+        <v>1079</v>
       </c>
       <c r="B209" t="s">
-        <v>1016</v>
+        <v>1080</v>
       </c>
       <c r="C209" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D209" t="s">
-        <v>1018</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="D209"/>
       <c r="E209" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F209"/>
+        <v>73</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G209" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>1020</v>
+        <v>1083</v>
       </c>
       <c r="B210" t="s">
-        <v>1021</v>
+        <v>1084</v>
       </c>
       <c r="C210" t="s">
-        <v>1022</v>
+        <v>1085</v>
       </c>
       <c r="D210" t="s">
-        <v>1023</v>
+        <v>1086</v>
       </c>
       <c r="E210" t="s">
-        <v>134</v>
+        <v>839</v>
       </c>
       <c r="F210"/>
+      <c r="G210" t="s">
+        <v>1087</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>1024</v>
+        <v>1088</v>
       </c>
       <c r="B211" t="s">
-        <v>1025</v>
+        <v>1089</v>
       </c>
       <c r="C211" t="s">
-        <v>1026</v>
+        <v>1090</v>
       </c>
       <c r="D211" t="s">
-        <v>1027</v>
+        <v>1091</v>
       </c>
       <c r="E211" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F211" t="s">
-        <v>631</v>
+        <v>154</v>
+      </c>
+      <c r="F211"/>
+      <c r="G211" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>1029</v>
+        <v>1092</v>
       </c>
       <c r="B212" t="s">
-        <v>1030</v>
+        <v>1093</v>
       </c>
       <c r="C212" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D212"/>
+        <v>1094</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1095</v>
+      </c>
       <c r="E212" t="s">
-        <v>48</v>
+        <v>1096</v>
       </c>
       <c r="F212" t="s">
-        <v>1032</v>
+        <v>1097</v>
+      </c>
+      <c r="G212" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>1033</v>
+        <v>1098</v>
       </c>
       <c r="B213" t="s">
-        <v>1034</v>
+        <v>1099</v>
       </c>
       <c r="C213" t="s">
-        <v>1035</v>
+        <v>1100</v>
       </c>
       <c r="D213"/>
       <c r="E213" t="s">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="F213" t="s">
-        <v>1036</v>
+        <v>1101</v>
+      </c>
+      <c r="G213" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>1037</v>
+        <v>1102</v>
       </c>
       <c r="B214" t="s">
-        <v>1038</v>
+        <v>1103</v>
       </c>
       <c r="C214" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D214" t="s">
-        <v>1040</v>
-      </c>
+        <v>1104</v>
+      </c>
+      <c r="D214"/>
       <c r="E214" t="s">
-        <v>1041</v>
+        <v>395</v>
       </c>
       <c r="F214" t="s">
-        <v>1042</v>
+        <v>1105</v>
+      </c>
+      <c r="G214" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>1043</v>
+        <v>1106</v>
       </c>
       <c r="B215" t="s">
-        <v>1044</v>
+        <v>1107</v>
       </c>
       <c r="C215" t="s">
-        <v>1045</v>
+        <v>1108</v>
       </c>
       <c r="D215" t="s">
-        <v>1046</v>
+        <v>1109</v>
       </c>
       <c r="E215" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F215"/>
+        <v>1110</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G215" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>1048</v>
+        <v>1112</v>
       </c>
       <c r="B216" t="s">
-        <v>1049</v>
+        <v>1113</v>
       </c>
       <c r="C216" t="s">
-        <v>1050</v>
+        <v>1114</v>
       </c>
       <c r="D216" t="s">
-        <v>1051</v>
+        <v>1115</v>
       </c>
       <c r="E216" t="s">
-        <v>48</v>
+        <v>1116</v>
       </c>
       <c r="F216"/>
+      <c r="G216" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>1052</v>
+        <v>1117</v>
       </c>
       <c r="B217" t="s">
-        <v>1053</v>
+        <v>1118</v>
       </c>
       <c r="C217" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D217"/>
+        <v>1119</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1120</v>
+      </c>
       <c r="E217" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="F217"/>
+      <c r="G217" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>1055</v>
+        <v>1121</v>
       </c>
       <c r="B218" t="s">
-        <v>1056</v>
+        <v>1122</v>
       </c>
       <c r="C218" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1058</v>
-      </c>
+        <v>1123</v>
+      </c>
+      <c r="D218"/>
       <c r="E218" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F218" t="s">
-        <v>1060</v>
+        <v>215</v>
+      </c>
+      <c r="F218"/>
+      <c r="G218" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>1061</v>
+        <v>1124</v>
       </c>
       <c r="B219" t="s">
-        <v>1062</v>
+        <v>1125</v>
       </c>
       <c r="C219" t="s">
-        <v>1063</v>
+        <v>1126</v>
       </c>
       <c r="D219" t="s">
-        <v>1064</v>
+        <v>1127</v>
       </c>
       <c r="E219" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F219"/>
+        <v>1128</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G219" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>1066</v>
+        <v>1130</v>
       </c>
       <c r="B220" t="s">
-        <v>1067</v>
+        <v>1131</v>
       </c>
       <c r="C220" t="s">
-        <v>1068</v>
+        <v>1132</v>
       </c>
       <c r="D220" t="s">
-        <v>1069</v>
+        <v>1133</v>
       </c>
       <c r="E220" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F220" t="s">
-        <v>1071</v>
+        <v>1134</v>
+      </c>
+      <c r="F220"/>
+      <c r="G220" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>1072</v>
+        <v>1135</v>
       </c>
       <c r="B221" t="s">
-        <v>1073</v>
+        <v>1136</v>
       </c>
       <c r="C221" t="s">
-        <v>1074</v>
+        <v>1137</v>
       </c>
       <c r="D221" t="s">
-        <v>1075</v>
+        <v>1138</v>
       </c>
       <c r="E221" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F221"/>
+        <v>1139</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G221" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>1077</v>
+        <v>1141</v>
       </c>
       <c r="B222" t="s">
-        <v>1078</v>
+        <v>1142</v>
       </c>
       <c r="C222" t="s">
-        <v>1079</v>
+        <v>1143</v>
       </c>
       <c r="D222" t="s">
-        <v>1080</v>
+        <v>1144</v>
       </c>
       <c r="E222" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F222" t="s">
-        <v>891</v>
+        <v>1145</v>
+      </c>
+      <c r="F222"/>
+      <c r="G222" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>1082</v>
+        <v>1146</v>
       </c>
       <c r="B223" t="s">
-        <v>1083</v>
+        <v>1147</v>
       </c>
       <c r="C223" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D223"/>
+        <v>1148</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1149</v>
+      </c>
       <c r="E223" t="s">
-        <v>954</v>
-      </c>
-      <c r="F223"/>
+        <v>1150</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G223" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>1085</v>
+        <v>1152</v>
       </c>
       <c r="B224" t="s">
-        <v>1086</v>
+        <v>1153</v>
       </c>
       <c r="C224" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D224" t="s">
-        <v>1088</v>
-      </c>
+        <v>1154</v>
+      </c>
+      <c r="D224"/>
       <c r="E224" t="s">
-        <v>1089</v>
+        <v>24</v>
       </c>
       <c r="F224"/>
+      <c r="G224" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>1090</v>
+        <v>1155</v>
       </c>
       <c r="B225" t="s">
-        <v>1091</v>
+        <v>1156</v>
       </c>
       <c r="C225" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D225" t="s">
-        <v>1093</v>
-      </c>
+        <v>1157</v>
+      </c>
+      <c r="D225"/>
       <c r="E225" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F225" t="s">
-        <v>1095</v>
+        <v>1023</v>
+      </c>
+      <c r="F225"/>
+      <c r="G225" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>1096</v>
+        <v>1158</v>
       </c>
       <c r="B226" t="s">
-        <v>1097</v>
+        <v>1159</v>
       </c>
       <c r="C226" t="s">
-        <v>1098</v>
+        <v>1160</v>
       </c>
       <c r="D226" t="s">
-        <v>1099</v>
+        <v>1161</v>
       </c>
       <c r="E226" t="s">
-        <v>625</v>
+        <v>1162</v>
       </c>
       <c r="F226"/>
+      <c r="G226" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>1100</v>
+        <v>1163</v>
       </c>
       <c r="B227" t="s">
-        <v>1101</v>
+        <v>1164</v>
       </c>
       <c r="C227" t="s">
-        <v>1102</v>
+        <v>1165</v>
       </c>
       <c r="D227" t="s">
-        <v>1103</v>
+        <v>1166</v>
       </c>
       <c r="E227" t="s">
-        <v>114</v>
+        <v>1167</v>
       </c>
       <c r="F227" t="s">
-        <v>1104</v>
+        <v>1168</v>
+      </c>
+      <c r="G227" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>1105</v>
+        <v>1169</v>
       </c>
       <c r="B228" t="s">
-        <v>1106</v>
+        <v>1170</v>
       </c>
       <c r="C228" t="s">
-        <v>1107</v>
+        <v>1171</v>
       </c>
       <c r="D228" t="s">
-        <v>1108</v>
+        <v>1172</v>
       </c>
       <c r="E228" t="s">
-        <v>33</v>
+        <v>672</v>
       </c>
       <c r="F228"/>
+      <c r="G228" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>1109</v>
+        <v>1173</v>
       </c>
       <c r="B229" t="s">
-        <v>1110</v>
+        <v>1174</v>
       </c>
       <c r="C229" t="s">
-        <v>1111</v>
+        <v>1175</v>
       </c>
       <c r="D229" t="s">
-        <v>1112</v>
+        <v>1176</v>
       </c>
       <c r="E229" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F229"/>
+        <v>132</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G229" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>1114</v>
+        <v>1178</v>
       </c>
       <c r="B230" t="s">
-        <v>1115</v>
+        <v>1179</v>
       </c>
       <c r="C230" t="s">
-        <v>1116</v>
+        <v>1180</v>
       </c>
       <c r="D230" t="s">
-        <v>1117</v>
+        <v>1181</v>
       </c>
       <c r="E230" t="s">
-        <v>265</v>
-      </c>
-      <c r="F230" t="s">
-        <v>1118</v>
+        <v>49</v>
+      </c>
+      <c r="F230"/>
+      <c r="G230" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>1119</v>
+        <v>1182</v>
       </c>
       <c r="B231" t="s">
-        <v>1120</v>
+        <v>1183</v>
       </c>
       <c r="C231" t="s">
-        <v>1121</v>
+        <v>1184</v>
       </c>
       <c r="D231" t="s">
-        <v>1122</v>
+        <v>1185</v>
       </c>
       <c r="E231" t="s">
-        <v>153</v>
-      </c>
-      <c r="F231" t="s">
-        <v>1123</v>
+        <v>1186</v>
+      </c>
+      <c r="F231"/>
+      <c r="G231" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>1124</v>
+        <v>1187</v>
       </c>
       <c r="B232" t="s">
-        <v>1125</v>
+        <v>1188</v>
       </c>
       <c r="C232" t="s">
-        <v>1126</v>
+        <v>1189</v>
       </c>
       <c r="D232" t="s">
-        <v>1127</v>
+        <v>1190</v>
       </c>
       <c r="E232" t="s">
-        <v>1128</v>
+        <v>490</v>
       </c>
       <c r="F232" t="s">
-        <v>707</v>
+        <v>1191</v>
+      </c>
+      <c r="G232" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>1129</v>
+        <v>1192</v>
       </c>
       <c r="B233" t="s">
-        <v>1130</v>
+        <v>1193</v>
       </c>
       <c r="C233" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D233"/>
+        <v>1194</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1195</v>
+      </c>
       <c r="E233" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="F233" t="s">
-        <v>1132</v>
+        <v>1196</v>
+      </c>
+      <c r="G233" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>1133</v>
+        <v>1197</v>
       </c>
       <c r="B234" t="s">
-        <v>1134</v>
+        <v>1198</v>
       </c>
       <c r="C234" t="s">
-        <v>1135</v>
+        <v>1199</v>
       </c>
       <c r="D234" t="s">
-        <v>1136</v>
+        <v>1200</v>
       </c>
       <c r="E234" t="s">
-        <v>1137</v>
+        <v>1201</v>
       </c>
       <c r="F234" t="s">
-        <v>1138</v>
+        <v>760</v>
+      </c>
+      <c r="G234" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>1139</v>
+        <v>1202</v>
       </c>
       <c r="B235" t="s">
-        <v>1140</v>
+        <v>1203</v>
       </c>
       <c r="C235" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D235" t="s">
-        <v>1142</v>
-      </c>
+        <v>1204</v>
+      </c>
+      <c r="D235"/>
       <c r="E235" t="s">
-        <v>1143</v>
+        <v>154</v>
       </c>
       <c r="F235" t="s">
-        <v>1144</v>
+        <v>1205</v>
+      </c>
+      <c r="G235" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>1145</v>
+        <v>1206</v>
       </c>
       <c r="B236" t="s">
-        <v>1146</v>
+        <v>1207</v>
       </c>
       <c r="C236" t="s">
-        <v>1147</v>
+        <v>1208</v>
       </c>
       <c r="D236" t="s">
-        <v>1148</v>
+        <v>1209</v>
       </c>
       <c r="E236" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F236"/>
+        <v>1134</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G236" t="s">
+        <v>1211</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>1149</v>
+        <v>1212</v>
       </c>
       <c r="B237" t="s">
-        <v>1150</v>
+        <v>1213</v>
       </c>
       <c r="C237" t="s">
-        <v>1151</v>
+        <v>1214</v>
       </c>
       <c r="D237" t="s">
-        <v>1152</v>
+        <v>1215</v>
       </c>
       <c r="E237" t="s">
-        <v>1153</v>
+        <v>1216</v>
       </c>
       <c r="F237" t="s">
-        <v>352</v>
+        <v>1217</v>
+      </c>
+      <c r="G237" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>1154</v>
+        <v>1218</v>
       </c>
       <c r="B238" t="s">
-        <v>1155</v>
+        <v>1219</v>
       </c>
       <c r="C238" t="s">
-        <v>1156</v>
+        <v>1220</v>
       </c>
       <c r="D238" t="s">
-        <v>1157</v>
+        <v>1221</v>
       </c>
       <c r="E238" t="s">
-        <v>33</v>
+        <v>839</v>
       </c>
       <c r="F238"/>
+      <c r="G238" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>1158</v>
+        <v>1222</v>
       </c>
       <c r="B239" t="s">
-        <v>1159</v>
+        <v>1223</v>
       </c>
       <c r="C239" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D239"/>
+        <v>1224</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1225</v>
+      </c>
       <c r="E239" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F239" t="s">
-        <v>1006</v>
+        <v>184</v>
+      </c>
+      <c r="F239"/>
+      <c r="G239" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>1162</v>
+        <v>1226</v>
       </c>
       <c r="B240" t="s">
-        <v>1163</v>
+        <v>1227</v>
       </c>
       <c r="C240" t="s">
-        <v>1164</v>
+        <v>1228</v>
       </c>
       <c r="D240" t="s">
-        <v>1165</v>
+        <v>1229</v>
       </c>
       <c r="E240" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F240" t="s">
-        <v>1167</v>
+        <v>37</v>
+      </c>
+      <c r="F240"/>
+      <c r="G240" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>1168</v>
+        <v>1230</v>
       </c>
       <c r="B241" t="s">
-        <v>1169</v>
+        <v>1231</v>
       </c>
       <c r="C241" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D241" t="s">
-        <v>1171</v>
-      </c>
+        <v>1232</v>
+      </c>
+      <c r="D241"/>
       <c r="E241" t="s">
-        <v>33</v>
+        <v>1233</v>
       </c>
       <c r="F241" t="s">
-        <v>441</v>
+        <v>1234</v>
+      </c>
+      <c r="G241" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>1172</v>
+        <v>1236</v>
       </c>
       <c r="B242" t="s">
-        <v>1173</v>
+        <v>1237</v>
       </c>
       <c r="C242" t="s">
-        <v>1174</v>
+        <v>1238</v>
       </c>
       <c r="D242" t="s">
-        <v>1175</v>
+        <v>1239</v>
       </c>
       <c r="E242" t="s">
-        <v>134</v>
-      </c>
-      <c r="F242"/>
+        <v>795</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G242" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>1176</v>
+        <v>1241</v>
       </c>
       <c r="B243" t="s">
-        <v>1177</v>
+        <v>1242</v>
       </c>
       <c r="C243" t="s">
-        <v>1178</v>
+        <v>1243</v>
       </c>
       <c r="D243" t="s">
-        <v>1179</v>
+        <v>1244</v>
       </c>
       <c r="E243" t="s">
-        <v>1019</v>
+        <v>37</v>
       </c>
       <c r="F243" t="s">
-        <v>1180</v>
+        <v>480</v>
+      </c>
+      <c r="G243" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>1181</v>
+        <v>1245</v>
       </c>
       <c r="B244" t="s">
-        <v>1182</v>
+        <v>1246</v>
       </c>
       <c r="C244" t="s">
-        <v>1183</v>
+        <v>1247</v>
       </c>
       <c r="D244" t="s">
-        <v>1184</v>
+        <v>1248</v>
       </c>
       <c r="E244" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F244" t="s">
-        <v>1186</v>
+        <v>154</v>
+      </c>
+      <c r="F244"/>
+      <c r="G244" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>1187</v>
+        <v>1249</v>
       </c>
       <c r="B245" t="s">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="C245" t="s">
-        <v>1189</v>
+        <v>1251</v>
       </c>
       <c r="D245" t="s">
-        <v>1190</v>
+        <v>1252</v>
       </c>
       <c r="E245" t="s">
-        <v>33</v>
+        <v>839</v>
       </c>
       <c r="F245" t="s">
-        <v>75</v>
+        <v>1253</v>
+      </c>
+      <c r="G245" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>1191</v>
+        <v>1254</v>
       </c>
       <c r="B246" t="s">
-        <v>1192</v>
+        <v>1255</v>
       </c>
       <c r="C246" t="s">
-        <v>1193</v>
+        <v>1256</v>
       </c>
       <c r="D246" t="s">
-        <v>1194</v>
+        <v>1257</v>
       </c>
       <c r="E246" t="s">
-        <v>1195</v>
+        <v>1258</v>
       </c>
       <c r="F246" t="s">
-        <v>858</v>
+        <v>1259</v>
+      </c>
+      <c r="G246" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>1196</v>
+        <v>1260</v>
       </c>
       <c r="B247" t="s">
-        <v>1197</v>
+        <v>1261</v>
       </c>
       <c r="C247" t="s">
-        <v>1198</v>
+        <v>1262</v>
       </c>
       <c r="D247" t="s">
-        <v>1199</v>
+        <v>1263</v>
       </c>
       <c r="E247" t="s">
-        <v>1200</v>
+        <v>37</v>
       </c>
       <c r="F247" t="s">
-        <v>858</v>
+        <v>1264</v>
+      </c>
+      <c r="G247" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B248"/>
-      <c r="C248"/>
-      <c r="D248"/>
-      <c r="E248"/>
-      <c r="F248"/>
+        <v>1265</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F248" t="s">
+        <v>922</v>
+      </c>
+      <c r="G248" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>1202</v>
+        <v>1270</v>
       </c>
       <c r="B249" t="s">
-        <v>1203</v>
+        <v>1271</v>
       </c>
       <c r="C249" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D249"/>
+        <v>1272</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1273</v>
+      </c>
       <c r="E249" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F249"/>
+        <v>1274</v>
+      </c>
+      <c r="F249" t="s">
+        <v>922</v>
+      </c>
+      <c r="G249" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B250" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C250" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D250" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E250" t="s">
-        <v>58</v>
-      </c>
-      <c r="F250" t="s">
-        <v>271</v>
+        <v>1275</v>
+      </c>
+      <c r="B250"/>
+      <c r="C250"/>
+      <c r="D250"/>
+      <c r="E250"/>
+      <c r="F250"/>
+      <c r="G250" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>1210</v>
+        <v>1277</v>
       </c>
       <c r="B251" t="s">
-        <v>1211</v>
+        <v>1278</v>
       </c>
       <c r="C251" t="s">
-        <v>1212</v>
+        <v>1279</v>
       </c>
       <c r="D251"/>
       <c r="E251" t="s">
-        <v>33</v>
+        <v>1280</v>
       </c>
       <c r="F251"/>
+      <c r="G251" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>1213</v>
+        <v>1281</v>
       </c>
       <c r="B252" t="s">
-        <v>1214</v>
+        <v>1282</v>
       </c>
       <c r="C252" t="s">
-        <v>1215</v>
+        <v>1283</v>
       </c>
       <c r="D252" t="s">
-        <v>1216</v>
+        <v>1284</v>
       </c>
       <c r="E252" t="s">
-        <v>171</v>
-      </c>
-      <c r="F252"/>
+        <v>132</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G252" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>1217</v>
+        <v>1286</v>
       </c>
       <c r="B253" t="s">
-        <v>1218</v>
+        <v>1287</v>
       </c>
       <c r="C253" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D253" t="s">
-        <v>1220</v>
-      </c>
+        <v>1288</v>
+      </c>
+      <c r="D253"/>
       <c r="E253" t="s">
-        <v>1221</v>
+        <v>37</v>
       </c>
       <c r="F253"/>
+      <c r="G253" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>1222</v>
+        <v>1289</v>
       </c>
       <c r="B254" t="s">
-        <v>1223</v>
+        <v>1290</v>
       </c>
       <c r="C254" t="s">
-        <v>1224</v>
+        <v>1291</v>
       </c>
       <c r="D254" t="s">
-        <v>1225</v>
+        <v>1292</v>
       </c>
       <c r="E254" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F254" t="s">
-        <v>1227</v>
+        <v>198</v>
+      </c>
+      <c r="F254"/>
+      <c r="G254" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>1228</v>
+        <v>1293</v>
       </c>
       <c r="B255" t="s">
-        <v>1229</v>
+        <v>1294</v>
       </c>
       <c r="C255" t="s">
-        <v>1230</v>
+        <v>1295</v>
       </c>
       <c r="D255" t="s">
-        <v>1231</v>
+        <v>1296</v>
       </c>
       <c r="E255" t="s">
-        <v>459</v>
+        <v>1297</v>
       </c>
       <c r="F255"/>
+      <c r="G255" t="s">
+        <v>1298</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B256"/>
-      <c r="C256"/>
-      <c r="D256"/>
-      <c r="E256"/>
-      <c r="F256"/>
+        <v>1299</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F256" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G256" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>1233</v>
+        <v>1305</v>
       </c>
       <c r="B257" t="s">
-        <v>1234</v>
+        <v>1306</v>
       </c>
       <c r="C257" t="s">
-        <v>1235</v>
+        <v>1307</v>
       </c>
       <c r="D257" t="s">
-        <v>1236</v>
+        <v>1308</v>
       </c>
       <c r="E257" t="s">
-        <v>48</v>
+        <v>294</v>
       </c>
       <c r="F257"/>
+      <c r="G257" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B258" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C258" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D258" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E258" t="s">
-        <v>124</v>
-      </c>
-      <c r="F258" t="s">
-        <v>1241</v>
+        <v>1309</v>
+      </c>
+      <c r="B258"/>
+      <c r="C258"/>
+      <c r="D258"/>
+      <c r="E258"/>
+      <c r="F258"/>
+      <c r="G258" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>1242</v>
+        <v>1310</v>
       </c>
       <c r="B259" t="s">
-        <v>1243</v>
+        <v>1311</v>
       </c>
       <c r="C259" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D259"/>
+        <v>1312</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1313</v>
+      </c>
       <c r="E259" t="s">
-        <v>43</v>
-      </c>
-      <c r="F259" t="s">
-        <v>1245</v>
+        <v>55</v>
+      </c>
+      <c r="F259"/>
+      <c r="G259" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>1246</v>
+        <v>1314</v>
       </c>
       <c r="B260" t="s">
-        <v>1247</v>
+        <v>1315</v>
       </c>
       <c r="C260" t="s">
-        <v>1248</v>
+        <v>1316</v>
       </c>
       <c r="D260" t="s">
-        <v>1249</v>
+        <v>1317</v>
       </c>
       <c r="E260" t="s">
-        <v>1250</v>
-      </c>
-      <c r="F260"/>
+        <v>1318</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G260" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>1251</v>
+        <v>1320</v>
       </c>
       <c r="B261" t="s">
-        <v>1252</v>
+        <v>1321</v>
       </c>
       <c r="C261" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D261" t="s">
-        <v>1254</v>
-      </c>
+        <v>1322</v>
+      </c>
+      <c r="D261"/>
       <c r="E261" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F261" t="s">
-        <v>771</v>
+        <v>1323</v>
+      </c>
+      <c r="G261" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>1255</v>
+        <v>1324</v>
       </c>
       <c r="B262" t="s">
-        <v>1256</v>
+        <v>1325</v>
       </c>
       <c r="C262" t="s">
-        <v>1257</v>
+        <v>1326</v>
       </c>
       <c r="D262" t="s">
-        <v>1258</v>
+        <v>1327</v>
       </c>
       <c r="E262" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F262" t="s">
-        <v>1260</v>
+        <v>1328</v>
+      </c>
+      <c r="F262"/>
+      <c r="G262" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>1261</v>
+        <v>1329</v>
       </c>
       <c r="B263" t="s">
-        <v>1262</v>
+        <v>1330</v>
       </c>
       <c r="C263" t="s">
-        <v>1263</v>
+        <v>1331</v>
       </c>
       <c r="D263" t="s">
-        <v>1264</v>
+        <v>1332</v>
       </c>
       <c r="E263" t="s">
-        <v>295</v>
-      </c>
-      <c r="F263"/>
+        <v>132</v>
+      </c>
+      <c r="F263" t="s">
+        <v>825</v>
+      </c>
+      <c r="G263" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>1265</v>
+        <v>1333</v>
       </c>
       <c r="B264" t="s">
-        <v>1266</v>
+        <v>1334</v>
       </c>
       <c r="C264" t="s">
-        <v>1267</v>
+        <v>1335</v>
       </c>
       <c r="D264" t="s">
-        <v>1268</v>
+        <v>1336</v>
       </c>
       <c r="E264" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F264" t="s">
-        <v>1269</v>
+        <v>1337</v>
+      </c>
+      <c r="G264" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>1270</v>
+        <v>1338</v>
       </c>
       <c r="B265" t="s">
-        <v>1271</v>
+        <v>1339</v>
       </c>
       <c r="C265" t="s">
-        <v>1272</v>
+        <v>1340</v>
       </c>
       <c r="D265" t="s">
-        <v>1273</v>
+        <v>1341</v>
       </c>
       <c r="E265" t="s">
-        <v>985</v>
-      </c>
-      <c r="F265"/>
+        <v>1342</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G265" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E266" t="s">
+        <v>24</v>
+      </c>
+      <c r="F266"/>
+      <c r="G266" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E267" t="s">
+        <v>327</v>
+      </c>
+      <c r="F267"/>
+      <c r="G267" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E268" t="s">
+        <v>522</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G268" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F269"/>
+      <c r="G269" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
